--- a/database/industries/darou/detmad/product/monthly_seprated.xlsx
+++ b/database/industries/darou/detmad/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\detmad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DDF5DE-3EEE-4806-B82D-7C10397E6759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A835A2-6CB4-45BB-ACA5-26F1CAC47F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="89">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1504,95 +1504,95 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>123513</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>91487</v>
       </c>
       <c r="AA11" s="11">
-        <v>123513</v>
+        <v>120391</v>
       </c>
       <c r="AB11" s="11">
-        <v>91487</v>
+        <v>230664</v>
       </c>
       <c r="AC11" s="11">
-        <v>120391</v>
+        <v>210132</v>
       </c>
       <c r="AD11" s="11">
-        <v>230664</v>
+        <v>271037</v>
       </c>
       <c r="AE11" s="11">
-        <v>210132</v>
+        <v>170445</v>
       </c>
       <c r="AF11" s="11">
-        <v>271037</v>
+        <v>189858</v>
       </c>
       <c r="AG11" s="11">
-        <v>170445</v>
+        <v>150000</v>
       </c>
       <c r="AH11" s="11">
-        <v>189858</v>
+        <v>104690</v>
       </c>
       <c r="AI11" s="11">
-        <v>150000</v>
+        <v>145110</v>
       </c>
       <c r="AJ11" s="11">
-        <v>104690</v>
+        <v>181285</v>
       </c>
       <c r="AK11" s="11">
-        <v>145110</v>
+        <v>123612</v>
       </c>
       <c r="AL11" s="11">
-        <v>181285</v>
+        <v>100950</v>
       </c>
       <c r="AM11" s="11">
-        <v>123612</v>
+        <v>135051</v>
       </c>
       <c r="AN11" s="11">
-        <v>100950</v>
+        <v>109142</v>
       </c>
       <c r="AO11" s="11">
-        <v>135051</v>
+        <v>76603</v>
       </c>
       <c r="AP11" s="11">
-        <v>109142</v>
+        <v>101625</v>
       </c>
       <c r="AQ11" s="11">
-        <v>76603</v>
+        <v>59813</v>
       </c>
       <c r="AR11" s="11">
-        <v>101625</v>
+        <v>103650</v>
       </c>
       <c r="AS11" s="11">
-        <v>59813</v>
+        <v>49677</v>
       </c>
       <c r="AT11" s="11">
-        <v>103650</v>
+        <v>37998</v>
       </c>
       <c r="AU11" s="11">
-        <v>49677</v>
+        <v>215582</v>
       </c>
       <c r="AV11" s="11">
-        <v>37998</v>
+        <v>111820</v>
       </c>
       <c r="AW11" s="11">
-        <v>215582</v>
+        <v>63481</v>
       </c>
       <c r="AX11" s="11">
-        <v>111820</v>
+        <v>90970</v>
       </c>
       <c r="AY11" s="11">
-        <v>63481</v>
+        <v>185257</v>
       </c>
       <c r="AZ11" s="11">
-        <v>90970</v>
+        <v>139305</v>
       </c>
       <c r="BA11" s="11">
-        <v>185257</v>
+        <v>121715</v>
       </c>
       <c r="BB11" s="11">
-        <v>139305</v>
+        <v>136466</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1663,95 +1663,95 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>23119</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>36147</v>
       </c>
       <c r="AA12" s="13">
-        <v>23119</v>
+        <v>55047</v>
       </c>
       <c r="AB12" s="13">
-        <v>36147</v>
+        <v>48649</v>
       </c>
       <c r="AC12" s="13">
-        <v>55047</v>
+        <v>56570</v>
       </c>
       <c r="AD12" s="13">
-        <v>48649</v>
+        <v>47065</v>
       </c>
       <c r="AE12" s="13">
-        <v>56570</v>
+        <v>73466</v>
       </c>
       <c r="AF12" s="13">
-        <v>47065</v>
+        <v>21841</v>
       </c>
       <c r="AG12" s="13">
-        <v>73466</v>
+        <v>71960</v>
       </c>
       <c r="AH12" s="13">
-        <v>21841</v>
+        <v>20007</v>
       </c>
       <c r="AI12" s="13">
-        <v>71960</v>
+        <v>10411</v>
       </c>
       <c r="AJ12" s="13">
-        <v>20007</v>
+        <v>22070</v>
       </c>
       <c r="AK12" s="13">
-        <v>10411</v>
+        <v>1991</v>
       </c>
       <c r="AL12" s="13">
-        <v>22070</v>
+        <v>7689</v>
       </c>
       <c r="AM12" s="13">
-        <v>1991</v>
+        <v>68684</v>
       </c>
       <c r="AN12" s="13">
-        <v>7689</v>
+        <v>33918</v>
       </c>
       <c r="AO12" s="13">
-        <v>68684</v>
+        <v>86676</v>
       </c>
       <c r="AP12" s="13">
-        <v>33918</v>
+        <v>19377</v>
       </c>
       <c r="AQ12" s="13">
-        <v>86676</v>
+        <v>20494</v>
       </c>
       <c r="AR12" s="13">
-        <v>19377</v>
+        <v>35944</v>
       </c>
       <c r="AS12" s="13">
-        <v>20494</v>
+        <v>59817</v>
       </c>
       <c r="AT12" s="13">
-        <v>35944</v>
+        <v>45293</v>
       </c>
       <c r="AU12" s="13">
-        <v>59817</v>
+        <v>12024</v>
       </c>
       <c r="AV12" s="13">
-        <v>45293</v>
+        <v>876</v>
       </c>
       <c r="AW12" s="13">
-        <v>12024</v>
+        <v>965</v>
       </c>
       <c r="AX12" s="13">
-        <v>876</v>
+        <v>778</v>
       </c>
       <c r="AY12" s="13">
-        <v>965</v>
+        <v>12234</v>
       </c>
       <c r="AZ12" s="13">
-        <v>778</v>
+        <v>2512</v>
       </c>
       <c r="BA12" s="13">
-        <v>12234</v>
+        <v>5084</v>
       </c>
       <c r="BB12" s="13">
-        <v>2512</v>
+        <v>62400</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1822,95 +1822,95 @@
       <c r="X13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z13" s="11" t="s">
-        <v>58</v>
+      <c r="Y13" s="11">
+        <v>112988</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>72605</v>
       </c>
       <c r="AA13" s="11">
-        <v>112988</v>
+        <v>107046</v>
       </c>
       <c r="AB13" s="11">
-        <v>72605</v>
+        <v>86373</v>
       </c>
       <c r="AC13" s="11">
-        <v>107046</v>
+        <v>38638</v>
       </c>
       <c r="AD13" s="11">
-        <v>86373</v>
+        <v>137714</v>
       </c>
       <c r="AE13" s="11">
-        <v>38638</v>
+        <v>118416</v>
       </c>
       <c r="AF13" s="11">
-        <v>137714</v>
+        <v>31347</v>
       </c>
       <c r="AG13" s="11">
-        <v>118416</v>
+        <v>117496</v>
       </c>
       <c r="AH13" s="11">
-        <v>31347</v>
+        <v>169510</v>
       </c>
       <c r="AI13" s="11">
-        <v>117496</v>
+        <v>6854265</v>
       </c>
       <c r="AJ13" s="11">
-        <v>169510</v>
+        <v>858095</v>
       </c>
       <c r="AK13" s="11">
-        <v>6854265</v>
+        <v>8379961</v>
       </c>
       <c r="AL13" s="11">
-        <v>858095</v>
+        <v>16271362</v>
       </c>
       <c r="AM13" s="11">
-        <v>8379961</v>
+        <v>538758</v>
       </c>
       <c r="AN13" s="11">
-        <v>16271362</v>
+        <v>1520981</v>
       </c>
       <c r="AO13" s="11">
-        <v>538758</v>
+        <v>4316415</v>
       </c>
       <c r="AP13" s="11">
-        <v>1520981</v>
+        <v>8593297</v>
       </c>
       <c r="AQ13" s="11">
-        <v>4316415</v>
+        <v>9411242</v>
       </c>
       <c r="AR13" s="11">
-        <v>8593297</v>
+        <v>5013129</v>
       </c>
       <c r="AS13" s="11">
-        <v>9411242</v>
+        <v>8017104</v>
       </c>
       <c r="AT13" s="11">
-        <v>5013129</v>
+        <v>160429</v>
       </c>
       <c r="AU13" s="11">
-        <v>8017104</v>
+        <v>386746</v>
       </c>
       <c r="AV13" s="11">
-        <v>160429</v>
+        <v>482425</v>
       </c>
       <c r="AW13" s="11">
-        <v>386746</v>
+        <v>705221</v>
       </c>
       <c r="AX13" s="11">
-        <v>482425</v>
+        <v>537704</v>
       </c>
       <c r="AY13" s="11">
-        <v>705221</v>
+        <v>2621154</v>
       </c>
       <c r="AZ13" s="11">
-        <v>537704</v>
+        <v>621573</v>
       </c>
       <c r="BA13" s="11">
-        <v>2621154</v>
+        <v>319592</v>
       </c>
       <c r="BB13" s="11">
-        <v>621573</v>
+        <v>695746</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1980,94 +1980,94 @@
         <v>0</v>
       </c>
       <c r="Y14" s="15">
-        <v>0</v>
+        <v>259620</v>
       </c>
       <c r="Z14" s="15">
-        <v>0</v>
+        <v>200239</v>
       </c>
       <c r="AA14" s="15">
-        <v>259620</v>
+        <v>282484</v>
       </c>
       <c r="AB14" s="15">
-        <v>200239</v>
+        <v>365686</v>
       </c>
       <c r="AC14" s="15">
-        <v>282484</v>
+        <v>305340</v>
       </c>
       <c r="AD14" s="15">
-        <v>365686</v>
+        <v>455816</v>
       </c>
       <c r="AE14" s="15">
-        <v>305340</v>
+        <v>362327</v>
       </c>
       <c r="AF14" s="15">
-        <v>455816</v>
+        <v>243046</v>
       </c>
       <c r="AG14" s="15">
-        <v>362327</v>
+        <v>339456</v>
       </c>
       <c r="AH14" s="15">
-        <v>243046</v>
+        <v>294207</v>
       </c>
       <c r="AI14" s="15">
-        <v>339456</v>
+        <v>7009786</v>
       </c>
       <c r="AJ14" s="15">
-        <v>294207</v>
+        <v>1061450</v>
       </c>
       <c r="AK14" s="15">
-        <v>7009786</v>
+        <v>8505564</v>
       </c>
       <c r="AL14" s="15">
-        <v>1061450</v>
+        <v>16380001</v>
       </c>
       <c r="AM14" s="15">
-        <v>8505564</v>
+        <v>742493</v>
       </c>
       <c r="AN14" s="15">
-        <v>16380001</v>
+        <v>1664041</v>
       </c>
       <c r="AO14" s="15">
-        <v>742493</v>
+        <v>4479694</v>
       </c>
       <c r="AP14" s="15">
-        <v>1664041</v>
+        <v>8714299</v>
       </c>
       <c r="AQ14" s="15">
-        <v>4479694</v>
+        <v>9491549</v>
       </c>
       <c r="AR14" s="15">
-        <v>8714299</v>
+        <v>5152723</v>
       </c>
       <c r="AS14" s="15">
-        <v>9491549</v>
+        <v>8126598</v>
       </c>
       <c r="AT14" s="15">
-        <v>5152723</v>
+        <v>243720</v>
       </c>
       <c r="AU14" s="15">
-        <v>8126598</v>
+        <v>614352</v>
       </c>
       <c r="AV14" s="15">
-        <v>243720</v>
+        <v>595121</v>
       </c>
       <c r="AW14" s="15">
-        <v>614352</v>
+        <v>769667</v>
       </c>
       <c r="AX14" s="15">
-        <v>595121</v>
+        <v>629452</v>
       </c>
       <c r="AY14" s="15">
-        <v>769667</v>
+        <v>2818645</v>
       </c>
       <c r="AZ14" s="15">
-        <v>629452</v>
+        <v>763390</v>
       </c>
       <c r="BA14" s="15">
-        <v>2818645</v>
+        <v>446391</v>
       </c>
       <c r="BB14" s="15">
-        <v>763390</v>
+        <v>894612</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2201,56 +2201,56 @@
       <c r="Z16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB16" s="11" t="s">
-        <v>58</v>
+      <c r="AA16" s="11">
+        <v>19980</v>
+      </c>
+      <c r="AB16" s="11">
+        <v>0</v>
       </c>
       <c r="AC16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="11">
+        <v>9900</v>
+      </c>
+      <c r="AI16" s="11">
+        <v>250</v>
+      </c>
+      <c r="AJ16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO16" s="11">
         <v>19980</v>
       </c>
-      <c r="AD16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="11">
-        <v>9900</v>
-      </c>
-      <c r="AK16" s="11">
-        <v>250</v>
-      </c>
-      <c r="AL16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO16" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="AP16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ16" s="11">
-        <v>19980</v>
+      <c r="AQ16" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR16" s="11" t="s">
         <v>58</v>
@@ -2258,17 +2258,17 @@
       <c r="AS16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW16" s="11" t="s">
-        <v>58</v>
+      <c r="AT16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="11">
+        <v>0</v>
       </c>
       <c r="AX16" s="11">
         <v>0</v>
@@ -2354,95 +2354,95 @@
       <c r="X17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z17" s="13" t="s">
-        <v>58</v>
+      <c r="Y17" s="13">
+        <v>2127</v>
+      </c>
+      <c r="Z17" s="13">
+        <v>2160</v>
       </c>
       <c r="AA17" s="13">
-        <v>2127</v>
+        <v>872</v>
       </c>
       <c r="AB17" s="13">
-        <v>2160</v>
+        <v>1821</v>
       </c>
       <c r="AC17" s="13">
-        <v>872</v>
+        <v>160</v>
       </c>
       <c r="AD17" s="13">
-        <v>1821</v>
+        <v>2325</v>
       </c>
       <c r="AE17" s="13">
-        <v>160</v>
+        <v>1020</v>
       </c>
       <c r="AF17" s="13">
-        <v>2325</v>
+        <v>247</v>
       </c>
       <c r="AG17" s="13">
-        <v>1020</v>
+        <v>110</v>
       </c>
       <c r="AH17" s="13">
-        <v>247</v>
+        <v>2150</v>
       </c>
       <c r="AI17" s="13">
-        <v>110</v>
+        <v>1359</v>
       </c>
       <c r="AJ17" s="13">
-        <v>2150</v>
+        <v>410</v>
       </c>
       <c r="AK17" s="13">
-        <v>1359</v>
+        <v>12205</v>
       </c>
       <c r="AL17" s="13">
+        <v>727</v>
+      </c>
+      <c r="AM17" s="13">
+        <v>308</v>
+      </c>
+      <c r="AN17" s="13">
+        <v>132</v>
+      </c>
+      <c r="AO17" s="13">
+        <v>429</v>
+      </c>
+      <c r="AP17" s="13">
+        <v>672</v>
+      </c>
+      <c r="AQ17" s="13">
+        <v>400</v>
+      </c>
+      <c r="AR17" s="13">
+        <v>46</v>
+      </c>
+      <c r="AS17" s="13">
+        <v>458</v>
+      </c>
+      <c r="AT17" s="13">
+        <v>9000</v>
+      </c>
+      <c r="AU17" s="13">
+        <v>7910</v>
+      </c>
+      <c r="AV17" s="13">
+        <v>1000</v>
+      </c>
+      <c r="AW17" s="13">
+        <v>258</v>
+      </c>
+      <c r="AX17" s="13">
+        <v>223</v>
+      </c>
+      <c r="AY17" s="13">
+        <v>408</v>
+      </c>
+      <c r="AZ17" s="13">
+        <v>981</v>
+      </c>
+      <c r="BA17" s="13">
         <v>410</v>
       </c>
-      <c r="AM17" s="13">
-        <v>12205</v>
-      </c>
-      <c r="AN17" s="13">
-        <v>727</v>
-      </c>
-      <c r="AO17" s="13">
-        <v>308</v>
-      </c>
-      <c r="AP17" s="13">
-        <v>132</v>
-      </c>
-      <c r="AQ17" s="13">
-        <v>429</v>
-      </c>
-      <c r="AR17" s="13">
-        <v>672</v>
-      </c>
-      <c r="AS17" s="13">
-        <v>400</v>
-      </c>
-      <c r="AT17" s="13">
-        <v>46</v>
-      </c>
-      <c r="AU17" s="13">
-        <v>458</v>
-      </c>
-      <c r="AV17" s="13">
-        <v>9000</v>
-      </c>
-      <c r="AW17" s="13">
-        <v>7910</v>
-      </c>
-      <c r="AX17" s="13">
-        <v>1000</v>
-      </c>
-      <c r="AY17" s="13">
-        <v>258</v>
-      </c>
-      <c r="AZ17" s="13">
-        <v>223</v>
-      </c>
-      <c r="BA17" s="13">
-        <v>408</v>
-      </c>
       <c r="BB17" s="13">
-        <v>981</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2513,56 +2513,56 @@
       <c r="X18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z18" s="11" t="s">
-        <v>58</v>
+      <c r="Y18" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="11">
+        <v>0</v>
       </c>
       <c r="AA18" s="11">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="AB18" s="11">
         <v>0</v>
       </c>
       <c r="AC18" s="11">
-        <v>3600</v>
+        <v>4230</v>
       </c>
       <c r="AD18" s="11">
         <v>0</v>
       </c>
       <c r="AE18" s="11">
-        <v>4230</v>
+        <v>690</v>
       </c>
       <c r="AF18" s="11">
         <v>0</v>
       </c>
       <c r="AG18" s="11">
-        <v>690</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="11">
         <v>0</v>
       </c>
       <c r="AI18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="11">
-        <v>0</v>
+        <v>3000000</v>
+      </c>
+      <c r="AJ18" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK18" s="11">
-        <v>3000000</v>
+        <v>12000000</v>
       </c>
       <c r="AL18" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AM18" s="11">
-        <v>12000000</v>
+        <v>4465900</v>
       </c>
       <c r="AN18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO18" s="11">
-        <v>4465900</v>
+      <c r="AO18" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP18" s="11" t="s">
         <v>58</v>
@@ -2576,17 +2576,17 @@
       <c r="AS18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW18" s="11" t="s">
-        <v>58</v>
+      <c r="AT18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="11">
+        <v>0</v>
       </c>
       <c r="AX18" s="11">
         <v>0</v>
@@ -2671,94 +2671,94 @@
         <v>0</v>
       </c>
       <c r="Y19" s="15">
-        <v>0</v>
+        <v>2127</v>
       </c>
       <c r="Z19" s="15">
-        <v>0</v>
+        <v>2160</v>
       </c>
       <c r="AA19" s="15">
-        <v>2127</v>
+        <v>24452</v>
       </c>
       <c r="AB19" s="15">
-        <v>2160</v>
+        <v>1821</v>
       </c>
       <c r="AC19" s="15">
-        <v>24452</v>
+        <v>4390</v>
       </c>
       <c r="AD19" s="15">
-        <v>1821</v>
+        <v>2325</v>
       </c>
       <c r="AE19" s="15">
-        <v>4390</v>
+        <v>1710</v>
       </c>
       <c r="AF19" s="15">
-        <v>2325</v>
+        <v>247</v>
       </c>
       <c r="AG19" s="15">
-        <v>1710</v>
+        <v>110</v>
       </c>
       <c r="AH19" s="15">
-        <v>247</v>
+        <v>12050</v>
       </c>
       <c r="AI19" s="15">
-        <v>110</v>
+        <v>3001609</v>
       </c>
       <c r="AJ19" s="15">
-        <v>12050</v>
+        <v>410</v>
       </c>
       <c r="AK19" s="15">
-        <v>3001609</v>
+        <v>12012205</v>
       </c>
       <c r="AL19" s="15">
+        <v>727</v>
+      </c>
+      <c r="AM19" s="15">
+        <v>4466208</v>
+      </c>
+      <c r="AN19" s="15">
+        <v>132</v>
+      </c>
+      <c r="AO19" s="15">
+        <v>20409</v>
+      </c>
+      <c r="AP19" s="15">
+        <v>672</v>
+      </c>
+      <c r="AQ19" s="15">
+        <v>400</v>
+      </c>
+      <c r="AR19" s="15">
+        <v>46</v>
+      </c>
+      <c r="AS19" s="15">
+        <v>458</v>
+      </c>
+      <c r="AT19" s="15">
+        <v>9000</v>
+      </c>
+      <c r="AU19" s="15">
+        <v>7910</v>
+      </c>
+      <c r="AV19" s="15">
+        <v>1000</v>
+      </c>
+      <c r="AW19" s="15">
+        <v>258</v>
+      </c>
+      <c r="AX19" s="15">
+        <v>223</v>
+      </c>
+      <c r="AY19" s="15">
+        <v>408</v>
+      </c>
+      <c r="AZ19" s="15">
+        <v>981</v>
+      </c>
+      <c r="BA19" s="15">
         <v>410</v>
       </c>
-      <c r="AM19" s="15">
-        <v>12012205</v>
-      </c>
-      <c r="AN19" s="15">
-        <v>727</v>
-      </c>
-      <c r="AO19" s="15">
-        <v>4466208</v>
-      </c>
-      <c r="AP19" s="15">
-        <v>132</v>
-      </c>
-      <c r="AQ19" s="15">
-        <v>20409</v>
-      </c>
-      <c r="AR19" s="15">
-        <v>672</v>
-      </c>
-      <c r="AS19" s="15">
-        <v>400</v>
-      </c>
-      <c r="AT19" s="15">
-        <v>46</v>
-      </c>
-      <c r="AU19" s="15">
-        <v>458</v>
-      </c>
-      <c r="AV19" s="15">
-        <v>9000</v>
-      </c>
-      <c r="AW19" s="15">
-        <v>7910</v>
-      </c>
-      <c r="AX19" s="15">
-        <v>1000</v>
-      </c>
-      <c r="AY19" s="15">
-        <v>258</v>
-      </c>
-      <c r="AZ19" s="15">
-        <v>223</v>
-      </c>
-      <c r="BA19" s="15">
-        <v>408</v>
-      </c>
       <c r="BB19" s="15">
-        <v>981</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -2884,11 +2884,11 @@
       <c r="X21" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y21" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z21" s="19" t="s">
-        <v>58</v>
+      <c r="Y21" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="19">
+        <v>0</v>
       </c>
       <c r="AA21" s="19">
         <v>0</v>
@@ -3042,94 +3042,94 @@
         <v>0</v>
       </c>
       <c r="Y22" s="15">
-        <v>0</v>
+        <v>261747</v>
       </c>
       <c r="Z22" s="15">
-        <v>0</v>
+        <v>202399</v>
       </c>
       <c r="AA22" s="15">
-        <v>261747</v>
+        <v>306936</v>
       </c>
       <c r="AB22" s="15">
-        <v>202399</v>
+        <v>367507</v>
       </c>
       <c r="AC22" s="15">
-        <v>306936</v>
+        <v>309730</v>
       </c>
       <c r="AD22" s="15">
-        <v>367507</v>
+        <v>458141</v>
       </c>
       <c r="AE22" s="15">
-        <v>309730</v>
+        <v>364037</v>
       </c>
       <c r="AF22" s="15">
-        <v>458141</v>
+        <v>243293</v>
       </c>
       <c r="AG22" s="15">
-        <v>364037</v>
+        <v>339566</v>
       </c>
       <c r="AH22" s="15">
-        <v>243293</v>
+        <v>306257</v>
       </c>
       <c r="AI22" s="15">
-        <v>339566</v>
+        <v>10011395</v>
       </c>
       <c r="AJ22" s="15">
-        <v>306257</v>
+        <v>1061860</v>
       </c>
       <c r="AK22" s="15">
-        <v>10011395</v>
+        <v>20517769</v>
       </c>
       <c r="AL22" s="15">
-        <v>1061860</v>
+        <v>16380728</v>
       </c>
       <c r="AM22" s="15">
-        <v>20517769</v>
+        <v>5208701</v>
       </c>
       <c r="AN22" s="15">
-        <v>16380728</v>
+        <v>1664173</v>
       </c>
       <c r="AO22" s="15">
-        <v>5208701</v>
+        <v>4500103</v>
       </c>
       <c r="AP22" s="15">
-        <v>1664173</v>
+        <v>8714971</v>
       </c>
       <c r="AQ22" s="15">
-        <v>4500103</v>
+        <v>9491949</v>
       </c>
       <c r="AR22" s="15">
-        <v>8714971</v>
+        <v>5152769</v>
       </c>
       <c r="AS22" s="15">
-        <v>9491949</v>
+        <v>8127056</v>
       </c>
       <c r="AT22" s="15">
-        <v>5152769</v>
+        <v>252720</v>
       </c>
       <c r="AU22" s="15">
-        <v>8127056</v>
+        <v>622262</v>
       </c>
       <c r="AV22" s="15">
-        <v>252720</v>
+        <v>596121</v>
       </c>
       <c r="AW22" s="15">
-        <v>622262</v>
+        <v>769925</v>
       </c>
       <c r="AX22" s="15">
-        <v>596121</v>
+        <v>629675</v>
       </c>
       <c r="AY22" s="15">
-        <v>769925</v>
+        <v>2819053</v>
       </c>
       <c r="AZ22" s="15">
-        <v>629675</v>
+        <v>764371</v>
       </c>
       <c r="BA22" s="15">
-        <v>2819053</v>
+        <v>446801</v>
       </c>
       <c r="BB22" s="15">
-        <v>764371</v>
+        <v>895712</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3634,95 +3634,95 @@
       <c r="X29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z29" s="11" t="s">
-        <v>58</v>
+      <c r="Y29" s="11">
+        <v>136174</v>
+      </c>
+      <c r="Z29" s="11">
+        <v>103920</v>
       </c>
       <c r="AA29" s="11">
-        <v>136174</v>
+        <v>210395</v>
       </c>
       <c r="AB29" s="11">
-        <v>103920</v>
+        <v>222468</v>
       </c>
       <c r="AC29" s="11">
-        <v>210395</v>
+        <v>177026</v>
       </c>
       <c r="AD29" s="11">
-        <v>222468</v>
+        <v>256629</v>
       </c>
       <c r="AE29" s="11">
-        <v>177026</v>
+        <v>161493</v>
       </c>
       <c r="AF29" s="11">
-        <v>256629</v>
+        <v>154749</v>
       </c>
       <c r="AG29" s="11">
-        <v>161493</v>
+        <v>46060</v>
       </c>
       <c r="AH29" s="11">
-        <v>154749</v>
+        <v>125266</v>
       </c>
       <c r="AI29" s="11">
-        <v>46060</v>
+        <v>133090</v>
       </c>
       <c r="AJ29" s="11">
-        <v>125266</v>
+        <v>145345</v>
       </c>
       <c r="AK29" s="11">
-        <v>133090</v>
+        <v>95075</v>
       </c>
       <c r="AL29" s="11">
-        <v>145345</v>
+        <v>92618</v>
       </c>
       <c r="AM29" s="11">
-        <v>95075</v>
+        <v>216920</v>
       </c>
       <c r="AN29" s="11">
-        <v>92618</v>
+        <v>94316</v>
       </c>
       <c r="AO29" s="11">
-        <v>216920</v>
+        <v>130862</v>
       </c>
       <c r="AP29" s="11">
-        <v>94316</v>
+        <v>136620</v>
       </c>
       <c r="AQ29" s="11">
-        <v>130862</v>
+        <v>192084</v>
       </c>
       <c r="AR29" s="11">
-        <v>136620</v>
+        <v>137065</v>
       </c>
       <c r="AS29" s="11">
-        <v>192084</v>
+        <v>44006</v>
       </c>
       <c r="AT29" s="11">
-        <v>137065</v>
+        <v>4650</v>
       </c>
       <c r="AU29" s="11">
-        <v>44006</v>
+        <v>148165</v>
       </c>
       <c r="AV29" s="11">
-        <v>4650</v>
+        <v>129137</v>
       </c>
       <c r="AW29" s="11">
-        <v>148165</v>
+        <v>121464</v>
       </c>
       <c r="AX29" s="11">
-        <v>129137</v>
+        <v>102181</v>
       </c>
       <c r="AY29" s="11">
-        <v>121464</v>
+        <v>188942</v>
       </c>
       <c r="AZ29" s="11">
-        <v>102181</v>
+        <v>137105</v>
       </c>
       <c r="BA29" s="11">
-        <v>188942</v>
+        <v>119711</v>
       </c>
       <c r="BB29" s="11">
-        <v>137105</v>
+        <v>115017</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -3793,95 +3793,95 @@
       <c r="X30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z30" s="13" t="s">
-        <v>58</v>
+      <c r="Y30" s="13">
+        <v>49284</v>
+      </c>
+      <c r="Z30" s="13">
+        <v>34427</v>
       </c>
       <c r="AA30" s="13">
-        <v>49284</v>
+        <v>28155</v>
       </c>
       <c r="AB30" s="13">
-        <v>34427</v>
+        <v>54963</v>
       </c>
       <c r="AC30" s="13">
-        <v>28155</v>
+        <v>49666</v>
       </c>
       <c r="AD30" s="13">
-        <v>54963</v>
+        <v>51797</v>
       </c>
       <c r="AE30" s="13">
-        <v>49666</v>
+        <v>3040</v>
       </c>
       <c r="AF30" s="13">
-        <v>51797</v>
+        <v>12138</v>
       </c>
       <c r="AG30" s="13">
-        <v>3040</v>
+        <v>16061</v>
       </c>
       <c r="AH30" s="13">
-        <v>12138</v>
+        <v>4360</v>
       </c>
       <c r="AI30" s="13">
-        <v>16061</v>
+        <v>29311</v>
       </c>
       <c r="AJ30" s="13">
-        <v>4360</v>
+        <v>24488</v>
       </c>
       <c r="AK30" s="13">
-        <v>29311</v>
+        <v>25922</v>
       </c>
       <c r="AL30" s="13">
-        <v>24488</v>
+        <v>49481</v>
       </c>
       <c r="AM30" s="13">
-        <v>25922</v>
+        <v>57290</v>
       </c>
       <c r="AN30" s="13">
-        <v>49481</v>
+        <v>51386</v>
       </c>
       <c r="AO30" s="13">
-        <v>57290</v>
+        <v>45041</v>
       </c>
       <c r="AP30" s="13">
-        <v>51386</v>
+        <v>32462</v>
       </c>
       <c r="AQ30" s="13">
-        <v>45041</v>
+        <v>46619</v>
       </c>
       <c r="AR30" s="13">
-        <v>32462</v>
+        <v>43574</v>
       </c>
       <c r="AS30" s="13">
-        <v>46619</v>
+        <v>42773</v>
       </c>
       <c r="AT30" s="13">
-        <v>43574</v>
+        <v>0</v>
       </c>
       <c r="AU30" s="13">
-        <v>42773</v>
+        <v>8950</v>
       </c>
       <c r="AV30" s="13">
-        <v>0</v>
+        <v>5319</v>
       </c>
       <c r="AW30" s="13">
-        <v>8950</v>
+        <v>15225</v>
       </c>
       <c r="AX30" s="13">
-        <v>5319</v>
+        <v>10255</v>
       </c>
       <c r="AY30" s="13">
-        <v>15225</v>
+        <v>1320</v>
       </c>
       <c r="AZ30" s="13">
-        <v>10255</v>
+        <v>41060</v>
       </c>
       <c r="BA30" s="13">
-        <v>1320</v>
+        <v>20572</v>
       </c>
       <c r="BB30" s="13">
-        <v>41060</v>
+        <v>63379</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -3952,95 +3952,95 @@
       <c r="X31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z31" s="11" t="s">
-        <v>58</v>
+      <c r="Y31" s="11">
+        <v>92444</v>
+      </c>
+      <c r="Z31" s="11">
+        <v>77876</v>
       </c>
       <c r="AA31" s="11">
-        <v>92444</v>
+        <v>92763</v>
       </c>
       <c r="AB31" s="11">
-        <v>77876</v>
+        <v>115244</v>
       </c>
       <c r="AC31" s="11">
-        <v>92763</v>
+        <v>40044</v>
       </c>
       <c r="AD31" s="11">
-        <v>115244</v>
+        <v>133423</v>
       </c>
       <c r="AE31" s="11">
-        <v>40044</v>
+        <v>52990</v>
       </c>
       <c r="AF31" s="11">
-        <v>133423</v>
+        <v>85160</v>
       </c>
       <c r="AG31" s="11">
-        <v>52990</v>
+        <v>96967</v>
       </c>
       <c r="AH31" s="11">
-        <v>85160</v>
+        <v>2073806</v>
       </c>
       <c r="AI31" s="11">
-        <v>96967</v>
+        <v>6552383</v>
       </c>
       <c r="AJ31" s="11">
-        <v>2073806</v>
+        <v>3354560</v>
       </c>
       <c r="AK31" s="11">
-        <v>6552383</v>
+        <v>9136924</v>
       </c>
       <c r="AL31" s="11">
-        <v>3354560</v>
+        <v>6065303</v>
       </c>
       <c r="AM31" s="11">
-        <v>9136924</v>
+        <v>14601946</v>
       </c>
       <c r="AN31" s="11">
-        <v>6065303</v>
+        <v>4969424</v>
       </c>
       <c r="AO31" s="11">
-        <v>14601946</v>
+        <v>11051669</v>
       </c>
       <c r="AP31" s="11">
-        <v>4969424</v>
+        <v>7034128</v>
       </c>
       <c r="AQ31" s="11">
-        <v>11051669</v>
+        <v>1988191</v>
       </c>
       <c r="AR31" s="11">
-        <v>7034128</v>
+        <v>6448517</v>
       </c>
       <c r="AS31" s="11">
-        <v>1988191</v>
+        <v>5929439</v>
       </c>
       <c r="AT31" s="11">
-        <v>6448517</v>
+        <v>6652127</v>
       </c>
       <c r="AU31" s="11">
-        <v>5929439</v>
+        <v>624279</v>
       </c>
       <c r="AV31" s="11">
-        <v>6652127</v>
+        <v>37566296</v>
       </c>
       <c r="AW31" s="11">
-        <v>624279</v>
+        <v>1268134</v>
       </c>
       <c r="AX31" s="11">
-        <v>37566296</v>
+        <v>10955154</v>
       </c>
       <c r="AY31" s="11">
-        <v>1268134</v>
+        <v>608155</v>
       </c>
       <c r="AZ31" s="11">
-        <v>10955154</v>
+        <v>7266266</v>
       </c>
       <c r="BA31" s="11">
-        <v>608155</v>
+        <v>1677062</v>
       </c>
       <c r="BB31" s="11">
-        <v>7266266</v>
+        <v>695760</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4110,94 +4110,94 @@
         <v>0</v>
       </c>
       <c r="Y32" s="15">
-        <v>0</v>
+        <v>277902</v>
       </c>
       <c r="Z32" s="15">
-        <v>0</v>
+        <v>216223</v>
       </c>
       <c r="AA32" s="15">
-        <v>277902</v>
+        <v>331313</v>
       </c>
       <c r="AB32" s="15">
-        <v>216223</v>
+        <v>392675</v>
       </c>
       <c r="AC32" s="15">
-        <v>331313</v>
+        <v>266736</v>
       </c>
       <c r="AD32" s="15">
-        <v>392675</v>
+        <v>441849</v>
       </c>
       <c r="AE32" s="15">
-        <v>266736</v>
+        <v>217523</v>
       </c>
       <c r="AF32" s="15">
-        <v>441849</v>
+        <v>252047</v>
       </c>
       <c r="AG32" s="15">
-        <v>217523</v>
+        <v>159088</v>
       </c>
       <c r="AH32" s="15">
-        <v>252047</v>
+        <v>2203432</v>
       </c>
       <c r="AI32" s="15">
-        <v>159088</v>
+        <v>6714784</v>
       </c>
       <c r="AJ32" s="15">
-        <v>2203432</v>
+        <v>3524393</v>
       </c>
       <c r="AK32" s="15">
-        <v>6714784</v>
+        <v>9257921</v>
       </c>
       <c r="AL32" s="15">
-        <v>3524393</v>
+        <v>6207402</v>
       </c>
       <c r="AM32" s="15">
-        <v>9257921</v>
+        <v>14876156</v>
       </c>
       <c r="AN32" s="15">
-        <v>6207402</v>
+        <v>5115126</v>
       </c>
       <c r="AO32" s="15">
-        <v>14876156</v>
+        <v>11227572</v>
       </c>
       <c r="AP32" s="15">
-        <v>5115126</v>
+        <v>7203210</v>
       </c>
       <c r="AQ32" s="15">
-        <v>11227572</v>
+        <v>2226894</v>
       </c>
       <c r="AR32" s="15">
-        <v>7203210</v>
+        <v>6629156</v>
       </c>
       <c r="AS32" s="15">
-        <v>2226894</v>
+        <v>6016218</v>
       </c>
       <c r="AT32" s="15">
-        <v>6629156</v>
+        <v>6656777</v>
       </c>
       <c r="AU32" s="15">
-        <v>6016218</v>
+        <v>781394</v>
       </c>
       <c r="AV32" s="15">
-        <v>6656777</v>
+        <v>37700752</v>
       </c>
       <c r="AW32" s="15">
-        <v>781394</v>
+        <v>1404823</v>
       </c>
       <c r="AX32" s="15">
-        <v>37700752</v>
+        <v>11067590</v>
       </c>
       <c r="AY32" s="15">
-        <v>1404823</v>
+        <v>798417</v>
       </c>
       <c r="AZ32" s="15">
-        <v>11067590</v>
+        <v>7444431</v>
       </c>
       <c r="BA32" s="15">
-        <v>798417</v>
+        <v>1817345</v>
       </c>
       <c r="BB32" s="15">
-        <v>7444431</v>
+        <v>874156</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4331,56 +4331,56 @@
       <c r="Z34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB34" s="11" t="s">
-        <v>58</v>
+      <c r="AA34" s="11">
+        <v>19980</v>
+      </c>
+      <c r="AB34" s="11">
+        <v>0</v>
       </c>
       <c r="AC34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="11">
+        <v>9900</v>
+      </c>
+      <c r="AI34" s="11">
+        <v>250</v>
+      </c>
+      <c r="AJ34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO34" s="11">
         <v>19980</v>
       </c>
-      <c r="AD34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="11">
-        <v>9900</v>
-      </c>
-      <c r="AK34" s="11">
-        <v>250</v>
-      </c>
-      <c r="AL34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO34" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="AP34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ34" s="11">
-        <v>19980</v>
+      <c r="AQ34" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR34" s="11" t="s">
         <v>58</v>
@@ -4388,17 +4388,17 @@
       <c r="AS34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW34" s="11" t="s">
-        <v>58</v>
+      <c r="AT34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="11">
+        <v>0</v>
       </c>
       <c r="AX34" s="11">
         <v>0</v>
@@ -4484,95 +4484,95 @@
       <c r="X35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z35" s="13" t="s">
-        <v>58</v>
+      <c r="Y35" s="13">
+        <v>2127</v>
+      </c>
+      <c r="Z35" s="13">
+        <v>2160</v>
       </c>
       <c r="AA35" s="13">
-        <v>2127</v>
+        <v>872</v>
       </c>
       <c r="AB35" s="13">
-        <v>2160</v>
+        <v>1821</v>
       </c>
       <c r="AC35" s="13">
-        <v>872</v>
+        <v>160</v>
       </c>
       <c r="AD35" s="13">
-        <v>1821</v>
+        <v>2325</v>
       </c>
       <c r="AE35" s="13">
-        <v>160</v>
+        <v>1020</v>
       </c>
       <c r="AF35" s="13">
-        <v>2325</v>
+        <v>247</v>
       </c>
       <c r="AG35" s="13">
-        <v>1020</v>
+        <v>110</v>
       </c>
       <c r="AH35" s="13">
-        <v>247</v>
+        <v>2150</v>
       </c>
       <c r="AI35" s="13">
-        <v>110</v>
+        <v>1359</v>
       </c>
       <c r="AJ35" s="13">
-        <v>2150</v>
+        <v>410</v>
       </c>
       <c r="AK35" s="13">
-        <v>1359</v>
+        <v>12205</v>
       </c>
       <c r="AL35" s="13">
+        <v>727</v>
+      </c>
+      <c r="AM35" s="13">
+        <v>308</v>
+      </c>
+      <c r="AN35" s="13">
+        <v>132</v>
+      </c>
+      <c r="AO35" s="13">
+        <v>429</v>
+      </c>
+      <c r="AP35" s="13">
+        <v>672</v>
+      </c>
+      <c r="AQ35" s="13">
+        <v>400</v>
+      </c>
+      <c r="AR35" s="13">
+        <v>46</v>
+      </c>
+      <c r="AS35" s="13">
+        <v>458</v>
+      </c>
+      <c r="AT35" s="13">
+        <v>9000</v>
+      </c>
+      <c r="AU35" s="13">
+        <v>7910</v>
+      </c>
+      <c r="AV35" s="13">
+        <v>1000</v>
+      </c>
+      <c r="AW35" s="13">
+        <v>258</v>
+      </c>
+      <c r="AX35" s="13">
+        <v>223</v>
+      </c>
+      <c r="AY35" s="13">
+        <v>408</v>
+      </c>
+      <c r="AZ35" s="13">
+        <v>981</v>
+      </c>
+      <c r="BA35" s="13">
         <v>410</v>
       </c>
-      <c r="AM35" s="13">
-        <v>12205</v>
-      </c>
-      <c r="AN35" s="13">
-        <v>727</v>
-      </c>
-      <c r="AO35" s="13">
-        <v>308</v>
-      </c>
-      <c r="AP35" s="13">
-        <v>132</v>
-      </c>
-      <c r="AQ35" s="13">
-        <v>429</v>
-      </c>
-      <c r="AR35" s="13">
-        <v>672</v>
-      </c>
-      <c r="AS35" s="13">
-        <v>400</v>
-      </c>
-      <c r="AT35" s="13">
-        <v>46</v>
-      </c>
-      <c r="AU35" s="13">
-        <v>458</v>
-      </c>
-      <c r="AV35" s="13">
-        <v>9000</v>
-      </c>
-      <c r="AW35" s="13">
-        <v>7910</v>
-      </c>
-      <c r="AX35" s="13">
-        <v>1000</v>
-      </c>
-      <c r="AY35" s="13">
-        <v>258</v>
-      </c>
-      <c r="AZ35" s="13">
-        <v>223</v>
-      </c>
-      <c r="BA35" s="13">
-        <v>408</v>
-      </c>
       <c r="BB35" s="13">
-        <v>981</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4643,56 +4643,56 @@
       <c r="X36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z36" s="11" t="s">
-        <v>58</v>
+      <c r="Y36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="11">
+        <v>0</v>
       </c>
       <c r="AA36" s="11">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="AB36" s="11">
         <v>0</v>
       </c>
       <c r="AC36" s="11">
-        <v>3600</v>
+        <v>4230</v>
       </c>
       <c r="AD36" s="11">
         <v>0</v>
       </c>
       <c r="AE36" s="11">
-        <v>4230</v>
+        <v>690</v>
       </c>
       <c r="AF36" s="11">
         <v>0</v>
       </c>
       <c r="AG36" s="11">
-        <v>690</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="11">
         <v>0</v>
       </c>
       <c r="AI36" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="11">
-        <v>0</v>
+        <v>3000000</v>
+      </c>
+      <c r="AJ36" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK36" s="11">
-        <v>3000000</v>
+        <v>12000000</v>
       </c>
       <c r="AL36" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AM36" s="11">
-        <v>12000000</v>
+        <v>4465900</v>
       </c>
       <c r="AN36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO36" s="11">
-        <v>4465900</v>
+      <c r="AO36" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP36" s="11" t="s">
         <v>58</v>
@@ -4706,17 +4706,17 @@
       <c r="AS36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW36" s="11" t="s">
-        <v>58</v>
+      <c r="AT36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="11">
+        <v>0</v>
       </c>
       <c r="AX36" s="11">
         <v>0</v>
@@ -4801,94 +4801,94 @@
         <v>0</v>
       </c>
       <c r="Y37" s="15">
-        <v>0</v>
+        <v>2127</v>
       </c>
       <c r="Z37" s="15">
-        <v>0</v>
+        <v>2160</v>
       </c>
       <c r="AA37" s="15">
-        <v>2127</v>
+        <v>24452</v>
       </c>
       <c r="AB37" s="15">
-        <v>2160</v>
+        <v>1821</v>
       </c>
       <c r="AC37" s="15">
-        <v>24452</v>
+        <v>4390</v>
       </c>
       <c r="AD37" s="15">
-        <v>1821</v>
+        <v>2325</v>
       </c>
       <c r="AE37" s="15">
-        <v>4390</v>
+        <v>1710</v>
       </c>
       <c r="AF37" s="15">
-        <v>2325</v>
+        <v>247</v>
       </c>
       <c r="AG37" s="15">
-        <v>1710</v>
+        <v>110</v>
       </c>
       <c r="AH37" s="15">
-        <v>247</v>
+        <v>12050</v>
       </c>
       <c r="AI37" s="15">
-        <v>110</v>
+        <v>3001609</v>
       </c>
       <c r="AJ37" s="15">
-        <v>12050</v>
+        <v>410</v>
       </c>
       <c r="AK37" s="15">
-        <v>3001609</v>
+        <v>12012205</v>
       </c>
       <c r="AL37" s="15">
+        <v>727</v>
+      </c>
+      <c r="AM37" s="15">
+        <v>4466208</v>
+      </c>
+      <c r="AN37" s="15">
+        <v>132</v>
+      </c>
+      <c r="AO37" s="15">
+        <v>20409</v>
+      </c>
+      <c r="AP37" s="15">
+        <v>672</v>
+      </c>
+      <c r="AQ37" s="15">
+        <v>400</v>
+      </c>
+      <c r="AR37" s="15">
+        <v>46</v>
+      </c>
+      <c r="AS37" s="15">
+        <v>458</v>
+      </c>
+      <c r="AT37" s="15">
+        <v>9000</v>
+      </c>
+      <c r="AU37" s="15">
+        <v>7910</v>
+      </c>
+      <c r="AV37" s="15">
+        <v>1000</v>
+      </c>
+      <c r="AW37" s="15">
+        <v>258</v>
+      </c>
+      <c r="AX37" s="15">
+        <v>223</v>
+      </c>
+      <c r="AY37" s="15">
+        <v>408</v>
+      </c>
+      <c r="AZ37" s="15">
+        <v>981</v>
+      </c>
+      <c r="BA37" s="15">
         <v>410</v>
       </c>
-      <c r="AM37" s="15">
-        <v>12012205</v>
-      </c>
-      <c r="AN37" s="15">
-        <v>727</v>
-      </c>
-      <c r="AO37" s="15">
-        <v>4466208</v>
-      </c>
-      <c r="AP37" s="15">
-        <v>132</v>
-      </c>
-      <c r="AQ37" s="15">
-        <v>20409</v>
-      </c>
-      <c r="AR37" s="15">
-        <v>672</v>
-      </c>
-      <c r="AS37" s="15">
-        <v>400</v>
-      </c>
-      <c r="AT37" s="15">
-        <v>46</v>
-      </c>
-      <c r="AU37" s="15">
-        <v>458</v>
-      </c>
-      <c r="AV37" s="15">
-        <v>9000</v>
-      </c>
-      <c r="AW37" s="15">
-        <v>7910</v>
-      </c>
-      <c r="AX37" s="15">
-        <v>1000</v>
-      </c>
-      <c r="AY37" s="15">
-        <v>258</v>
-      </c>
-      <c r="AZ37" s="15">
-        <v>223</v>
-      </c>
-      <c r="BA37" s="15">
-        <v>408</v>
-      </c>
       <c r="BB37" s="15">
-        <v>981</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5014,11 +5014,11 @@
       <c r="X39" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y39" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z39" s="19" t="s">
-        <v>58</v>
+      <c r="Y39" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="19">
+        <v>0</v>
       </c>
       <c r="AA39" s="19">
         <v>0</v>
@@ -5230,95 +5230,95 @@
       <c r="X41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z41" s="11" t="s">
-        <v>58</v>
+      <c r="Y41" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="11">
+        <v>0</v>
       </c>
       <c r="AA41" s="11">
         <v>0</v>
       </c>
       <c r="AB41" s="11">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AC41" s="11">
         <v>0</v>
       </c>
       <c r="AD41" s="11">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="AE41" s="11">
         <v>0</v>
       </c>
       <c r="AF41" s="11">
-        <v>299</v>
+        <v>4220</v>
       </c>
       <c r="AG41" s="11">
         <v>0</v>
       </c>
       <c r="AH41" s="11">
-        <v>4220</v>
-      </c>
-      <c r="AI41" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI41" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL41" s="11">
         <v>50</v>
       </c>
+      <c r="AK41" s="11">
+        <v>31000</v>
+      </c>
+      <c r="AL41" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AM41" s="11">
-        <v>31000</v>
+        <v>2260</v>
       </c>
       <c r="AN41" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AO41" s="11">
-        <v>2260</v>
-      </c>
-      <c r="AP41" s="11" t="s">
-        <v>58</v>
+        <v>2425</v>
+      </c>
+      <c r="AP41" s="11">
+        <v>200</v>
       </c>
       <c r="AQ41" s="11">
-        <v>2425</v>
+        <v>500</v>
       </c>
       <c r="AR41" s="11">
+        <v>12978</v>
+      </c>
+      <c r="AS41" s="11">
+        <v>3000</v>
+      </c>
+      <c r="AT41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW41" s="11">
+        <v>4318</v>
+      </c>
+      <c r="AX41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY41" s="11">
+        <v>2100</v>
+      </c>
+      <c r="AZ41" s="11">
         <v>200</v>
       </c>
-      <c r="AS41" s="11">
-        <v>500</v>
-      </c>
-      <c r="AT41" s="11">
-        <v>12978</v>
-      </c>
-      <c r="AU41" s="11">
-        <v>3000</v>
-      </c>
-      <c r="AV41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY41" s="11">
-        <v>4318</v>
-      </c>
-      <c r="AZ41" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="BA41" s="11">
-        <v>2100</v>
+        <v>1395</v>
       </c>
       <c r="BB41" s="11">
-        <v>200</v>
+        <v>454</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5389,41 +5389,41 @@
       <c r="X42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z42" s="13" t="s">
-        <v>58</v>
+      <c r="Y42" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="13">
+        <v>0</v>
       </c>
       <c r="AA42" s="13">
         <v>0</v>
       </c>
       <c r="AB42" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC42" s="13">
         <v>0</v>
       </c>
       <c r="AD42" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="13">
         <v>0</v>
       </c>
       <c r="AF42" s="13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG42" s="13">
         <v>0</v>
       </c>
       <c r="AH42" s="13">
-        <v>13</v>
-      </c>
-      <c r="AI42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ42" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK42" s="13" t="s">
         <v>58</v>
@@ -5446,18 +5446,18 @@
       <c r="AQ42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT42" s="13">
+      <c r="AR42" s="13">
         <v>2</v>
       </c>
-      <c r="AU42" s="13">
+      <c r="AS42" s="13">
         <v>85483</v>
       </c>
+      <c r="AT42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU42" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV42" s="13" t="s">
         <v>58</v>
       </c>
@@ -5473,8 +5473,8 @@
       <c r="AZ42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA42" s="13" t="s">
-        <v>58</v>
+      <c r="BA42" s="13">
+        <v>30</v>
       </c>
       <c r="BB42" s="13" t="s">
         <v>58</v>
@@ -5548,26 +5548,26 @@
       <c r="X43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z43" s="11" t="s">
-        <v>58</v>
+      <c r="Y43" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="11">
+        <v>0</v>
       </c>
       <c r="AA43" s="11">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AB43" s="11">
         <v>0</v>
       </c>
       <c r="AC43" s="11">
-        <v>420</v>
+        <v>60</v>
       </c>
       <c r="AD43" s="11">
         <v>0</v>
       </c>
       <c r="AE43" s="11">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AF43" s="11">
         <v>0</v>
@@ -5578,17 +5578,17 @@
       <c r="AH43" s="11">
         <v>0</v>
       </c>
-      <c r="AI43" s="11">
-        <v>0</v>
+      <c r="AI43" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ43" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL43" s="11">
-        <v>1</v>
+      <c r="AL43" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM43" s="11" t="s">
         <v>58</v>
@@ -5620,20 +5620,20 @@
       <c r="AV43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX43" s="11" t="s">
-        <v>58</v>
+      <c r="AW43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX43" s="11">
+        <v>2600000</v>
       </c>
       <c r="AY43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ43" s="11">
-        <v>2600000</v>
-      </c>
-      <c r="BA43" s="11" t="s">
-        <v>58</v>
+      <c r="AZ43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA43" s="11">
+        <v>0</v>
       </c>
       <c r="BB43" s="11" t="s">
         <v>58</v>
@@ -5705,95 +5705,95 @@
       <c r="X44" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y44" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z44" s="15" t="s">
-        <v>58</v>
+      <c r="Y44" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="15">
+        <v>0</v>
       </c>
       <c r="AA44" s="15">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AB44" s="15">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="AC44" s="15">
-        <v>420</v>
+        <v>60</v>
       </c>
       <c r="AD44" s="15">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="AE44" s="15">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="15">
-        <v>299</v>
+        <v>4233</v>
       </c>
       <c r="AG44" s="15">
         <v>0</v>
       </c>
       <c r="AH44" s="15">
-        <v>4233</v>
+        <v>0</v>
       </c>
       <c r="AI44" s="15">
         <v>0</v>
       </c>
       <c r="AJ44" s="15">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AK44" s="15">
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="AL44" s="15">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="15">
-        <v>31000</v>
+        <v>2260</v>
       </c>
       <c r="AN44" s="15">
         <v>0</v>
       </c>
       <c r="AO44" s="15">
-        <v>2260</v>
+        <v>2425</v>
       </c>
       <c r="AP44" s="15">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AQ44" s="15">
-        <v>2425</v>
+        <v>500</v>
       </c>
       <c r="AR44" s="15">
+        <v>12980</v>
+      </c>
+      <c r="AS44" s="15">
+        <v>88483</v>
+      </c>
+      <c r="AT44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="15">
+        <v>4318</v>
+      </c>
+      <c r="AX44" s="15">
+        <v>2600000</v>
+      </c>
+      <c r="AY44" s="15">
+        <v>2100</v>
+      </c>
+      <c r="AZ44" s="15">
         <v>200</v>
       </c>
-      <c r="AS44" s="15">
-        <v>500</v>
-      </c>
-      <c r="AT44" s="15">
-        <v>12980</v>
-      </c>
-      <c r="AU44" s="15">
-        <v>88483</v>
-      </c>
-      <c r="AV44" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW44" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX44" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY44" s="15">
-        <v>4318</v>
-      </c>
-      <c r="AZ44" s="15">
-        <v>2600000</v>
-      </c>
       <c r="BA44" s="15">
-        <v>2100</v>
+        <v>1425</v>
       </c>
       <c r="BB44" s="15">
-        <v>200</v>
+        <v>454</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -5863,94 +5863,94 @@
         <v>0</v>
       </c>
       <c r="Y45" s="19">
-        <v>0</v>
+        <v>280029</v>
       </c>
       <c r="Z45" s="19">
-        <v>0</v>
+        <v>218383</v>
       </c>
       <c r="AA45" s="19">
-        <v>280029</v>
+        <v>356185</v>
       </c>
       <c r="AB45" s="19">
-        <v>218383</v>
+        <v>394831</v>
       </c>
       <c r="AC45" s="19">
-        <v>356185</v>
+        <v>271186</v>
       </c>
       <c r="AD45" s="19">
-        <v>394831</v>
+        <v>444473</v>
       </c>
       <c r="AE45" s="19">
-        <v>271186</v>
+        <v>219233</v>
       </c>
       <c r="AF45" s="19">
-        <v>444473</v>
+        <v>256527</v>
       </c>
       <c r="AG45" s="19">
-        <v>219233</v>
+        <v>159198</v>
       </c>
       <c r="AH45" s="19">
-        <v>256527</v>
+        <v>2215482</v>
       </c>
       <c r="AI45" s="19">
-        <v>159198</v>
+        <v>9716393</v>
       </c>
       <c r="AJ45" s="19">
-        <v>2215482</v>
+        <v>3524854</v>
       </c>
       <c r="AK45" s="19">
-        <v>9716393</v>
+        <v>21301126</v>
       </c>
       <c r="AL45" s="19">
-        <v>3524854</v>
+        <v>6208129</v>
       </c>
       <c r="AM45" s="19">
-        <v>21301126</v>
+        <v>19344624</v>
       </c>
       <c r="AN45" s="19">
-        <v>6208129</v>
+        <v>5115258</v>
       </c>
       <c r="AO45" s="19">
-        <v>19344624</v>
+        <v>11250406</v>
       </c>
       <c r="AP45" s="19">
-        <v>5115258</v>
+        <v>7204082</v>
       </c>
       <c r="AQ45" s="19">
-        <v>11250406</v>
+        <v>2227794</v>
       </c>
       <c r="AR45" s="19">
-        <v>7204082</v>
+        <v>6642182</v>
       </c>
       <c r="AS45" s="19">
-        <v>2227794</v>
+        <v>6105159</v>
       </c>
       <c r="AT45" s="19">
-        <v>6642182</v>
+        <v>6665777</v>
       </c>
       <c r="AU45" s="19">
-        <v>6105159</v>
+        <v>789304</v>
       </c>
       <c r="AV45" s="19">
-        <v>6665777</v>
+        <v>37701752</v>
       </c>
       <c r="AW45" s="19">
-        <v>789304</v>
+        <v>1409399</v>
       </c>
       <c r="AX45" s="19">
-        <v>37701752</v>
+        <v>13667813</v>
       </c>
       <c r="AY45" s="19">
-        <v>1409399</v>
+        <v>800925</v>
       </c>
       <c r="AZ45" s="19">
-        <v>13667813</v>
+        <v>7445612</v>
       </c>
       <c r="BA45" s="19">
-        <v>800925</v>
+        <v>1819180</v>
       </c>
       <c r="BB45" s="19">
-        <v>7445612</v>
+        <v>875710</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6455,95 +6455,95 @@
       <c r="X52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y52" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z52" s="11" t="s">
-        <v>58</v>
+      <c r="Y52" s="11">
+        <v>240253</v>
+      </c>
+      <c r="Z52" s="11">
+        <v>316454</v>
       </c>
       <c r="AA52" s="11">
-        <v>240253</v>
+        <v>437772</v>
       </c>
       <c r="AB52" s="11">
-        <v>316454</v>
+        <v>423534</v>
       </c>
       <c r="AC52" s="11">
-        <v>437772</v>
+        <v>432070</v>
       </c>
       <c r="AD52" s="11">
-        <v>423534</v>
+        <v>555472</v>
       </c>
       <c r="AE52" s="11">
-        <v>432070</v>
+        <v>429292</v>
       </c>
       <c r="AF52" s="11">
-        <v>555472</v>
+        <v>449098</v>
       </c>
       <c r="AG52" s="11">
-        <v>429292</v>
+        <v>117536</v>
       </c>
       <c r="AH52" s="11">
-        <v>449098</v>
+        <v>412403</v>
       </c>
       <c r="AI52" s="11">
-        <v>117536</v>
+        <v>460291</v>
       </c>
       <c r="AJ52" s="11">
-        <v>412403</v>
+        <v>586980</v>
       </c>
       <c r="AK52" s="11">
-        <v>460291</v>
+        <v>384648</v>
       </c>
       <c r="AL52" s="11">
-        <v>586980</v>
+        <v>312238</v>
       </c>
       <c r="AM52" s="11">
-        <v>384648</v>
+        <v>795186</v>
       </c>
       <c r="AN52" s="11">
-        <v>312238</v>
+        <v>347212</v>
       </c>
       <c r="AO52" s="11">
-        <v>795186</v>
+        <v>486382</v>
       </c>
       <c r="AP52" s="11">
-        <v>347212</v>
+        <v>507961</v>
       </c>
       <c r="AQ52" s="11">
-        <v>486382</v>
+        <v>746813</v>
       </c>
       <c r="AR52" s="11">
-        <v>507961</v>
+        <v>751357</v>
       </c>
       <c r="AS52" s="11">
-        <v>746813</v>
+        <v>270950</v>
       </c>
       <c r="AT52" s="11">
-        <v>751357</v>
+        <v>64077</v>
       </c>
       <c r="AU52" s="11">
-        <v>270950</v>
+        <v>637157</v>
       </c>
       <c r="AV52" s="11">
-        <v>64077</v>
+        <v>555701</v>
       </c>
       <c r="AW52" s="11">
-        <v>637157</v>
+        <v>759655</v>
       </c>
       <c r="AX52" s="11">
-        <v>555701</v>
+        <v>787948</v>
       </c>
       <c r="AY52" s="11">
-        <v>759655</v>
+        <v>1152750</v>
       </c>
       <c r="AZ52" s="11">
-        <v>787948</v>
+        <v>748236</v>
       </c>
       <c r="BA52" s="11">
-        <v>1152750</v>
+        <v>526878</v>
       </c>
       <c r="BB52" s="11">
-        <v>748236</v>
+        <v>585952</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -6614,95 +6614,95 @@
       <c r="X53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z53" s="13" t="s">
-        <v>58</v>
+      <c r="Y53" s="13">
+        <v>83369</v>
+      </c>
+      <c r="Z53" s="13">
+        <v>63944</v>
       </c>
       <c r="AA53" s="13">
-        <v>83369</v>
+        <v>102807</v>
       </c>
       <c r="AB53" s="13">
-        <v>63944</v>
+        <v>53676</v>
       </c>
       <c r="AC53" s="13">
-        <v>102807</v>
+        <v>86348</v>
       </c>
       <c r="AD53" s="13">
-        <v>53676</v>
+        <v>119560</v>
       </c>
       <c r="AE53" s="13">
-        <v>86348</v>
+        <v>40659</v>
       </c>
       <c r="AF53" s="13">
-        <v>119560</v>
+        <v>82108</v>
       </c>
       <c r="AG53" s="13">
-        <v>40659</v>
+        <v>22290</v>
       </c>
       <c r="AH53" s="13">
-        <v>82108</v>
+        <v>60928</v>
       </c>
       <c r="AI53" s="13">
-        <v>22290</v>
+        <v>144882</v>
       </c>
       <c r="AJ53" s="13">
-        <v>60928</v>
+        <v>116214</v>
       </c>
       <c r="AK53" s="13">
-        <v>144882</v>
+        <v>137702</v>
       </c>
       <c r="AL53" s="13">
-        <v>116214</v>
+        <v>189250</v>
       </c>
       <c r="AM53" s="13">
-        <v>137702</v>
+        <v>279249</v>
       </c>
       <c r="AN53" s="13">
-        <v>189250</v>
+        <v>91325</v>
       </c>
       <c r="AO53" s="13">
-        <v>279249</v>
+        <v>97417</v>
       </c>
       <c r="AP53" s="13">
-        <v>91325</v>
+        <v>88316</v>
       </c>
       <c r="AQ53" s="13">
-        <v>97417</v>
+        <v>203419</v>
       </c>
       <c r="AR53" s="13">
-        <v>88316</v>
+        <v>83976</v>
       </c>
       <c r="AS53" s="13">
-        <v>203419</v>
+        <v>67000</v>
       </c>
       <c r="AT53" s="13">
-        <v>83976</v>
+        <v>0</v>
       </c>
       <c r="AU53" s="13">
-        <v>67000</v>
+        <v>21221</v>
       </c>
       <c r="AV53" s="13">
-        <v>0</v>
+        <v>77892</v>
       </c>
       <c r="AW53" s="13">
-        <v>21221</v>
+        <v>50755</v>
       </c>
       <c r="AX53" s="13">
-        <v>77892</v>
+        <v>62132</v>
       </c>
       <c r="AY53" s="13">
-        <v>50755</v>
+        <v>67970</v>
       </c>
       <c r="AZ53" s="13">
-        <v>62132</v>
+        <v>35584</v>
       </c>
       <c r="BA53" s="13">
-        <v>67970</v>
+        <v>19023</v>
       </c>
       <c r="BB53" s="13">
-        <v>35584</v>
+        <v>115383</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -6773,95 +6773,95 @@
       <c r="X54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y54" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z54" s="11" t="s">
-        <v>58</v>
+      <c r="Y54" s="11">
+        <v>68361</v>
+      </c>
+      <c r="Z54" s="11">
+        <v>75538</v>
       </c>
       <c r="AA54" s="11">
-        <v>68361</v>
+        <v>69530</v>
       </c>
       <c r="AB54" s="11">
-        <v>75538</v>
+        <v>99815</v>
       </c>
       <c r="AC54" s="11">
-        <v>69530</v>
+        <v>28200</v>
       </c>
       <c r="AD54" s="11">
-        <v>99815</v>
+        <v>152129</v>
       </c>
       <c r="AE54" s="11">
-        <v>28200</v>
+        <v>38418</v>
       </c>
       <c r="AF54" s="11">
-        <v>152129</v>
+        <v>61172</v>
       </c>
       <c r="AG54" s="11">
-        <v>38418</v>
+        <v>75863</v>
       </c>
       <c r="AH54" s="11">
-        <v>61172</v>
+        <v>28486</v>
       </c>
       <c r="AI54" s="11">
-        <v>75863</v>
+        <v>89364</v>
       </c>
       <c r="AJ54" s="11">
-        <v>28486</v>
+        <v>57308</v>
       </c>
       <c r="AK54" s="11">
-        <v>89364</v>
+        <v>83245</v>
       </c>
       <c r="AL54" s="11">
-        <v>57308</v>
+        <v>73034</v>
       </c>
       <c r="AM54" s="11">
-        <v>83245</v>
+        <v>137943</v>
       </c>
       <c r="AN54" s="11">
-        <v>73034</v>
+        <v>75420</v>
       </c>
       <c r="AO54" s="11">
-        <v>137943</v>
+        <v>83758</v>
       </c>
       <c r="AP54" s="11">
-        <v>75420</v>
+        <v>76320</v>
       </c>
       <c r="AQ54" s="11">
-        <v>83758</v>
+        <v>68947</v>
       </c>
       <c r="AR54" s="11">
-        <v>76320</v>
+        <v>104804</v>
       </c>
       <c r="AS54" s="11">
-        <v>68947</v>
+        <v>74739</v>
       </c>
       <c r="AT54" s="11">
-        <v>104804</v>
+        <v>65582</v>
       </c>
       <c r="AU54" s="11">
-        <v>74739</v>
+        <v>14761</v>
       </c>
       <c r="AV54" s="11">
-        <v>65582</v>
+        <v>302901</v>
       </c>
       <c r="AW54" s="11">
-        <v>14761</v>
+        <v>197218</v>
       </c>
       <c r="AX54" s="11">
-        <v>302901</v>
+        <v>187527</v>
       </c>
       <c r="AY54" s="11">
-        <v>197218</v>
+        <v>163829</v>
       </c>
       <c r="AZ54" s="11">
-        <v>187527</v>
+        <v>162577</v>
       </c>
       <c r="BA54" s="11">
-        <v>163829</v>
+        <v>110259</v>
       </c>
       <c r="BB54" s="11">
-        <v>162577</v>
+        <v>163013</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -6931,94 +6931,94 @@
         <v>0</v>
       </c>
       <c r="Y55" s="15">
-        <v>0</v>
+        <v>391983</v>
       </c>
       <c r="Z55" s="15">
-        <v>0</v>
+        <v>455936</v>
       </c>
       <c r="AA55" s="15">
-        <v>391983</v>
+        <v>610109</v>
       </c>
       <c r="AB55" s="15">
-        <v>455936</v>
+        <v>577025</v>
       </c>
       <c r="AC55" s="15">
-        <v>610109</v>
+        <v>546618</v>
       </c>
       <c r="AD55" s="15">
-        <v>577025</v>
+        <v>827161</v>
       </c>
       <c r="AE55" s="15">
-        <v>546618</v>
+        <v>508369</v>
       </c>
       <c r="AF55" s="15">
-        <v>827161</v>
+        <v>592378</v>
       </c>
       <c r="AG55" s="15">
-        <v>508369</v>
+        <v>215689</v>
       </c>
       <c r="AH55" s="15">
-        <v>592378</v>
+        <v>501817</v>
       </c>
       <c r="AI55" s="15">
-        <v>215689</v>
+        <v>694537</v>
       </c>
       <c r="AJ55" s="15">
-        <v>501817</v>
+        <v>760502</v>
       </c>
       <c r="AK55" s="15">
-        <v>694537</v>
+        <v>605595</v>
       </c>
       <c r="AL55" s="15">
-        <v>760502</v>
+        <v>574522</v>
       </c>
       <c r="AM55" s="15">
-        <v>605595</v>
+        <v>1212378</v>
       </c>
       <c r="AN55" s="15">
-        <v>574522</v>
+        <v>513957</v>
       </c>
       <c r="AO55" s="15">
-        <v>1212378</v>
+        <v>667557</v>
       </c>
       <c r="AP55" s="15">
-        <v>513957</v>
+        <v>672597</v>
       </c>
       <c r="AQ55" s="15">
-        <v>667557</v>
+        <v>1019179</v>
       </c>
       <c r="AR55" s="15">
-        <v>672597</v>
+        <v>940137</v>
       </c>
       <c r="AS55" s="15">
-        <v>1019179</v>
+        <v>412689</v>
       </c>
       <c r="AT55" s="15">
-        <v>940137</v>
+        <v>129659</v>
       </c>
       <c r="AU55" s="15">
-        <v>412689</v>
+        <v>673139</v>
       </c>
       <c r="AV55" s="15">
-        <v>129659</v>
+        <v>936494</v>
       </c>
       <c r="AW55" s="15">
-        <v>673139</v>
+        <v>1007628</v>
       </c>
       <c r="AX55" s="15">
-        <v>936494</v>
+        <v>1037607</v>
       </c>
       <c r="AY55" s="15">
-        <v>1007628</v>
+        <v>1384549</v>
       </c>
       <c r="AZ55" s="15">
-        <v>1037607</v>
+        <v>946397</v>
       </c>
       <c r="BA55" s="15">
-        <v>1384549</v>
+        <v>656160</v>
       </c>
       <c r="BB55" s="15">
-        <v>946397</v>
+        <v>864348</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7152,14 +7152,14 @@
       <c r="Z57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB57" s="11" t="s">
-        <v>58</v>
+      <c r="AA57" s="11">
+        <v>25819</v>
+      </c>
+      <c r="AB57" s="11">
+        <v>0</v>
       </c>
       <c r="AC57" s="11">
-        <v>25819</v>
+        <v>0</v>
       </c>
       <c r="AD57" s="11">
         <v>0</v>
@@ -7174,16 +7174,16 @@
         <v>0</v>
       </c>
       <c r="AH57" s="11">
-        <v>0</v>
+        <v>15528</v>
       </c>
       <c r="AI57" s="11">
-        <v>0</v>
+        <v>2792</v>
       </c>
       <c r="AJ57" s="11">
-        <v>15528</v>
+        <v>0</v>
       </c>
       <c r="AK57" s="11">
-        <v>2792</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="11">
         <v>0</v>
@@ -7195,13 +7195,13 @@
         <v>0</v>
       </c>
       <c r="AO57" s="11">
-        <v>0</v>
+        <v>50980</v>
       </c>
       <c r="AP57" s="11">
         <v>0</v>
       </c>
       <c r="AQ57" s="11">
-        <v>50980</v>
+        <v>0</v>
       </c>
       <c r="AR57" s="11">
         <v>0</v>
@@ -7305,95 +7305,95 @@
       <c r="X58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z58" s="13" t="s">
-        <v>58</v>
+      <c r="Y58" s="13">
+        <v>182960</v>
+      </c>
+      <c r="Z58" s="13">
+        <v>194625</v>
       </c>
       <c r="AA58" s="13">
-        <v>182960</v>
+        <v>99129</v>
       </c>
       <c r="AB58" s="13">
-        <v>194625</v>
+        <v>235903</v>
       </c>
       <c r="AC58" s="13">
-        <v>99129</v>
+        <v>17985</v>
       </c>
       <c r="AD58" s="13">
-        <v>235903</v>
+        <v>351283</v>
       </c>
       <c r="AE58" s="13">
-        <v>17985</v>
+        <v>138618</v>
       </c>
       <c r="AF58" s="13">
-        <v>351283</v>
+        <v>29333</v>
       </c>
       <c r="AG58" s="13">
-        <v>138618</v>
+        <v>15715</v>
       </c>
       <c r="AH58" s="13">
-        <v>29333</v>
+        <v>250064</v>
       </c>
       <c r="AI58" s="13">
-        <v>15715</v>
+        <v>135689</v>
       </c>
       <c r="AJ58" s="13">
-        <v>250064</v>
+        <v>13366</v>
       </c>
       <c r="AK58" s="13">
-        <v>135689</v>
+        <v>416191</v>
       </c>
       <c r="AL58" s="13">
-        <v>13366</v>
+        <v>71804</v>
       </c>
       <c r="AM58" s="13">
-        <v>416191</v>
+        <v>37177</v>
       </c>
       <c r="AN58" s="13">
-        <v>71804</v>
+        <v>7443</v>
       </c>
       <c r="AO58" s="13">
-        <v>37177</v>
+        <v>53389</v>
       </c>
       <c r="AP58" s="13">
-        <v>7443</v>
+        <v>70096</v>
       </c>
       <c r="AQ58" s="13">
-        <v>53389</v>
+        <v>26079</v>
       </c>
       <c r="AR58" s="13">
-        <v>70096</v>
+        <v>37854</v>
       </c>
       <c r="AS58" s="13">
-        <v>26079</v>
+        <v>61823</v>
       </c>
       <c r="AT58" s="13">
-        <v>37854</v>
+        <v>354100</v>
       </c>
       <c r="AU58" s="13">
-        <v>61823</v>
+        <v>363834</v>
       </c>
       <c r="AV58" s="13">
-        <v>354100</v>
+        <v>79826</v>
       </c>
       <c r="AW58" s="13">
-        <v>363834</v>
+        <v>41942</v>
       </c>
       <c r="AX58" s="13">
-        <v>79826</v>
+        <v>31102</v>
       </c>
       <c r="AY58" s="13">
-        <v>41942</v>
+        <v>75620</v>
       </c>
       <c r="AZ58" s="13">
-        <v>31102</v>
+        <v>92455</v>
       </c>
       <c r="BA58" s="13">
-        <v>75620</v>
+        <v>95402</v>
       </c>
       <c r="BB58" s="13">
-        <v>92455</v>
+        <v>104024</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7464,56 +7464,56 @@
       <c r="X59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z59" s="11" t="s">
-        <v>58</v>
+      <c r="Y59" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="11">
+        <v>0</v>
       </c>
       <c r="AA59" s="11">
-        <v>0</v>
+        <v>56846</v>
       </c>
       <c r="AB59" s="11">
         <v>0</v>
       </c>
       <c r="AC59" s="11">
-        <v>56846</v>
+        <v>81272</v>
       </c>
       <c r="AD59" s="11">
         <v>0</v>
       </c>
       <c r="AE59" s="11">
-        <v>81272</v>
+        <v>15924</v>
       </c>
       <c r="AF59" s="11">
         <v>0</v>
       </c>
       <c r="AG59" s="11">
-        <v>15924</v>
+        <v>0</v>
       </c>
       <c r="AH59" s="11">
         <v>0</v>
       </c>
       <c r="AI59" s="11">
-        <v>0</v>
+        <v>14549</v>
       </c>
       <c r="AJ59" s="11">
         <v>0</v>
       </c>
       <c r="AK59" s="11">
-        <v>14549</v>
+        <v>70864</v>
       </c>
       <c r="AL59" s="11">
         <v>0</v>
       </c>
       <c r="AM59" s="11">
-        <v>70864</v>
+        <v>15348</v>
       </c>
       <c r="AN59" s="11">
         <v>0</v>
       </c>
       <c r="AO59" s="11">
-        <v>15348</v>
+        <v>0</v>
       </c>
       <c r="AP59" s="11">
         <v>0</v>
@@ -7622,94 +7622,94 @@
         <v>0</v>
       </c>
       <c r="Y60" s="15">
-        <v>0</v>
+        <v>182960</v>
       </c>
       <c r="Z60" s="15">
-        <v>0</v>
+        <v>194625</v>
       </c>
       <c r="AA60" s="15">
-        <v>182960</v>
+        <v>181794</v>
       </c>
       <c r="AB60" s="15">
-        <v>194625</v>
+        <v>235903</v>
       </c>
       <c r="AC60" s="15">
-        <v>181794</v>
+        <v>99257</v>
       </c>
       <c r="AD60" s="15">
-        <v>235903</v>
+        <v>351283</v>
       </c>
       <c r="AE60" s="15">
-        <v>99257</v>
+        <v>154542</v>
       </c>
       <c r="AF60" s="15">
-        <v>351283</v>
+        <v>29333</v>
       </c>
       <c r="AG60" s="15">
-        <v>154542</v>
+        <v>15715</v>
       </c>
       <c r="AH60" s="15">
-        <v>29333</v>
+        <v>265592</v>
       </c>
       <c r="AI60" s="15">
-        <v>15715</v>
+        <v>153030</v>
       </c>
       <c r="AJ60" s="15">
-        <v>265592</v>
+        <v>13366</v>
       </c>
       <c r="AK60" s="15">
-        <v>153030</v>
+        <v>487055</v>
       </c>
       <c r="AL60" s="15">
-        <v>13366</v>
+        <v>71804</v>
       </c>
       <c r="AM60" s="15">
-        <v>487055</v>
+        <v>52525</v>
       </c>
       <c r="AN60" s="15">
-        <v>71804</v>
+        <v>7443</v>
       </c>
       <c r="AO60" s="15">
-        <v>52525</v>
+        <v>104369</v>
       </c>
       <c r="AP60" s="15">
-        <v>7443</v>
+        <v>70096</v>
       </c>
       <c r="AQ60" s="15">
-        <v>104369</v>
+        <v>26079</v>
       </c>
       <c r="AR60" s="15">
-        <v>70096</v>
+        <v>37854</v>
       </c>
       <c r="AS60" s="15">
-        <v>26079</v>
+        <v>61823</v>
       </c>
       <c r="AT60" s="15">
-        <v>37854</v>
+        <v>354100</v>
       </c>
       <c r="AU60" s="15">
-        <v>61823</v>
+        <v>363834</v>
       </c>
       <c r="AV60" s="15">
-        <v>354100</v>
+        <v>79826</v>
       </c>
       <c r="AW60" s="15">
-        <v>363834</v>
+        <v>41942</v>
       </c>
       <c r="AX60" s="15">
-        <v>79826</v>
+        <v>31102</v>
       </c>
       <c r="AY60" s="15">
-        <v>41942</v>
+        <v>75620</v>
       </c>
       <c r="AZ60" s="15">
-        <v>31102</v>
+        <v>92455</v>
       </c>
       <c r="BA60" s="15">
-        <v>75620</v>
+        <v>95402</v>
       </c>
       <c r="BB60" s="15">
-        <v>92455</v>
+        <v>104024</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -7837,11 +7837,11 @@
       <c r="X62" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y62" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z62" s="19" t="s">
-        <v>58</v>
+      <c r="Y62" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="19">
+        <v>0</v>
       </c>
       <c r="AA62" s="19">
         <v>0</v>
@@ -8053,95 +8053,95 @@
       <c r="X64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y64" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z64" s="11" t="s">
-        <v>58</v>
+      <c r="Y64" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="11">
+        <v>0</v>
       </c>
       <c r="AA64" s="11">
         <v>0</v>
       </c>
       <c r="AB64" s="11">
-        <v>0</v>
+        <v>-1376</v>
       </c>
       <c r="AC64" s="11">
         <v>0</v>
       </c>
       <c r="AD64" s="11">
-        <v>-1376</v>
+        <v>-389</v>
       </c>
       <c r="AE64" s="11">
         <v>0</v>
       </c>
       <c r="AF64" s="11">
-        <v>-389</v>
+        <v>-6963</v>
       </c>
       <c r="AG64" s="11">
         <v>0</v>
       </c>
       <c r="AH64" s="11">
-        <v>-6963</v>
+        <v>0</v>
       </c>
       <c r="AI64" s="11">
         <v>0</v>
       </c>
       <c r="AJ64" s="11">
-        <v>0</v>
+        <v>-610</v>
       </c>
       <c r="AK64" s="11">
-        <v>0</v>
+        <v>-111600</v>
       </c>
       <c r="AL64" s="11">
-        <v>-610</v>
+        <v>0</v>
       </c>
       <c r="AM64" s="11">
-        <v>-111600</v>
+        <v>-2642</v>
       </c>
       <c r="AN64" s="11">
         <v>0</v>
       </c>
       <c r="AO64" s="11">
-        <v>-2642</v>
+        <v>-12086</v>
       </c>
       <c r="AP64" s="11">
-        <v>0</v>
+        <v>-2700</v>
       </c>
       <c r="AQ64" s="11">
-        <v>-12086</v>
+        <v>-2300</v>
       </c>
       <c r="AR64" s="11">
-        <v>-2700</v>
+        <v>-69506</v>
       </c>
       <c r="AS64" s="11">
-        <v>-2300</v>
-      </c>
-      <c r="AT64" s="11">
-        <v>-69506</v>
-      </c>
-      <c r="AU64" s="11">
         <v>-6450</v>
       </c>
-      <c r="AV64" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW64" s="11" t="s">
-        <v>58</v>
+      <c r="AT64" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU64" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV64" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW64" s="11">
+        <v>-25829</v>
       </c>
       <c r="AX64" s="11">
         <v>0</v>
       </c>
       <c r="AY64" s="11">
-        <v>-25811</v>
+        <v>-28447</v>
       </c>
       <c r="AZ64" s="11">
-        <v>0</v>
+        <v>-740</v>
       </c>
       <c r="BA64" s="11">
-        <v>-28447</v>
+        <v>-21034</v>
       </c>
       <c r="BB64" s="11">
-        <v>-740</v>
+        <v>-28164</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -8212,35 +8212,35 @@
       <c r="X65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z65" s="13" t="s">
-        <v>58</v>
+      <c r="Y65" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="13">
+        <v>0</v>
       </c>
       <c r="AA65" s="13">
         <v>0</v>
       </c>
       <c r="AB65" s="13">
-        <v>0</v>
+        <v>-4650</v>
       </c>
       <c r="AC65" s="13">
         <v>0</v>
       </c>
       <c r="AD65" s="13">
-        <v>-4650</v>
+        <v>0</v>
       </c>
       <c r="AE65" s="13">
         <v>0</v>
       </c>
       <c r="AF65" s="13">
-        <v>0</v>
+        <v>-20723</v>
       </c>
       <c r="AG65" s="13">
         <v>0</v>
       </c>
       <c r="AH65" s="13">
-        <v>-20723</v>
+        <v>0</v>
       </c>
       <c r="AI65" s="13">
         <v>0</v>
@@ -8270,17 +8270,17 @@
         <v>0</v>
       </c>
       <c r="AR65" s="13">
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="AS65" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT65" s="13">
-        <v>-2400</v>
-      </c>
-      <c r="AU65" s="13">
         <v>-693</v>
       </c>
+      <c r="AT65" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU65" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV65" s="13" t="s">
         <v>58</v>
       </c>
@@ -8296,11 +8296,11 @@
       <c r="AZ65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB65" s="13" t="s">
-        <v>58</v>
+      <c r="BA65" s="13">
+        <v>-49500</v>
+      </c>
+      <c r="BB65" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8371,26 +8371,26 @@
       <c r="X66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y66" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z66" s="11" t="s">
-        <v>58</v>
+      <c r="Y66" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="11">
+        <v>0</v>
       </c>
       <c r="AA66" s="11">
-        <v>0</v>
+        <v>-264</v>
       </c>
       <c r="AB66" s="11">
         <v>0</v>
       </c>
       <c r="AC66" s="11">
-        <v>-264</v>
+        <v>-38</v>
       </c>
       <c r="AD66" s="11">
         <v>0</v>
       </c>
       <c r="AE66" s="11">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="AF66" s="11">
         <v>0</v>
@@ -8434,26 +8434,26 @@
       <c r="AS66" s="11">
         <v>0</v>
       </c>
-      <c r="AT66" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU66" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV66" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW66" s="11" t="s">
-        <v>58</v>
+      <c r="AT66" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU66" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV66" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW66" s="11">
+        <v>0</v>
       </c>
       <c r="AX66" s="11">
-        <v>0</v>
+        <v>-3385</v>
       </c>
       <c r="AY66" s="11">
         <v>0</v>
       </c>
       <c r="AZ66" s="11">
-        <v>-3385</v>
+        <v>0</v>
       </c>
       <c r="BA66" s="11">
         <v>0</v>
@@ -8530,95 +8530,95 @@
       <c r="X67" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y67" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z67" s="15" t="s">
-        <v>58</v>
+      <c r="Y67" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="15">
+        <v>0</v>
       </c>
       <c r="AA67" s="15">
-        <v>0</v>
+        <v>-264</v>
       </c>
       <c r="AB67" s="15">
-        <v>0</v>
+        <v>-6026</v>
       </c>
       <c r="AC67" s="15">
-        <v>-264</v>
+        <v>-38</v>
       </c>
       <c r="AD67" s="15">
-        <v>-6026</v>
+        <v>-389</v>
       </c>
       <c r="AE67" s="15">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="AF67" s="15">
-        <v>-389</v>
+        <v>-27686</v>
       </c>
       <c r="AG67" s="15">
         <v>0</v>
       </c>
       <c r="AH67" s="15">
-        <v>-27686</v>
+        <v>0</v>
       </c>
       <c r="AI67" s="15">
         <v>0</v>
       </c>
       <c r="AJ67" s="15">
-        <v>0</v>
+        <v>-610</v>
       </c>
       <c r="AK67" s="15">
-        <v>0</v>
+        <v>-111600</v>
       </c>
       <c r="AL67" s="15">
-        <v>-610</v>
+        <v>0</v>
       </c>
       <c r="AM67" s="15">
-        <v>-111600</v>
+        <v>-2642</v>
       </c>
       <c r="AN67" s="15">
         <v>0</v>
       </c>
       <c r="AO67" s="15">
-        <v>-2642</v>
+        <v>-12086</v>
       </c>
       <c r="AP67" s="15">
-        <v>0</v>
+        <v>-2700</v>
       </c>
       <c r="AQ67" s="15">
-        <v>-12086</v>
+        <v>-2300</v>
       </c>
       <c r="AR67" s="15">
-        <v>-2700</v>
+        <v>-71906</v>
       </c>
       <c r="AS67" s="15">
-        <v>-2300</v>
+        <v>-7143</v>
       </c>
       <c r="AT67" s="15">
-        <v>-71906</v>
+        <v>0</v>
       </c>
       <c r="AU67" s="15">
-        <v>-7143</v>
+        <v>0</v>
       </c>
       <c r="AV67" s="15">
         <v>0</v>
       </c>
       <c r="AW67" s="15">
-        <v>0</v>
+        <v>-25829</v>
       </c>
       <c r="AX67" s="15">
-        <v>0</v>
+        <v>-3385</v>
       </c>
       <c r="AY67" s="15">
-        <v>-25811</v>
+        <v>-28447</v>
       </c>
       <c r="AZ67" s="15">
-        <v>-3385</v>
+        <v>-740</v>
       </c>
       <c r="BA67" s="15">
-        <v>-28447</v>
+        <v>-70534</v>
       </c>
       <c r="BB67" s="15">
-        <v>-740</v>
+        <v>-28164</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -8746,95 +8746,95 @@
       <c r="X69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z69" s="11" t="s">
-        <v>58</v>
+      <c r="Y69" s="11">
+        <v>-4712</v>
+      </c>
+      <c r="Z69" s="11">
+        <v>-1713</v>
       </c>
       <c r="AA69" s="11">
-        <v>-4712</v>
+        <v>-4214</v>
       </c>
       <c r="AB69" s="11">
-        <v>-1713</v>
+        <v>-3731</v>
       </c>
       <c r="AC69" s="11">
-        <v>-4214</v>
+        <v>-3669</v>
       </c>
       <c r="AD69" s="11">
-        <v>-3731</v>
+        <v>-13876</v>
       </c>
       <c r="AE69" s="11">
-        <v>-3669</v>
+        <v>-6437</v>
       </c>
       <c r="AF69" s="11">
-        <v>-13876</v>
+        <v>-19574</v>
       </c>
       <c r="AG69" s="11">
-        <v>-6437</v>
+        <v>-20941</v>
       </c>
       <c r="AH69" s="11">
-        <v>-19574</v>
+        <v>-11781</v>
       </c>
       <c r="AI69" s="11">
-        <v>-20941</v>
+        <v>-9999</v>
       </c>
       <c r="AJ69" s="11">
-        <v>-11781</v>
+        <v>-5291</v>
       </c>
       <c r="AK69" s="11">
-        <v>-9999</v>
+        <v>-3480</v>
       </c>
       <c r="AL69" s="11">
-        <v>-5291</v>
+        <v>-8188</v>
       </c>
       <c r="AM69" s="11">
-        <v>-3480</v>
+        <v>-18964</v>
       </c>
       <c r="AN69" s="11">
-        <v>-8188</v>
+        <v>-10619</v>
       </c>
       <c r="AO69" s="11">
-        <v>-18964</v>
+        <v>-10522</v>
       </c>
       <c r="AP69" s="11">
-        <v>-10619</v>
+        <v>-18071</v>
       </c>
       <c r="AQ69" s="11">
-        <v>-10522</v>
+        <v>-10544</v>
       </c>
       <c r="AR69" s="11">
-        <v>-18071</v>
+        <v>-25394</v>
       </c>
       <c r="AS69" s="11">
-        <v>-10544</v>
+        <v>-14139</v>
       </c>
       <c r="AT69" s="11">
-        <v>-25394</v>
+        <v>-5723</v>
       </c>
       <c r="AU69" s="11">
-        <v>-14139</v>
+        <v>-2000</v>
       </c>
       <c r="AV69" s="11">
-        <v>-5723</v>
+        <v>-28450</v>
       </c>
       <c r="AW69" s="11">
-        <v>-2000</v>
+        <v>-23140</v>
       </c>
       <c r="AX69" s="11">
-        <v>-28450</v>
+        <v>-20360</v>
       </c>
       <c r="AY69" s="11">
-        <v>-23140</v>
+        <v>-30812</v>
       </c>
       <c r="AZ69" s="11">
-        <v>-20360</v>
+        <v>-37166</v>
       </c>
       <c r="BA69" s="11">
-        <v>-30812</v>
+        <v>-17216</v>
       </c>
       <c r="BB69" s="11">
-        <v>-37166</v>
+        <v>-33401</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -8904,94 +8904,94 @@
         <v>0</v>
       </c>
       <c r="Y70" s="15">
-        <v>0</v>
+        <v>570231</v>
       </c>
       <c r="Z70" s="15">
-        <v>0</v>
+        <v>648848</v>
       </c>
       <c r="AA70" s="15">
-        <v>570231</v>
+        <v>787425</v>
       </c>
       <c r="AB70" s="15">
-        <v>648848</v>
+        <v>803171</v>
       </c>
       <c r="AC70" s="15">
-        <v>787425</v>
+        <v>642168</v>
       </c>
       <c r="AD70" s="15">
-        <v>803171</v>
+        <v>1164179</v>
       </c>
       <c r="AE70" s="15">
-        <v>642168</v>
+        <v>656474</v>
       </c>
       <c r="AF70" s="15">
-        <v>1164179</v>
+        <v>574451</v>
       </c>
       <c r="AG70" s="15">
-        <v>656474</v>
+        <v>210463</v>
       </c>
       <c r="AH70" s="15">
-        <v>574451</v>
+        <v>755628</v>
       </c>
       <c r="AI70" s="15">
-        <v>210463</v>
+        <v>837568</v>
       </c>
       <c r="AJ70" s="15">
-        <v>755628</v>
+        <v>767967</v>
       </c>
       <c r="AK70" s="15">
-        <v>837568</v>
+        <v>977570</v>
       </c>
       <c r="AL70" s="15">
-        <v>767967</v>
+        <v>638138</v>
       </c>
       <c r="AM70" s="15">
-        <v>977570</v>
+        <v>1243297</v>
       </c>
       <c r="AN70" s="15">
-        <v>638138</v>
+        <v>510781</v>
       </c>
       <c r="AO70" s="15">
-        <v>1243297</v>
+        <v>749318</v>
       </c>
       <c r="AP70" s="15">
-        <v>510781</v>
+        <v>721922</v>
       </c>
       <c r="AQ70" s="15">
-        <v>749318</v>
+        <v>1032414</v>
       </c>
       <c r="AR70" s="15">
-        <v>721922</v>
+        <v>880691</v>
       </c>
       <c r="AS70" s="15">
-        <v>1032414</v>
+        <v>453230</v>
       </c>
       <c r="AT70" s="15">
-        <v>880691</v>
+        <v>478036</v>
       </c>
       <c r="AU70" s="15">
-        <v>453230</v>
+        <v>1034973</v>
       </c>
       <c r="AV70" s="15">
-        <v>478036</v>
+        <v>987870</v>
       </c>
       <c r="AW70" s="15">
-        <v>1034973</v>
+        <v>1000601</v>
       </c>
       <c r="AX70" s="15">
-        <v>987870</v>
+        <v>1044964</v>
       </c>
       <c r="AY70" s="15">
-        <v>1000619</v>
+        <v>1400910</v>
       </c>
       <c r="AZ70" s="15">
-        <v>1044964</v>
+        <v>1000946</v>
       </c>
       <c r="BA70" s="15">
-        <v>1400910</v>
+        <v>663812</v>
       </c>
       <c r="BB70" s="15">
-        <v>1000946</v>
+        <v>906807</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9496,95 +9496,95 @@
       <c r="X77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z77" s="11" t="s">
-        <v>58</v>
+      <c r="Y77" s="11">
+        <v>1764309</v>
+      </c>
+      <c r="Z77" s="11">
+        <v>3045169</v>
       </c>
       <c r="AA77" s="11">
-        <v>1764309</v>
+        <v>2080715</v>
       </c>
       <c r="AB77" s="11">
-        <v>3045169</v>
+        <v>1903797</v>
       </c>
       <c r="AC77" s="11">
-        <v>2080715</v>
+        <v>2440715</v>
       </c>
       <c r="AD77" s="11">
-        <v>1903797</v>
+        <v>2164494</v>
       </c>
       <c r="AE77" s="11">
-        <v>2440715</v>
+        <v>2658270</v>
       </c>
       <c r="AF77" s="11">
-        <v>2164494</v>
+        <v>2902106</v>
       </c>
       <c r="AG77" s="11">
-        <v>2658270</v>
+        <v>2551802</v>
       </c>
       <c r="AH77" s="11">
-        <v>2902106</v>
+        <v>3292218</v>
       </c>
       <c r="AI77" s="11">
-        <v>2551802</v>
+        <v>3458494</v>
       </c>
       <c r="AJ77" s="11">
-        <v>3292218</v>
+        <v>4038529</v>
       </c>
       <c r="AK77" s="11">
-        <v>3458494</v>
+        <v>4045732</v>
       </c>
       <c r="AL77" s="11">
-        <v>4038529</v>
+        <v>3371245</v>
       </c>
       <c r="AM77" s="11">
-        <v>4045732</v>
+        <v>3665803</v>
       </c>
       <c r="AN77" s="11">
-        <v>3371245</v>
+        <v>3681369</v>
       </c>
       <c r="AO77" s="11">
-        <v>3665803</v>
+        <v>3716755</v>
       </c>
       <c r="AP77" s="11">
-        <v>3681369</v>
+        <v>3718057</v>
       </c>
       <c r="AQ77" s="11">
-        <v>3716755</v>
+        <v>3887950</v>
       </c>
       <c r="AR77" s="11">
-        <v>3718057</v>
+        <v>5481757</v>
       </c>
       <c r="AS77" s="11">
-        <v>3887950</v>
+        <v>6157115</v>
       </c>
       <c r="AT77" s="11">
-        <v>5481757</v>
+        <v>13780000</v>
       </c>
       <c r="AU77" s="11">
-        <v>6157115</v>
+        <v>4300321</v>
       </c>
       <c r="AV77" s="11">
-        <v>13780000</v>
+        <v>4303190</v>
       </c>
       <c r="AW77" s="11">
-        <v>4300321</v>
+        <v>6254158</v>
       </c>
       <c r="AX77" s="11">
-        <v>4303190</v>
+        <v>7711297</v>
       </c>
       <c r="AY77" s="11">
-        <v>6254158</v>
+        <v>6101079</v>
       </c>
       <c r="AZ77" s="11">
-        <v>7711297</v>
+        <v>5457394</v>
       </c>
       <c r="BA77" s="11">
-        <v>6101079</v>
+        <v>4401250</v>
       </c>
       <c r="BB77" s="11">
-        <v>5457394</v>
+        <v>5094482</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.3">
@@ -9655,95 +9655,95 @@
       <c r="X78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z78" s="13" t="s">
-        <v>58</v>
+      <c r="Y78" s="13">
+        <v>1691604</v>
+      </c>
+      <c r="Z78" s="13">
+        <v>1857379</v>
       </c>
       <c r="AA78" s="13">
-        <v>1691604</v>
+        <v>3651465</v>
       </c>
       <c r="AB78" s="13">
-        <v>1857379</v>
+        <v>976584</v>
       </c>
       <c r="AC78" s="13">
-        <v>3651465</v>
+        <v>1738574</v>
       </c>
       <c r="AD78" s="13">
-        <v>976584</v>
+        <v>2308242</v>
       </c>
       <c r="AE78" s="13">
-        <v>1738574</v>
+        <v>13374671</v>
       </c>
       <c r="AF78" s="13">
-        <v>2308242</v>
+        <v>6764541</v>
       </c>
       <c r="AG78" s="13">
-        <v>13374671</v>
+        <v>1387834</v>
       </c>
       <c r="AH78" s="13">
-        <v>6764541</v>
+        <v>13974312</v>
       </c>
       <c r="AI78" s="13">
-        <v>1387834</v>
+        <v>4942922</v>
       </c>
       <c r="AJ78" s="13">
-        <v>13974312</v>
+        <v>4745753</v>
       </c>
       <c r="AK78" s="13">
-        <v>4942922</v>
+        <v>5312167</v>
       </c>
       <c r="AL78" s="13">
-        <v>4745753</v>
+        <v>3824700</v>
       </c>
       <c r="AM78" s="13">
-        <v>5312167</v>
+        <v>4874306</v>
       </c>
       <c r="AN78" s="13">
-        <v>3824700</v>
+        <v>1777235</v>
       </c>
       <c r="AO78" s="13">
-        <v>4874306</v>
+        <v>2162852</v>
       </c>
       <c r="AP78" s="13">
-        <v>1777235</v>
+        <v>2720596</v>
       </c>
       <c r="AQ78" s="13">
-        <v>2162852</v>
+        <v>4363436</v>
       </c>
       <c r="AR78" s="13">
-        <v>2720596</v>
+        <v>1927204</v>
       </c>
       <c r="AS78" s="13">
-        <v>4363436</v>
-      </c>
-      <c r="AT78" s="13">
-        <v>1927204</v>
+        <v>1566409</v>
+      </c>
+      <c r="AT78" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU78" s="13">
-        <v>1566409</v>
-      </c>
-      <c r="AV78" s="13" t="s">
-        <v>58</v>
+        <v>2371061</v>
+      </c>
+      <c r="AV78" s="13">
+        <v>14644106</v>
       </c>
       <c r="AW78" s="13">
-        <v>2371061</v>
+        <v>3333662</v>
       </c>
       <c r="AX78" s="13">
-        <v>14644106</v>
+        <v>6058703</v>
       </c>
       <c r="AY78" s="13">
-        <v>3333662</v>
+        <v>51492424</v>
       </c>
       <c r="AZ78" s="13">
-        <v>6058703</v>
+        <v>866634</v>
       </c>
       <c r="BA78" s="13">
-        <v>51492424</v>
+        <v>924703</v>
       </c>
       <c r="BB78" s="13">
-        <v>866634</v>
+        <v>1820524</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -9814,95 +9814,95 @@
       <c r="X79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z79" s="11" t="s">
-        <v>58</v>
+      <c r="Y79" s="11">
+        <v>739486</v>
+      </c>
+      <c r="Z79" s="11">
+        <v>969978</v>
       </c>
       <c r="AA79" s="11">
-        <v>739486</v>
+        <v>749545</v>
       </c>
       <c r="AB79" s="11">
-        <v>969978</v>
+        <v>866119</v>
       </c>
       <c r="AC79" s="11">
-        <v>749545</v>
+        <v>704225</v>
       </c>
       <c r="AD79" s="11">
-        <v>866119</v>
+        <v>1140201</v>
       </c>
       <c r="AE79" s="11">
-        <v>704225</v>
+        <v>725005</v>
       </c>
       <c r="AF79" s="11">
-        <v>1140201</v>
+        <v>718318</v>
       </c>
       <c r="AG79" s="11">
-        <v>725005</v>
+        <v>782359</v>
       </c>
       <c r="AH79" s="11">
-        <v>718318</v>
+        <v>13736</v>
       </c>
       <c r="AI79" s="11">
-        <v>782359</v>
+        <v>13638</v>
       </c>
       <c r="AJ79" s="11">
-        <v>13736</v>
+        <v>17084</v>
       </c>
       <c r="AK79" s="11">
-        <v>13638</v>
+        <v>9111</v>
       </c>
       <c r="AL79" s="11">
-        <v>17084</v>
+        <v>12041</v>
       </c>
       <c r="AM79" s="11">
-        <v>9111</v>
+        <v>9447</v>
       </c>
       <c r="AN79" s="11">
-        <v>12041</v>
+        <v>15177</v>
       </c>
       <c r="AO79" s="11">
-        <v>9447</v>
+        <v>7579</v>
       </c>
       <c r="AP79" s="11">
-        <v>15177</v>
+        <v>10850</v>
       </c>
       <c r="AQ79" s="11">
-        <v>7579</v>
+        <v>34678</v>
       </c>
       <c r="AR79" s="11">
-        <v>10850</v>
+        <v>16252</v>
       </c>
       <c r="AS79" s="11">
-        <v>34678</v>
+        <v>12605</v>
       </c>
       <c r="AT79" s="11">
-        <v>16252</v>
+        <v>9859</v>
       </c>
       <c r="AU79" s="11">
-        <v>12605</v>
+        <v>23645</v>
       </c>
       <c r="AV79" s="11">
-        <v>9859</v>
+        <v>8063</v>
       </c>
       <c r="AW79" s="11">
-        <v>23645</v>
+        <v>155518</v>
       </c>
       <c r="AX79" s="11">
-        <v>8063</v>
+        <v>17118</v>
       </c>
       <c r="AY79" s="11">
-        <v>155518</v>
+        <v>269387</v>
       </c>
       <c r="AZ79" s="11">
-        <v>17118</v>
+        <v>22374</v>
       </c>
       <c r="BA79" s="11">
-        <v>269387</v>
+        <v>65745</v>
       </c>
       <c r="BB79" s="11">
-        <v>22374</v>
+        <v>234295</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -10036,14 +10036,14 @@
       <c r="Z81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA81" s="11" t="s">
-        <v>58</v>
+      <c r="AA81" s="11">
+        <v>1292242</v>
       </c>
       <c r="AB81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC81" s="11">
-        <v>1292242</v>
+      <c r="AC81" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AD81" s="11" t="s">
         <v>58</v>
@@ -10057,18 +10057,18 @@
       <c r="AG81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ81" s="11">
+      <c r="AH81" s="11">
         <v>1568485</v>
       </c>
-      <c r="AK81" s="11">
+      <c r="AI81" s="11">
         <v>11168000</v>
       </c>
+      <c r="AJ81" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK81" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AL81" s="11" t="s">
         <v>58</v>
       </c>
@@ -10078,14 +10078,14 @@
       <c r="AN81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO81" s="11" t="s">
-        <v>58</v>
+      <c r="AO81" s="11">
+        <v>2551552</v>
       </c>
       <c r="AP81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ81" s="11">
-        <v>2551552</v>
+      <c r="AQ81" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR81" s="11" t="s">
         <v>58</v>
@@ -10189,95 +10189,95 @@
       <c r="X82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z82" s="13" t="s">
-        <v>58</v>
+      <c r="Y82" s="13">
+        <v>86017866</v>
+      </c>
+      <c r="Z82" s="13">
+        <v>90104167</v>
       </c>
       <c r="AA82" s="13">
-        <v>86017866</v>
+        <v>113680046</v>
       </c>
       <c r="AB82" s="13">
-        <v>90104167</v>
+        <v>129545854</v>
       </c>
       <c r="AC82" s="13">
-        <v>113680046</v>
+        <v>112406250</v>
       </c>
       <c r="AD82" s="13">
-        <v>129545854</v>
+        <v>151089462</v>
       </c>
       <c r="AE82" s="13">
-        <v>112406250</v>
+        <v>135900000</v>
       </c>
       <c r="AF82" s="13">
-        <v>151089462</v>
+        <v>118757085</v>
       </c>
       <c r="AG82" s="13">
-        <v>135900000</v>
+        <v>143515982</v>
       </c>
       <c r="AH82" s="13">
-        <v>118757085</v>
+        <v>116308837</v>
       </c>
       <c r="AI82" s="13">
-        <v>143515982</v>
+        <v>99844739</v>
       </c>
       <c r="AJ82" s="13">
-        <v>116308837</v>
+        <v>32600000</v>
       </c>
       <c r="AK82" s="13">
-        <v>99844739</v>
+        <v>34100041</v>
       </c>
       <c r="AL82" s="13">
-        <v>32600000</v>
+        <v>98767538</v>
       </c>
       <c r="AM82" s="13">
-        <v>34100041</v>
+        <v>120704545</v>
       </c>
       <c r="AN82" s="13">
-        <v>98767538</v>
+        <v>56386364</v>
       </c>
       <c r="AO82" s="13">
-        <v>120704545</v>
+        <v>124449883</v>
       </c>
       <c r="AP82" s="13">
-        <v>56386364</v>
+        <v>104309524</v>
       </c>
       <c r="AQ82" s="13">
-        <v>124449883</v>
+        <v>65197500</v>
       </c>
       <c r="AR82" s="13">
-        <v>104309524</v>
+        <v>822913043</v>
       </c>
       <c r="AS82" s="13">
-        <v>65197500</v>
+        <v>134984716</v>
       </c>
       <c r="AT82" s="13">
-        <v>822913043</v>
+        <v>39344444</v>
       </c>
       <c r="AU82" s="13">
-        <v>134984716</v>
+        <v>45996713</v>
       </c>
       <c r="AV82" s="13">
-        <v>39344444</v>
+        <v>79826000</v>
       </c>
       <c r="AW82" s="13">
-        <v>45996713</v>
+        <v>162565891</v>
       </c>
       <c r="AX82" s="13">
-        <v>79826000</v>
+        <v>139470852</v>
       </c>
       <c r="AY82" s="13">
-        <v>162565891</v>
+        <v>185343137</v>
       </c>
       <c r="AZ82" s="13">
-        <v>139470852</v>
+        <v>94245668</v>
       </c>
       <c r="BA82" s="13">
-        <v>185343137</v>
+        <v>232687805</v>
       </c>
       <c r="BB82" s="13">
-        <v>94245668</v>
+        <v>94567273</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -10354,50 +10354,50 @@
       <c r="Z83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA83" s="11" t="s">
-        <v>58</v>
+      <c r="AA83" s="11">
+        <v>15790556</v>
       </c>
       <c r="AB83" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AC83" s="11">
-        <v>15790556</v>
+        <v>19213239</v>
       </c>
       <c r="AD83" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AE83" s="11">
-        <v>19213239</v>
+        <v>23078261</v>
       </c>
       <c r="AF83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG83" s="11">
-        <v>23078261</v>
+      <c r="AG83" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI83" s="11" t="s">
-        <v>58</v>
+      <c r="AI83" s="11">
+        <v>4850</v>
       </c>
       <c r="AJ83" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AK83" s="11">
-        <v>4850</v>
+        <v>5905</v>
       </c>
       <c r="AL83" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AM83" s="11">
-        <v>5905</v>
+        <v>3437</v>
       </c>
       <c r="AN83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO83" s="11">
-        <v>3437</v>
+      <c r="AO83" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP83" s="11" t="s">
         <v>58</v>

--- a/database/industries/darou/detmad/product/monthly_seprated.xlsx
+++ b/database/industries/darou/detmad/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\detmad\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\detmad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A835A2-6CB4-45BB-ACA5-26F1CAC47F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EBF3C1-41EF-4F42-B4E5-EF71895A80DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="89">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دتماد-تولیدمواداولیه‌داروپخش‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -769,12 +769,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -829,7 +829,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -886,7 +886,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -943,7 +943,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -998,7 +998,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1055,7 +1055,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1112,7 +1112,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1167,7 +1167,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1379,7 +1379,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1436,7 +1436,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1498,104 +1498,104 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>123513</v>
+      </c>
+      <c r="X11" s="11">
+        <v>91487</v>
       </c>
       <c r="Y11" s="11">
-        <v>123513</v>
+        <v>120391</v>
       </c>
       <c r="Z11" s="11">
-        <v>91487</v>
+        <v>230664</v>
       </c>
       <c r="AA11" s="11">
-        <v>120391</v>
+        <v>210132</v>
       </c>
       <c r="AB11" s="11">
-        <v>230664</v>
+        <v>271037</v>
       </c>
       <c r="AC11" s="11">
-        <v>210132</v>
+        <v>170445</v>
       </c>
       <c r="AD11" s="11">
-        <v>271037</v>
+        <v>189858</v>
       </c>
       <c r="AE11" s="11">
-        <v>170445</v>
+        <v>150000</v>
       </c>
       <c r="AF11" s="11">
-        <v>189858</v>
+        <v>104690</v>
       </c>
       <c r="AG11" s="11">
-        <v>150000</v>
+        <v>145110</v>
       </c>
       <c r="AH11" s="11">
-        <v>104690</v>
+        <v>181285</v>
       </c>
       <c r="AI11" s="11">
-        <v>145110</v>
+        <v>123612</v>
       </c>
       <c r="AJ11" s="11">
-        <v>181285</v>
+        <v>100950</v>
       </c>
       <c r="AK11" s="11">
-        <v>123612</v>
+        <v>135051</v>
       </c>
       <c r="AL11" s="11">
-        <v>100950</v>
+        <v>109142</v>
       </c>
       <c r="AM11" s="11">
-        <v>135051</v>
+        <v>76603</v>
       </c>
       <c r="AN11" s="11">
-        <v>109142</v>
+        <v>101625</v>
       </c>
       <c r="AO11" s="11">
-        <v>76603</v>
+        <v>59813</v>
       </c>
       <c r="AP11" s="11">
-        <v>101625</v>
+        <v>103650</v>
       </c>
       <c r="AQ11" s="11">
-        <v>59813</v>
+        <v>49677</v>
       </c>
       <c r="AR11" s="11">
-        <v>103650</v>
+        <v>37998</v>
       </c>
       <c r="AS11" s="11">
-        <v>49677</v>
+        <v>215582</v>
       </c>
       <c r="AT11" s="11">
-        <v>37998</v>
+        <v>111820</v>
       </c>
       <c r="AU11" s="11">
-        <v>215582</v>
+        <v>63481</v>
       </c>
       <c r="AV11" s="11">
-        <v>111820</v>
+        <v>90970</v>
       </c>
       <c r="AW11" s="11">
-        <v>63481</v>
+        <v>185257</v>
       </c>
       <c r="AX11" s="11">
-        <v>90970</v>
+        <v>139305</v>
       </c>
       <c r="AY11" s="11">
-        <v>185257</v>
+        <v>121715</v>
       </c>
       <c r="AZ11" s="11">
-        <v>139305</v>
+        <v>136466</v>
       </c>
       <c r="BA11" s="11">
-        <v>121715</v>
+        <v>154001</v>
       </c>
       <c r="BB11" s="11">
-        <v>136466</v>
+        <v>267623</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1657,104 +1657,104 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>23119</v>
+      </c>
+      <c r="X12" s="13">
+        <v>36147</v>
       </c>
       <c r="Y12" s="13">
-        <v>23119</v>
+        <v>55047</v>
       </c>
       <c r="Z12" s="13">
-        <v>36147</v>
+        <v>48649</v>
       </c>
       <c r="AA12" s="13">
-        <v>55047</v>
+        <v>56570</v>
       </c>
       <c r="AB12" s="13">
-        <v>48649</v>
+        <v>47065</v>
       </c>
       <c r="AC12" s="13">
-        <v>56570</v>
+        <v>73466</v>
       </c>
       <c r="AD12" s="13">
-        <v>47065</v>
+        <v>21841</v>
       </c>
       <c r="AE12" s="13">
-        <v>73466</v>
+        <v>71960</v>
       </c>
       <c r="AF12" s="13">
-        <v>21841</v>
+        <v>20007</v>
       </c>
       <c r="AG12" s="13">
-        <v>71960</v>
+        <v>10411</v>
       </c>
       <c r="AH12" s="13">
-        <v>20007</v>
+        <v>22070</v>
       </c>
       <c r="AI12" s="13">
-        <v>10411</v>
+        <v>1991</v>
       </c>
       <c r="AJ12" s="13">
-        <v>22070</v>
+        <v>7689</v>
       </c>
       <c r="AK12" s="13">
-        <v>1991</v>
+        <v>68684</v>
       </c>
       <c r="AL12" s="13">
-        <v>7689</v>
+        <v>33918</v>
       </c>
       <c r="AM12" s="13">
-        <v>68684</v>
+        <v>86676</v>
       </c>
       <c r="AN12" s="13">
-        <v>33918</v>
+        <v>19377</v>
       </c>
       <c r="AO12" s="13">
-        <v>86676</v>
+        <v>20494</v>
       </c>
       <c r="AP12" s="13">
-        <v>19377</v>
+        <v>35944</v>
       </c>
       <c r="AQ12" s="13">
-        <v>20494</v>
+        <v>59817</v>
       </c>
       <c r="AR12" s="13">
-        <v>35944</v>
+        <v>45293</v>
       </c>
       <c r="AS12" s="13">
-        <v>59817</v>
+        <v>12024</v>
       </c>
       <c r="AT12" s="13">
-        <v>45293</v>
+        <v>876</v>
       </c>
       <c r="AU12" s="13">
-        <v>12024</v>
+        <v>965</v>
       </c>
       <c r="AV12" s="13">
-        <v>876</v>
+        <v>778</v>
       </c>
       <c r="AW12" s="13">
-        <v>965</v>
+        <v>12234</v>
       </c>
       <c r="AX12" s="13">
-        <v>778</v>
+        <v>2512</v>
       </c>
       <c r="AY12" s="13">
-        <v>12234</v>
+        <v>5084</v>
       </c>
       <c r="AZ12" s="13">
-        <v>2512</v>
+        <v>62400</v>
       </c>
       <c r="BA12" s="13">
-        <v>5084</v>
+        <v>50499</v>
       </c>
       <c r="BB12" s="13">
-        <v>62400</v>
+        <v>38875</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1816,104 +1816,104 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>112988</v>
+      </c>
+      <c r="X13" s="11">
+        <v>72605</v>
       </c>
       <c r="Y13" s="11">
-        <v>112988</v>
+        <v>107046</v>
       </c>
       <c r="Z13" s="11">
-        <v>72605</v>
+        <v>86373</v>
       </c>
       <c r="AA13" s="11">
-        <v>107046</v>
+        <v>38638</v>
       </c>
       <c r="AB13" s="11">
-        <v>86373</v>
+        <v>137714</v>
       </c>
       <c r="AC13" s="11">
-        <v>38638</v>
+        <v>118416</v>
       </c>
       <c r="AD13" s="11">
-        <v>137714</v>
+        <v>31347</v>
       </c>
       <c r="AE13" s="11">
-        <v>118416</v>
+        <v>117496</v>
       </c>
       <c r="AF13" s="11">
-        <v>31347</v>
+        <v>169510</v>
       </c>
       <c r="AG13" s="11">
-        <v>117496</v>
+        <v>6854265</v>
       </c>
       <c r="AH13" s="11">
-        <v>169510</v>
+        <v>858095</v>
       </c>
       <c r="AI13" s="11">
-        <v>6854265</v>
+        <v>8379961</v>
       </c>
       <c r="AJ13" s="11">
-        <v>858095</v>
+        <v>16271362</v>
       </c>
       <c r="AK13" s="11">
-        <v>8379961</v>
+        <v>538758</v>
       </c>
       <c r="AL13" s="11">
-        <v>16271362</v>
+        <v>1520981</v>
       </c>
       <c r="AM13" s="11">
-        <v>538758</v>
+        <v>4316415</v>
       </c>
       <c r="AN13" s="11">
-        <v>1520981</v>
+        <v>8593297</v>
       </c>
       <c r="AO13" s="11">
-        <v>4316415</v>
+        <v>9411242</v>
       </c>
       <c r="AP13" s="11">
-        <v>8593297</v>
+        <v>5013129</v>
       </c>
       <c r="AQ13" s="11">
-        <v>9411242</v>
+        <v>8017104</v>
       </c>
       <c r="AR13" s="11">
-        <v>5013129</v>
+        <v>160429</v>
       </c>
       <c r="AS13" s="11">
-        <v>8017104</v>
+        <v>386746</v>
       </c>
       <c r="AT13" s="11">
-        <v>160429</v>
+        <v>482425</v>
       </c>
       <c r="AU13" s="11">
-        <v>386746</v>
+        <v>705221</v>
       </c>
       <c r="AV13" s="11">
-        <v>482425</v>
+        <v>537704</v>
       </c>
       <c r="AW13" s="11">
-        <v>705221</v>
+        <v>2621154</v>
       </c>
       <c r="AX13" s="11">
-        <v>537704</v>
+        <v>621573</v>
       </c>
       <c r="AY13" s="11">
-        <v>2621154</v>
+        <v>319592</v>
       </c>
       <c r="AZ13" s="11">
-        <v>621573</v>
+        <v>695746</v>
       </c>
       <c r="BA13" s="11">
-        <v>319592</v>
+        <v>663682</v>
       </c>
       <c r="BB13" s="11">
-        <v>695746</v>
+        <v>321204</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>62</v>
       </c>
@@ -1974,103 +1974,103 @@
         <v>0</v>
       </c>
       <c r="W14" s="15">
-        <v>0</v>
+        <v>259620</v>
       </c>
       <c r="X14" s="15">
-        <v>0</v>
+        <v>200239</v>
       </c>
       <c r="Y14" s="15">
-        <v>259620</v>
+        <v>282484</v>
       </c>
       <c r="Z14" s="15">
-        <v>200239</v>
+        <v>365686</v>
       </c>
       <c r="AA14" s="15">
-        <v>282484</v>
+        <v>305340</v>
       </c>
       <c r="AB14" s="15">
-        <v>365686</v>
+        <v>455816</v>
       </c>
       <c r="AC14" s="15">
-        <v>305340</v>
+        <v>362327</v>
       </c>
       <c r="AD14" s="15">
-        <v>455816</v>
+        <v>243046</v>
       </c>
       <c r="AE14" s="15">
-        <v>362327</v>
+        <v>339456</v>
       </c>
       <c r="AF14" s="15">
-        <v>243046</v>
+        <v>294207</v>
       </c>
       <c r="AG14" s="15">
-        <v>339456</v>
+        <v>7009786</v>
       </c>
       <c r="AH14" s="15">
-        <v>294207</v>
+        <v>1061450</v>
       </c>
       <c r="AI14" s="15">
-        <v>7009786</v>
+        <v>8505564</v>
       </c>
       <c r="AJ14" s="15">
-        <v>1061450</v>
+        <v>16380001</v>
       </c>
       <c r="AK14" s="15">
-        <v>8505564</v>
+        <v>742493</v>
       </c>
       <c r="AL14" s="15">
-        <v>16380001</v>
+        <v>1664041</v>
       </c>
       <c r="AM14" s="15">
-        <v>742493</v>
+        <v>4479694</v>
       </c>
       <c r="AN14" s="15">
-        <v>1664041</v>
+        <v>8714299</v>
       </c>
       <c r="AO14" s="15">
-        <v>4479694</v>
+        <v>9491549</v>
       </c>
       <c r="AP14" s="15">
-        <v>8714299</v>
+        <v>5152723</v>
       </c>
       <c r="AQ14" s="15">
-        <v>9491549</v>
+        <v>8126598</v>
       </c>
       <c r="AR14" s="15">
-        <v>5152723</v>
+        <v>243720</v>
       </c>
       <c r="AS14" s="15">
-        <v>8126598</v>
+        <v>614352</v>
       </c>
       <c r="AT14" s="15">
-        <v>243720</v>
+        <v>595121</v>
       </c>
       <c r="AU14" s="15">
-        <v>614352</v>
+        <v>769667</v>
       </c>
       <c r="AV14" s="15">
-        <v>595121</v>
+        <v>629452</v>
       </c>
       <c r="AW14" s="15">
-        <v>769667</v>
+        <v>2818645</v>
       </c>
       <c r="AX14" s="15">
-        <v>629452</v>
+        <v>763390</v>
       </c>
       <c r="AY14" s="15">
-        <v>2818645</v>
+        <v>446391</v>
       </c>
       <c r="AZ14" s="15">
-        <v>763390</v>
+        <v>894612</v>
       </c>
       <c r="BA14" s="15">
-        <v>446391</v>
+        <v>868182</v>
       </c>
       <c r="BB14" s="15">
-        <v>894612</v>
+        <v>627702</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>63</v>
       </c>
@@ -2127,7 +2127,7 @@
       <c r="BA15" s="9"/>
       <c r="BB15" s="9"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>56</v>
       </c>
@@ -2195,56 +2195,56 @@
       <c r="X16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z16" s="11" t="s">
-        <v>58</v>
+      <c r="Y16" s="11">
+        <v>19980</v>
+      </c>
+      <c r="Z16" s="11">
+        <v>0</v>
       </c>
       <c r="AA16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="11">
+        <v>9900</v>
+      </c>
+      <c r="AG16" s="11">
+        <v>250</v>
+      </c>
+      <c r="AH16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM16" s="11">
         <v>19980</v>
       </c>
-      <c r="AB16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="11">
-        <v>9900</v>
-      </c>
-      <c r="AI16" s="11">
-        <v>250</v>
-      </c>
-      <c r="AJ16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM16" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="AN16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO16" s="11">
-        <v>19980</v>
+      <c r="AO16" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP16" s="11" t="s">
         <v>58</v>
@@ -2252,11 +2252,11 @@
       <c r="AQ16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS16" s="11" t="s">
-        <v>58</v>
+      <c r="AR16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="11">
+        <v>0</v>
       </c>
       <c r="AT16" s="11">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>59</v>
       </c>
@@ -2348,104 +2348,104 @@
       <c r="V17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X17" s="13" t="s">
-        <v>58</v>
+      <c r="W17" s="13">
+        <v>2127</v>
+      </c>
+      <c r="X17" s="13">
+        <v>2160</v>
       </c>
       <c r="Y17" s="13">
-        <v>2127</v>
+        <v>872</v>
       </c>
       <c r="Z17" s="13">
-        <v>2160</v>
+        <v>1821</v>
       </c>
       <c r="AA17" s="13">
-        <v>872</v>
+        <v>160</v>
       </c>
       <c r="AB17" s="13">
-        <v>1821</v>
+        <v>2325</v>
       </c>
       <c r="AC17" s="13">
-        <v>160</v>
+        <v>1020</v>
       </c>
       <c r="AD17" s="13">
-        <v>2325</v>
+        <v>247</v>
       </c>
       <c r="AE17" s="13">
-        <v>1020</v>
+        <v>110</v>
       </c>
       <c r="AF17" s="13">
-        <v>247</v>
+        <v>2150</v>
       </c>
       <c r="AG17" s="13">
-        <v>110</v>
+        <v>1359</v>
       </c>
       <c r="AH17" s="13">
-        <v>2150</v>
+        <v>410</v>
       </c>
       <c r="AI17" s="13">
-        <v>1359</v>
+        <v>12205</v>
       </c>
       <c r="AJ17" s="13">
+        <v>727</v>
+      </c>
+      <c r="AK17" s="13">
+        <v>308</v>
+      </c>
+      <c r="AL17" s="13">
+        <v>132</v>
+      </c>
+      <c r="AM17" s="13">
+        <v>429</v>
+      </c>
+      <c r="AN17" s="13">
+        <v>672</v>
+      </c>
+      <c r="AO17" s="13">
+        <v>400</v>
+      </c>
+      <c r="AP17" s="13">
+        <v>46</v>
+      </c>
+      <c r="AQ17" s="13">
+        <v>458</v>
+      </c>
+      <c r="AR17" s="13">
+        <v>9000</v>
+      </c>
+      <c r="AS17" s="13">
+        <v>7910</v>
+      </c>
+      <c r="AT17" s="13">
+        <v>1000</v>
+      </c>
+      <c r="AU17" s="13">
+        <v>258</v>
+      </c>
+      <c r="AV17" s="13">
+        <v>223</v>
+      </c>
+      <c r="AW17" s="13">
+        <v>408</v>
+      </c>
+      <c r="AX17" s="13">
+        <v>981</v>
+      </c>
+      <c r="AY17" s="13">
         <v>410</v>
       </c>
-      <c r="AK17" s="13">
-        <v>12205</v>
-      </c>
-      <c r="AL17" s="13">
-        <v>727</v>
-      </c>
-      <c r="AM17" s="13">
-        <v>308</v>
-      </c>
-      <c r="AN17" s="13">
-        <v>132</v>
-      </c>
-      <c r="AO17" s="13">
-        <v>429</v>
-      </c>
-      <c r="AP17" s="13">
-        <v>672</v>
-      </c>
-      <c r="AQ17" s="13">
-        <v>400</v>
-      </c>
-      <c r="AR17" s="13">
-        <v>46</v>
-      </c>
-      <c r="AS17" s="13">
-        <v>458</v>
-      </c>
-      <c r="AT17" s="13">
-        <v>9000</v>
-      </c>
-      <c r="AU17" s="13">
-        <v>7910</v>
-      </c>
-      <c r="AV17" s="13">
-        <v>1000</v>
-      </c>
-      <c r="AW17" s="13">
-        <v>258</v>
-      </c>
-      <c r="AX17" s="13">
-        <v>223</v>
-      </c>
-      <c r="AY17" s="13">
-        <v>408</v>
-      </c>
       <c r="AZ17" s="13">
-        <v>981</v>
+        <v>1100</v>
       </c>
       <c r="BA17" s="13">
-        <v>410</v>
+        <v>966</v>
       </c>
       <c r="BB17" s="13">
-        <v>1100</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>60</v>
       </c>
@@ -2507,56 +2507,56 @@
       <c r="V18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X18" s="11" t="s">
-        <v>58</v>
+      <c r="W18" s="11">
+        <v>0</v>
+      </c>
+      <c r="X18" s="11">
+        <v>0</v>
       </c>
       <c r="Y18" s="11">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="Z18" s="11">
         <v>0</v>
       </c>
       <c r="AA18" s="11">
-        <v>3600</v>
+        <v>4230</v>
       </c>
       <c r="AB18" s="11">
         <v>0</v>
       </c>
       <c r="AC18" s="11">
-        <v>4230</v>
+        <v>690</v>
       </c>
       <c r="AD18" s="11">
         <v>0</v>
       </c>
       <c r="AE18" s="11">
-        <v>690</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="11">
         <v>0</v>
       </c>
       <c r="AG18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="11">
-        <v>0</v>
+        <v>3000000</v>
+      </c>
+      <c r="AH18" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI18" s="11">
-        <v>3000000</v>
+        <v>12000000</v>
       </c>
       <c r="AJ18" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AK18" s="11">
-        <v>12000000</v>
+        <v>4465900</v>
       </c>
       <c r="AL18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM18" s="11">
-        <v>4465900</v>
+      <c r="AM18" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN18" s="11" t="s">
         <v>58</v>
@@ -2570,11 +2570,11 @@
       <c r="AQ18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS18" s="11" t="s">
-        <v>58</v>
+      <c r="AR18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="11">
+        <v>0</v>
       </c>
       <c r="AT18" s="11">
         <v>0</v>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>64</v>
       </c>
@@ -2665,103 +2665,103 @@
         <v>0</v>
       </c>
       <c r="W19" s="15">
-        <v>0</v>
+        <v>2127</v>
       </c>
       <c r="X19" s="15">
-        <v>0</v>
+        <v>2160</v>
       </c>
       <c r="Y19" s="15">
-        <v>2127</v>
+        <v>24452</v>
       </c>
       <c r="Z19" s="15">
-        <v>2160</v>
+        <v>1821</v>
       </c>
       <c r="AA19" s="15">
-        <v>24452</v>
+        <v>4390</v>
       </c>
       <c r="AB19" s="15">
-        <v>1821</v>
+        <v>2325</v>
       </c>
       <c r="AC19" s="15">
-        <v>4390</v>
+        <v>1710</v>
       </c>
       <c r="AD19" s="15">
-        <v>2325</v>
+        <v>247</v>
       </c>
       <c r="AE19" s="15">
-        <v>1710</v>
+        <v>110</v>
       </c>
       <c r="AF19" s="15">
-        <v>247</v>
+        <v>12050</v>
       </c>
       <c r="AG19" s="15">
-        <v>110</v>
+        <v>3001609</v>
       </c>
       <c r="AH19" s="15">
-        <v>12050</v>
+        <v>410</v>
       </c>
       <c r="AI19" s="15">
-        <v>3001609</v>
+        <v>12012205</v>
       </c>
       <c r="AJ19" s="15">
+        <v>727</v>
+      </c>
+      <c r="AK19" s="15">
+        <v>4466208</v>
+      </c>
+      <c r="AL19" s="15">
+        <v>132</v>
+      </c>
+      <c r="AM19" s="15">
+        <v>20409</v>
+      </c>
+      <c r="AN19" s="15">
+        <v>672</v>
+      </c>
+      <c r="AO19" s="15">
+        <v>400</v>
+      </c>
+      <c r="AP19" s="15">
+        <v>46</v>
+      </c>
+      <c r="AQ19" s="15">
+        <v>458</v>
+      </c>
+      <c r="AR19" s="15">
+        <v>9000</v>
+      </c>
+      <c r="AS19" s="15">
+        <v>7910</v>
+      </c>
+      <c r="AT19" s="15">
+        <v>1000</v>
+      </c>
+      <c r="AU19" s="15">
+        <v>258</v>
+      </c>
+      <c r="AV19" s="15">
+        <v>223</v>
+      </c>
+      <c r="AW19" s="15">
+        <v>408</v>
+      </c>
+      <c r="AX19" s="15">
+        <v>981</v>
+      </c>
+      <c r="AY19" s="15">
         <v>410</v>
       </c>
-      <c r="AK19" s="15">
-        <v>12012205</v>
-      </c>
-      <c r="AL19" s="15">
-        <v>727</v>
-      </c>
-      <c r="AM19" s="15">
-        <v>4466208</v>
-      </c>
-      <c r="AN19" s="15">
-        <v>132</v>
-      </c>
-      <c r="AO19" s="15">
-        <v>20409</v>
-      </c>
-      <c r="AP19" s="15">
-        <v>672</v>
-      </c>
-      <c r="AQ19" s="15">
-        <v>400</v>
-      </c>
-      <c r="AR19" s="15">
-        <v>46</v>
-      </c>
-      <c r="AS19" s="15">
-        <v>458</v>
-      </c>
-      <c r="AT19" s="15">
-        <v>9000</v>
-      </c>
-      <c r="AU19" s="15">
-        <v>7910</v>
-      </c>
-      <c r="AV19" s="15">
-        <v>1000</v>
-      </c>
-      <c r="AW19" s="15">
-        <v>258</v>
-      </c>
-      <c r="AX19" s="15">
-        <v>223</v>
-      </c>
-      <c r="AY19" s="15">
-        <v>408</v>
-      </c>
       <c r="AZ19" s="15">
-        <v>981</v>
+        <v>1100</v>
       </c>
       <c r="BA19" s="15">
-        <v>410</v>
+        <v>966</v>
       </c>
       <c r="BB19" s="15">
-        <v>1100</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>65</v>
       </c>
@@ -2818,7 +2818,7 @@
       <c r="BA20" s="17"/>
       <c r="BB20" s="17"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>66</v>
       </c>
@@ -2878,11 +2878,11 @@
       <c r="V21" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W21" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X21" s="19" t="s">
-        <v>58</v>
+      <c r="W21" s="19">
+        <v>0</v>
+      </c>
+      <c r="X21" s="19">
+        <v>0</v>
       </c>
       <c r="Y21" s="19">
         <v>0</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>67</v>
       </c>
@@ -3036,103 +3036,103 @@
         <v>0</v>
       </c>
       <c r="W22" s="15">
-        <v>0</v>
+        <v>261747</v>
       </c>
       <c r="X22" s="15">
-        <v>0</v>
+        <v>202399</v>
       </c>
       <c r="Y22" s="15">
-        <v>261747</v>
+        <v>306936</v>
       </c>
       <c r="Z22" s="15">
-        <v>202399</v>
+        <v>367507</v>
       </c>
       <c r="AA22" s="15">
-        <v>306936</v>
+        <v>309730</v>
       </c>
       <c r="AB22" s="15">
-        <v>367507</v>
+        <v>458141</v>
       </c>
       <c r="AC22" s="15">
-        <v>309730</v>
+        <v>364037</v>
       </c>
       <c r="AD22" s="15">
-        <v>458141</v>
+        <v>243293</v>
       </c>
       <c r="AE22" s="15">
-        <v>364037</v>
+        <v>339566</v>
       </c>
       <c r="AF22" s="15">
-        <v>243293</v>
+        <v>306257</v>
       </c>
       <c r="AG22" s="15">
-        <v>339566</v>
+        <v>10011395</v>
       </c>
       <c r="AH22" s="15">
-        <v>306257</v>
+        <v>1061860</v>
       </c>
       <c r="AI22" s="15">
-        <v>10011395</v>
+        <v>20517769</v>
       </c>
       <c r="AJ22" s="15">
-        <v>1061860</v>
+        <v>16380728</v>
       </c>
       <c r="AK22" s="15">
-        <v>20517769</v>
+        <v>5208701</v>
       </c>
       <c r="AL22" s="15">
-        <v>16380728</v>
+        <v>1664173</v>
       </c>
       <c r="AM22" s="15">
-        <v>5208701</v>
+        <v>4500103</v>
       </c>
       <c r="AN22" s="15">
-        <v>1664173</v>
+        <v>8714971</v>
       </c>
       <c r="AO22" s="15">
-        <v>4500103</v>
+        <v>9491949</v>
       </c>
       <c r="AP22" s="15">
-        <v>8714971</v>
+        <v>5152769</v>
       </c>
       <c r="AQ22" s="15">
-        <v>9491949</v>
+        <v>8127056</v>
       </c>
       <c r="AR22" s="15">
-        <v>5152769</v>
+        <v>252720</v>
       </c>
       <c r="AS22" s="15">
-        <v>8127056</v>
+        <v>622262</v>
       </c>
       <c r="AT22" s="15">
-        <v>252720</v>
+        <v>596121</v>
       </c>
       <c r="AU22" s="15">
-        <v>622262</v>
+        <v>769925</v>
       </c>
       <c r="AV22" s="15">
-        <v>596121</v>
+        <v>629675</v>
       </c>
       <c r="AW22" s="15">
-        <v>769925</v>
+        <v>2819053</v>
       </c>
       <c r="AX22" s="15">
-        <v>629675</v>
+        <v>764371</v>
       </c>
       <c r="AY22" s="15">
-        <v>2819053</v>
+        <v>446801</v>
       </c>
       <c r="AZ22" s="15">
-        <v>764371</v>
+        <v>895712</v>
       </c>
       <c r="BA22" s="15">
-        <v>446801</v>
+        <v>869148</v>
       </c>
       <c r="BB22" s="15">
-        <v>895712</v>
+        <v>627747</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3187,7 +3187,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3242,7 +3242,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3297,7 +3297,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>68</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3509,7 +3509,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>69</v>
       </c>
@@ -3566,7 +3566,7 @@
       <c r="BA28" s="9"/>
       <c r="BB28" s="9"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>56</v>
       </c>
@@ -3628,104 +3628,104 @@
       <c r="V29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X29" s="11" t="s">
-        <v>58</v>
+      <c r="W29" s="11">
+        <v>136174</v>
+      </c>
+      <c r="X29" s="11">
+        <v>103920</v>
       </c>
       <c r="Y29" s="11">
-        <v>136174</v>
+        <v>210395</v>
       </c>
       <c r="Z29" s="11">
-        <v>103920</v>
+        <v>222468</v>
       </c>
       <c r="AA29" s="11">
-        <v>210395</v>
+        <v>177026</v>
       </c>
       <c r="AB29" s="11">
-        <v>222468</v>
+        <v>256629</v>
       </c>
       <c r="AC29" s="11">
-        <v>177026</v>
+        <v>161493</v>
       </c>
       <c r="AD29" s="11">
-        <v>256629</v>
+        <v>154749</v>
       </c>
       <c r="AE29" s="11">
-        <v>161493</v>
+        <v>46060</v>
       </c>
       <c r="AF29" s="11">
-        <v>154749</v>
+        <v>125266</v>
       </c>
       <c r="AG29" s="11">
-        <v>46060</v>
+        <v>133090</v>
       </c>
       <c r="AH29" s="11">
-        <v>125266</v>
+        <v>145345</v>
       </c>
       <c r="AI29" s="11">
-        <v>133090</v>
+        <v>95075</v>
       </c>
       <c r="AJ29" s="11">
-        <v>145345</v>
+        <v>92618</v>
       </c>
       <c r="AK29" s="11">
-        <v>95075</v>
+        <v>216920</v>
       </c>
       <c r="AL29" s="11">
-        <v>92618</v>
+        <v>94316</v>
       </c>
       <c r="AM29" s="11">
-        <v>216920</v>
+        <v>130862</v>
       </c>
       <c r="AN29" s="11">
-        <v>94316</v>
+        <v>136620</v>
       </c>
       <c r="AO29" s="11">
-        <v>130862</v>
+        <v>192084</v>
       </c>
       <c r="AP29" s="11">
-        <v>136620</v>
+        <v>137065</v>
       </c>
       <c r="AQ29" s="11">
-        <v>192084</v>
+        <v>44006</v>
       </c>
       <c r="AR29" s="11">
-        <v>137065</v>
+        <v>4650</v>
       </c>
       <c r="AS29" s="11">
-        <v>44006</v>
+        <v>148165</v>
       </c>
       <c r="AT29" s="11">
-        <v>4650</v>
+        <v>129137</v>
       </c>
       <c r="AU29" s="11">
-        <v>148165</v>
+        <v>121464</v>
       </c>
       <c r="AV29" s="11">
-        <v>129137</v>
+        <v>102181</v>
       </c>
       <c r="AW29" s="11">
-        <v>121464</v>
+        <v>188942</v>
       </c>
       <c r="AX29" s="11">
-        <v>102181</v>
+        <v>137105</v>
       </c>
       <c r="AY29" s="11">
-        <v>188942</v>
+        <v>118316</v>
       </c>
       <c r="AZ29" s="11">
-        <v>137105</v>
+        <v>115017</v>
       </c>
       <c r="BA29" s="11">
-        <v>119711</v>
+        <v>182846</v>
       </c>
       <c r="BB29" s="11">
-        <v>115017</v>
+        <v>312240</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>59</v>
       </c>
@@ -3787,104 +3787,104 @@
       <c r="V30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X30" s="13" t="s">
-        <v>58</v>
+      <c r="W30" s="13">
+        <v>49284</v>
+      </c>
+      <c r="X30" s="13">
+        <v>34427</v>
       </c>
       <c r="Y30" s="13">
-        <v>49284</v>
+        <v>28155</v>
       </c>
       <c r="Z30" s="13">
-        <v>34427</v>
+        <v>54963</v>
       </c>
       <c r="AA30" s="13">
-        <v>28155</v>
+        <v>49666</v>
       </c>
       <c r="AB30" s="13">
-        <v>54963</v>
+        <v>51797</v>
       </c>
       <c r="AC30" s="13">
-        <v>49666</v>
+        <v>3040</v>
       </c>
       <c r="AD30" s="13">
-        <v>51797</v>
+        <v>12138</v>
       </c>
       <c r="AE30" s="13">
-        <v>3040</v>
+        <v>16061</v>
       </c>
       <c r="AF30" s="13">
-        <v>12138</v>
+        <v>4360</v>
       </c>
       <c r="AG30" s="13">
-        <v>16061</v>
+        <v>29311</v>
       </c>
       <c r="AH30" s="13">
-        <v>4360</v>
+        <v>24488</v>
       </c>
       <c r="AI30" s="13">
-        <v>29311</v>
+        <v>25922</v>
       </c>
       <c r="AJ30" s="13">
-        <v>24488</v>
+        <v>49481</v>
       </c>
       <c r="AK30" s="13">
-        <v>25922</v>
+        <v>57290</v>
       </c>
       <c r="AL30" s="13">
-        <v>49481</v>
+        <v>51386</v>
       </c>
       <c r="AM30" s="13">
-        <v>57290</v>
+        <v>45041</v>
       </c>
       <c r="AN30" s="13">
-        <v>51386</v>
+        <v>32462</v>
       </c>
       <c r="AO30" s="13">
-        <v>45041</v>
+        <v>46619</v>
       </c>
       <c r="AP30" s="13">
-        <v>32462</v>
+        <v>43574</v>
       </c>
       <c r="AQ30" s="13">
-        <v>46619</v>
+        <v>42773</v>
       </c>
       <c r="AR30" s="13">
-        <v>43574</v>
+        <v>0</v>
       </c>
       <c r="AS30" s="13">
-        <v>42773</v>
+        <v>8950</v>
       </c>
       <c r="AT30" s="13">
-        <v>0</v>
+        <v>5319</v>
       </c>
       <c r="AU30" s="13">
-        <v>8950</v>
+        <v>15225</v>
       </c>
       <c r="AV30" s="13">
-        <v>5319</v>
+        <v>10255</v>
       </c>
       <c r="AW30" s="13">
-        <v>15225</v>
+        <v>1320</v>
       </c>
       <c r="AX30" s="13">
-        <v>10255</v>
+        <v>41060</v>
       </c>
       <c r="AY30" s="13">
-        <v>1320</v>
+        <v>20542</v>
       </c>
       <c r="AZ30" s="13">
-        <v>41060</v>
+        <v>63379</v>
       </c>
       <c r="BA30" s="13">
-        <v>20572</v>
+        <v>1895</v>
       </c>
       <c r="BB30" s="13">
-        <v>63379</v>
+        <v>36423</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>60</v>
       </c>
@@ -3946,104 +3946,104 @@
       <c r="V31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X31" s="11" t="s">
-        <v>58</v>
+      <c r="W31" s="11">
+        <v>92444</v>
+      </c>
+      <c r="X31" s="11">
+        <v>77876</v>
       </c>
       <c r="Y31" s="11">
-        <v>92444</v>
+        <v>92763</v>
       </c>
       <c r="Z31" s="11">
-        <v>77876</v>
+        <v>115244</v>
       </c>
       <c r="AA31" s="11">
-        <v>92763</v>
+        <v>40044</v>
       </c>
       <c r="AB31" s="11">
-        <v>115244</v>
+        <v>133423</v>
       </c>
       <c r="AC31" s="11">
-        <v>40044</v>
+        <v>52990</v>
       </c>
       <c r="AD31" s="11">
-        <v>133423</v>
+        <v>85160</v>
       </c>
       <c r="AE31" s="11">
-        <v>52990</v>
+        <v>96967</v>
       </c>
       <c r="AF31" s="11">
-        <v>85160</v>
+        <v>2073806</v>
       </c>
       <c r="AG31" s="11">
-        <v>96967</v>
+        <v>6552383</v>
       </c>
       <c r="AH31" s="11">
-        <v>2073806</v>
+        <v>3354560</v>
       </c>
       <c r="AI31" s="11">
-        <v>6552383</v>
+        <v>9136924</v>
       </c>
       <c r="AJ31" s="11">
-        <v>3354560</v>
+        <v>6065303</v>
       </c>
       <c r="AK31" s="11">
-        <v>9136924</v>
+        <v>14601946</v>
       </c>
       <c r="AL31" s="11">
-        <v>6065303</v>
+        <v>4969424</v>
       </c>
       <c r="AM31" s="11">
-        <v>14601946</v>
+        <v>11051669</v>
       </c>
       <c r="AN31" s="11">
-        <v>4969424</v>
+        <v>7034128</v>
       </c>
       <c r="AO31" s="11">
-        <v>11051669</v>
+        <v>1988191</v>
       </c>
       <c r="AP31" s="11">
-        <v>7034128</v>
+        <v>6448517</v>
       </c>
       <c r="AQ31" s="11">
-        <v>1988191</v>
+        <v>5929439</v>
       </c>
       <c r="AR31" s="11">
-        <v>6448517</v>
+        <v>6652127</v>
       </c>
       <c r="AS31" s="11">
-        <v>5929439</v>
+        <v>624279</v>
       </c>
       <c r="AT31" s="11">
-        <v>6652127</v>
+        <v>37566296</v>
       </c>
       <c r="AU31" s="11">
-        <v>624279</v>
+        <v>1268134</v>
       </c>
       <c r="AV31" s="11">
-        <v>37566296</v>
+        <v>10955154</v>
       </c>
       <c r="AW31" s="11">
-        <v>1268134</v>
+        <v>608155</v>
       </c>
       <c r="AX31" s="11">
-        <v>10955154</v>
+        <v>7266266</v>
       </c>
       <c r="AY31" s="11">
-        <v>608155</v>
+        <v>1677062</v>
       </c>
       <c r="AZ31" s="11">
-        <v>7266266</v>
+        <v>695760</v>
       </c>
       <c r="BA31" s="11">
-        <v>1677062</v>
+        <v>615256</v>
       </c>
       <c r="BB31" s="11">
-        <v>695760</v>
+        <v>321892</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>70</v>
       </c>
@@ -4104,103 +4104,103 @@
         <v>0</v>
       </c>
       <c r="W32" s="15">
-        <v>0</v>
+        <v>277902</v>
       </c>
       <c r="X32" s="15">
-        <v>0</v>
+        <v>216223</v>
       </c>
       <c r="Y32" s="15">
-        <v>277902</v>
+        <v>331313</v>
       </c>
       <c r="Z32" s="15">
-        <v>216223</v>
+        <v>392675</v>
       </c>
       <c r="AA32" s="15">
-        <v>331313</v>
+        <v>266736</v>
       </c>
       <c r="AB32" s="15">
-        <v>392675</v>
+        <v>441849</v>
       </c>
       <c r="AC32" s="15">
-        <v>266736</v>
+        <v>217523</v>
       </c>
       <c r="AD32" s="15">
-        <v>441849</v>
+        <v>252047</v>
       </c>
       <c r="AE32" s="15">
-        <v>217523</v>
+        <v>159088</v>
       </c>
       <c r="AF32" s="15">
-        <v>252047</v>
+        <v>2203432</v>
       </c>
       <c r="AG32" s="15">
-        <v>159088</v>
+        <v>6714784</v>
       </c>
       <c r="AH32" s="15">
-        <v>2203432</v>
+        <v>3524393</v>
       </c>
       <c r="AI32" s="15">
-        <v>6714784</v>
+        <v>9257921</v>
       </c>
       <c r="AJ32" s="15">
-        <v>3524393</v>
+        <v>6207402</v>
       </c>
       <c r="AK32" s="15">
-        <v>9257921</v>
+        <v>14876156</v>
       </c>
       <c r="AL32" s="15">
-        <v>6207402</v>
+        <v>5115126</v>
       </c>
       <c r="AM32" s="15">
-        <v>14876156</v>
+        <v>11227572</v>
       </c>
       <c r="AN32" s="15">
-        <v>5115126</v>
+        <v>7203210</v>
       </c>
       <c r="AO32" s="15">
-        <v>11227572</v>
+        <v>2226894</v>
       </c>
       <c r="AP32" s="15">
-        <v>7203210</v>
+        <v>6629156</v>
       </c>
       <c r="AQ32" s="15">
-        <v>2226894</v>
+        <v>6016218</v>
       </c>
       <c r="AR32" s="15">
-        <v>6629156</v>
+        <v>6656777</v>
       </c>
       <c r="AS32" s="15">
-        <v>6016218</v>
+        <v>781394</v>
       </c>
       <c r="AT32" s="15">
-        <v>6656777</v>
+        <v>37700752</v>
       </c>
       <c r="AU32" s="15">
-        <v>781394</v>
+        <v>1404823</v>
       </c>
       <c r="AV32" s="15">
-        <v>37700752</v>
+        <v>11067590</v>
       </c>
       <c r="AW32" s="15">
-        <v>1404823</v>
+        <v>798417</v>
       </c>
       <c r="AX32" s="15">
-        <v>11067590</v>
+        <v>7444431</v>
       </c>
       <c r="AY32" s="15">
-        <v>798417</v>
+        <v>1815920</v>
       </c>
       <c r="AZ32" s="15">
-        <v>7444431</v>
+        <v>874156</v>
       </c>
       <c r="BA32" s="15">
-        <v>1817345</v>
+        <v>799997</v>
       </c>
       <c r="BB32" s="15">
-        <v>874156</v>
+        <v>670555</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>71</v>
       </c>
@@ -4257,7 +4257,7 @@
       <c r="BA33" s="9"/>
       <c r="BB33" s="9"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>56</v>
       </c>
@@ -4325,56 +4325,56 @@
       <c r="X34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z34" s="11" t="s">
-        <v>58</v>
+      <c r="Y34" s="11">
+        <v>19980</v>
+      </c>
+      <c r="Z34" s="11">
+        <v>0</v>
       </c>
       <c r="AA34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="11">
+        <v>9900</v>
+      </c>
+      <c r="AG34" s="11">
+        <v>250</v>
+      </c>
+      <c r="AH34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM34" s="11">
         <v>19980</v>
       </c>
-      <c r="AB34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="11">
-        <v>9900</v>
-      </c>
-      <c r="AI34" s="11">
-        <v>250</v>
-      </c>
-      <c r="AJ34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM34" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="AN34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO34" s="11">
-        <v>19980</v>
+      <c r="AO34" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP34" s="11" t="s">
         <v>58</v>
@@ -4382,11 +4382,11 @@
       <c r="AQ34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS34" s="11" t="s">
-        <v>58</v>
+      <c r="AR34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="11">
+        <v>0</v>
       </c>
       <c r="AT34" s="11">
         <v>0</v>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>59</v>
       </c>
@@ -4478,104 +4478,104 @@
       <c r="V35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X35" s="13" t="s">
-        <v>58</v>
+      <c r="W35" s="13">
+        <v>2127</v>
+      </c>
+      <c r="X35" s="13">
+        <v>2160</v>
       </c>
       <c r="Y35" s="13">
-        <v>2127</v>
+        <v>872</v>
       </c>
       <c r="Z35" s="13">
-        <v>2160</v>
+        <v>1821</v>
       </c>
       <c r="AA35" s="13">
-        <v>872</v>
+        <v>160</v>
       </c>
       <c r="AB35" s="13">
-        <v>1821</v>
+        <v>2325</v>
       </c>
       <c r="AC35" s="13">
-        <v>160</v>
+        <v>1020</v>
       </c>
       <c r="AD35" s="13">
-        <v>2325</v>
+        <v>247</v>
       </c>
       <c r="AE35" s="13">
-        <v>1020</v>
+        <v>110</v>
       </c>
       <c r="AF35" s="13">
-        <v>247</v>
+        <v>2150</v>
       </c>
       <c r="AG35" s="13">
-        <v>110</v>
+        <v>1359</v>
       </c>
       <c r="AH35" s="13">
-        <v>2150</v>
+        <v>410</v>
       </c>
       <c r="AI35" s="13">
-        <v>1359</v>
+        <v>12205</v>
       </c>
       <c r="AJ35" s="13">
+        <v>727</v>
+      </c>
+      <c r="AK35" s="13">
+        <v>308</v>
+      </c>
+      <c r="AL35" s="13">
+        <v>132</v>
+      </c>
+      <c r="AM35" s="13">
+        <v>429</v>
+      </c>
+      <c r="AN35" s="13">
+        <v>672</v>
+      </c>
+      <c r="AO35" s="13">
+        <v>400</v>
+      </c>
+      <c r="AP35" s="13">
+        <v>46</v>
+      </c>
+      <c r="AQ35" s="13">
+        <v>458</v>
+      </c>
+      <c r="AR35" s="13">
+        <v>9000</v>
+      </c>
+      <c r="AS35" s="13">
+        <v>7910</v>
+      </c>
+      <c r="AT35" s="13">
+        <v>1000</v>
+      </c>
+      <c r="AU35" s="13">
+        <v>258</v>
+      </c>
+      <c r="AV35" s="13">
+        <v>223</v>
+      </c>
+      <c r="AW35" s="13">
+        <v>408</v>
+      </c>
+      <c r="AX35" s="13">
+        <v>981</v>
+      </c>
+      <c r="AY35" s="13">
         <v>410</v>
       </c>
-      <c r="AK35" s="13">
-        <v>12205</v>
-      </c>
-      <c r="AL35" s="13">
-        <v>727</v>
-      </c>
-      <c r="AM35" s="13">
-        <v>308</v>
-      </c>
-      <c r="AN35" s="13">
-        <v>132</v>
-      </c>
-      <c r="AO35" s="13">
-        <v>429</v>
-      </c>
-      <c r="AP35" s="13">
-        <v>672</v>
-      </c>
-      <c r="AQ35" s="13">
-        <v>400</v>
-      </c>
-      <c r="AR35" s="13">
-        <v>46</v>
-      </c>
-      <c r="AS35" s="13">
-        <v>458</v>
-      </c>
-      <c r="AT35" s="13">
-        <v>9000</v>
-      </c>
-      <c r="AU35" s="13">
-        <v>7910</v>
-      </c>
-      <c r="AV35" s="13">
-        <v>1000</v>
-      </c>
-      <c r="AW35" s="13">
-        <v>258</v>
-      </c>
-      <c r="AX35" s="13">
-        <v>223</v>
-      </c>
-      <c r="AY35" s="13">
-        <v>408</v>
-      </c>
       <c r="AZ35" s="13">
-        <v>981</v>
+        <v>1100</v>
       </c>
       <c r="BA35" s="13">
-        <v>410</v>
+        <v>966</v>
       </c>
       <c r="BB35" s="13">
-        <v>1100</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>60</v>
       </c>
@@ -4637,56 +4637,56 @@
       <c r="V36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X36" s="11" t="s">
-        <v>58</v>
+      <c r="W36" s="11">
+        <v>0</v>
+      </c>
+      <c r="X36" s="11">
+        <v>0</v>
       </c>
       <c r="Y36" s="11">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="Z36" s="11">
         <v>0</v>
       </c>
       <c r="AA36" s="11">
-        <v>3600</v>
+        <v>4230</v>
       </c>
       <c r="AB36" s="11">
         <v>0</v>
       </c>
       <c r="AC36" s="11">
-        <v>4230</v>
+        <v>690</v>
       </c>
       <c r="AD36" s="11">
         <v>0</v>
       </c>
       <c r="AE36" s="11">
-        <v>690</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="11">
         <v>0</v>
       </c>
       <c r="AG36" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="11">
-        <v>0</v>
+        <v>3000000</v>
+      </c>
+      <c r="AH36" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI36" s="11">
-        <v>3000000</v>
+        <v>12000000</v>
       </c>
       <c r="AJ36" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AK36" s="11">
-        <v>12000000</v>
+        <v>4465900</v>
       </c>
       <c r="AL36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM36" s="11">
-        <v>4465900</v>
+      <c r="AM36" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN36" s="11" t="s">
         <v>58</v>
@@ -4700,11 +4700,11 @@
       <c r="AQ36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS36" s="11" t="s">
-        <v>58</v>
+      <c r="AR36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="11">
+        <v>0</v>
       </c>
       <c r="AT36" s="11">
         <v>0</v>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>72</v>
       </c>
@@ -4795,103 +4795,103 @@
         <v>0</v>
       </c>
       <c r="W37" s="15">
-        <v>0</v>
+        <v>2127</v>
       </c>
       <c r="X37" s="15">
-        <v>0</v>
+        <v>2160</v>
       </c>
       <c r="Y37" s="15">
-        <v>2127</v>
+        <v>24452</v>
       </c>
       <c r="Z37" s="15">
-        <v>2160</v>
+        <v>1821</v>
       </c>
       <c r="AA37" s="15">
-        <v>24452</v>
+        <v>4390</v>
       </c>
       <c r="AB37" s="15">
-        <v>1821</v>
+        <v>2325</v>
       </c>
       <c r="AC37" s="15">
-        <v>4390</v>
+        <v>1710</v>
       </c>
       <c r="AD37" s="15">
-        <v>2325</v>
+        <v>247</v>
       </c>
       <c r="AE37" s="15">
-        <v>1710</v>
+        <v>110</v>
       </c>
       <c r="AF37" s="15">
-        <v>247</v>
+        <v>12050</v>
       </c>
       <c r="AG37" s="15">
-        <v>110</v>
+        <v>3001609</v>
       </c>
       <c r="AH37" s="15">
-        <v>12050</v>
+        <v>410</v>
       </c>
       <c r="AI37" s="15">
-        <v>3001609</v>
+        <v>12012205</v>
       </c>
       <c r="AJ37" s="15">
+        <v>727</v>
+      </c>
+      <c r="AK37" s="15">
+        <v>4466208</v>
+      </c>
+      <c r="AL37" s="15">
+        <v>132</v>
+      </c>
+      <c r="AM37" s="15">
+        <v>20409</v>
+      </c>
+      <c r="AN37" s="15">
+        <v>672</v>
+      </c>
+      <c r="AO37" s="15">
+        <v>400</v>
+      </c>
+      <c r="AP37" s="15">
+        <v>46</v>
+      </c>
+      <c r="AQ37" s="15">
+        <v>458</v>
+      </c>
+      <c r="AR37" s="15">
+        <v>9000</v>
+      </c>
+      <c r="AS37" s="15">
+        <v>7910</v>
+      </c>
+      <c r="AT37" s="15">
+        <v>1000</v>
+      </c>
+      <c r="AU37" s="15">
+        <v>258</v>
+      </c>
+      <c r="AV37" s="15">
+        <v>223</v>
+      </c>
+      <c r="AW37" s="15">
+        <v>408</v>
+      </c>
+      <c r="AX37" s="15">
+        <v>981</v>
+      </c>
+      <c r="AY37" s="15">
         <v>410</v>
       </c>
-      <c r="AK37" s="15">
-        <v>12012205</v>
-      </c>
-      <c r="AL37" s="15">
-        <v>727</v>
-      </c>
-      <c r="AM37" s="15">
-        <v>4466208</v>
-      </c>
-      <c r="AN37" s="15">
-        <v>132</v>
-      </c>
-      <c r="AO37" s="15">
-        <v>20409</v>
-      </c>
-      <c r="AP37" s="15">
-        <v>672</v>
-      </c>
-      <c r="AQ37" s="15">
-        <v>400</v>
-      </c>
-      <c r="AR37" s="15">
-        <v>46</v>
-      </c>
-      <c r="AS37" s="15">
-        <v>458</v>
-      </c>
-      <c r="AT37" s="15">
-        <v>9000</v>
-      </c>
-      <c r="AU37" s="15">
-        <v>7910</v>
-      </c>
-      <c r="AV37" s="15">
-        <v>1000</v>
-      </c>
-      <c r="AW37" s="15">
-        <v>258</v>
-      </c>
-      <c r="AX37" s="15">
-        <v>223</v>
-      </c>
-      <c r="AY37" s="15">
-        <v>408</v>
-      </c>
       <c r="AZ37" s="15">
-        <v>981</v>
+        <v>1100</v>
       </c>
       <c r="BA37" s="15">
-        <v>410</v>
+        <v>966</v>
       </c>
       <c r="BB37" s="15">
-        <v>1100</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
         <v>65</v>
       </c>
@@ -4948,7 +4948,7 @@
       <c r="BA38" s="17"/>
       <c r="BB38" s="17"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
         <v>66</v>
       </c>
@@ -5008,11 +5008,11 @@
       <c r="V39" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W39" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X39" s="19" t="s">
-        <v>58</v>
+      <c r="W39" s="19">
+        <v>0</v>
+      </c>
+      <c r="X39" s="19">
+        <v>0</v>
       </c>
       <c r="Y39" s="19">
         <v>0</v>
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
         <v>73</v>
       </c>
@@ -5162,7 +5162,7 @@
       <c r="BA40" s="9"/>
       <c r="BB40" s="9"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>56</v>
       </c>
@@ -5224,104 +5224,104 @@
       <c r="V41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X41" s="11" t="s">
-        <v>58</v>
+      <c r="W41" s="11">
+        <v>0</v>
+      </c>
+      <c r="X41" s="11">
+        <v>0</v>
       </c>
       <c r="Y41" s="11">
         <v>0</v>
       </c>
       <c r="Z41" s="11">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AA41" s="11">
         <v>0</v>
       </c>
       <c r="AB41" s="11">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="AC41" s="11">
         <v>0</v>
       </c>
       <c r="AD41" s="11">
-        <v>299</v>
+        <v>4220</v>
       </c>
       <c r="AE41" s="11">
         <v>0</v>
       </c>
       <c r="AF41" s="11">
-        <v>4220</v>
-      </c>
-      <c r="AG41" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ41" s="11">
         <v>50</v>
       </c>
+      <c r="AI41" s="11">
+        <v>31000</v>
+      </c>
+      <c r="AJ41" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AK41" s="11">
-        <v>31000</v>
+        <v>2260</v>
       </c>
       <c r="AL41" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AM41" s="11">
-        <v>2260</v>
-      </c>
-      <c r="AN41" s="11" t="s">
-        <v>58</v>
+        <v>2425</v>
+      </c>
+      <c r="AN41" s="11">
+        <v>200</v>
       </c>
       <c r="AO41" s="11">
-        <v>2425</v>
+        <v>500</v>
       </c>
       <c r="AP41" s="11">
+        <v>12978</v>
+      </c>
+      <c r="AQ41" s="11">
+        <v>3000</v>
+      </c>
+      <c r="AR41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU41" s="11">
+        <v>4318</v>
+      </c>
+      <c r="AV41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW41" s="11">
+        <v>2100</v>
+      </c>
+      <c r="AX41" s="11">
         <v>200</v>
       </c>
-      <c r="AQ41" s="11">
-        <v>500</v>
-      </c>
-      <c r="AR41" s="11">
-        <v>12978</v>
-      </c>
-      <c r="AS41" s="11">
-        <v>3000</v>
-      </c>
-      <c r="AT41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW41" s="11">
-        <v>4318</v>
-      </c>
-      <c r="AX41" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="AY41" s="11">
-        <v>2100</v>
+        <v>-1395</v>
       </c>
       <c r="AZ41" s="11">
-        <v>200</v>
+        <v>454</v>
       </c>
       <c r="BA41" s="11">
-        <v>1395</v>
+        <v>672</v>
       </c>
       <c r="BB41" s="11">
-        <v>454</v>
+        <v>4098</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>59</v>
       </c>
@@ -5383,41 +5383,41 @@
       <c r="V42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X42" s="13" t="s">
-        <v>58</v>
+      <c r="W42" s="13">
+        <v>0</v>
+      </c>
+      <c r="X42" s="13">
+        <v>0</v>
       </c>
       <c r="Y42" s="13">
         <v>0</v>
       </c>
       <c r="Z42" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA42" s="13">
         <v>0</v>
       </c>
       <c r="AB42" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="13">
         <v>0</v>
       </c>
       <c r="AD42" s="13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE42" s="13">
         <v>0</v>
       </c>
       <c r="AF42" s="13">
-        <v>13</v>
-      </c>
-      <c r="AG42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH42" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI42" s="13" t="s">
         <v>58</v>
@@ -5440,18 +5440,18 @@
       <c r="AO42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR42" s="13">
+      <c r="AP42" s="13">
         <v>2</v>
       </c>
-      <c r="AS42" s="13">
+      <c r="AQ42" s="13">
         <v>85483</v>
       </c>
+      <c r="AR42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS42" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT42" s="13" t="s">
         <v>58</v>
       </c>
@@ -5467,20 +5467,20 @@
       <c r="AX42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY42" s="13" t="s">
-        <v>58</v>
+      <c r="AY42" s="13">
+        <v>-30</v>
       </c>
       <c r="AZ42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA42" s="13">
-        <v>30</v>
+      <c r="BA42" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB42" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>60</v>
       </c>
@@ -5542,26 +5542,26 @@
       <c r="V43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X43" s="11" t="s">
-        <v>58</v>
+      <c r="W43" s="11">
+        <v>0</v>
+      </c>
+      <c r="X43" s="11">
+        <v>0</v>
       </c>
       <c r="Y43" s="11">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="Z43" s="11">
         <v>0</v>
       </c>
       <c r="AA43" s="11">
-        <v>420</v>
+        <v>60</v>
       </c>
       <c r="AB43" s="11">
         <v>0</v>
       </c>
       <c r="AC43" s="11">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AD43" s="11">
         <v>0</v>
@@ -5572,17 +5572,17 @@
       <c r="AF43" s="11">
         <v>0</v>
       </c>
-      <c r="AG43" s="11">
-        <v>0</v>
+      <c r="AG43" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH43" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ43" s="11">
-        <v>1</v>
+      <c r="AJ43" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK43" s="11" t="s">
         <v>58</v>
@@ -5617,29 +5617,29 @@
       <c r="AU43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX43" s="11">
+      <c r="AV43" s="11">
         <v>2600000</v>
       </c>
+      <c r="AW43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX43" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AY43" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AZ43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA43" s="11">
-        <v>0</v>
+      <c r="BA43" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB43" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
         <v>74</v>
       </c>
@@ -5699,104 +5699,104 @@
       <c r="V44" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W44" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X44" s="15" t="s">
-        <v>58</v>
+      <c r="W44" s="15">
+        <v>0</v>
+      </c>
+      <c r="X44" s="15">
+        <v>0</v>
       </c>
       <c r="Y44" s="15">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="Z44" s="15">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="AA44" s="15">
-        <v>420</v>
+        <v>60</v>
       </c>
       <c r="AB44" s="15">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="AC44" s="15">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AD44" s="15">
-        <v>299</v>
+        <v>4233</v>
       </c>
       <c r="AE44" s="15">
         <v>0</v>
       </c>
       <c r="AF44" s="15">
-        <v>4233</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="15">
         <v>0</v>
       </c>
       <c r="AH44" s="15">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AI44" s="15">
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="AJ44" s="15">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AK44" s="15">
-        <v>31000</v>
+        <v>2260</v>
       </c>
       <c r="AL44" s="15">
         <v>0</v>
       </c>
       <c r="AM44" s="15">
-        <v>2260</v>
+        <v>2425</v>
       </c>
       <c r="AN44" s="15">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AO44" s="15">
-        <v>2425</v>
+        <v>500</v>
       </c>
       <c r="AP44" s="15">
+        <v>12980</v>
+      </c>
+      <c r="AQ44" s="15">
+        <v>88483</v>
+      </c>
+      <c r="AR44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU44" s="15">
+        <v>4318</v>
+      </c>
+      <c r="AV44" s="15">
+        <v>2600000</v>
+      </c>
+      <c r="AW44" s="15">
+        <v>2100</v>
+      </c>
+      <c r="AX44" s="15">
         <v>200</v>
       </c>
-      <c r="AQ44" s="15">
-        <v>500</v>
-      </c>
-      <c r="AR44" s="15">
-        <v>12980</v>
-      </c>
-      <c r="AS44" s="15">
-        <v>88483</v>
-      </c>
-      <c r="AT44" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU44" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV44" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW44" s="15">
-        <v>4318</v>
-      </c>
-      <c r="AX44" s="15">
-        <v>2600000</v>
-      </c>
       <c r="AY44" s="15">
-        <v>2100</v>
+        <v>-1425</v>
       </c>
       <c r="AZ44" s="15">
-        <v>200</v>
+        <v>454</v>
       </c>
       <c r="BA44" s="15">
-        <v>1425</v>
+        <v>672</v>
       </c>
       <c r="BB44" s="15">
-        <v>454</v>
+        <v>4098</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>67</v>
       </c>
@@ -5857,103 +5857,103 @@
         <v>0</v>
       </c>
       <c r="W45" s="19">
-        <v>0</v>
+        <v>280029</v>
       </c>
       <c r="X45" s="19">
-        <v>0</v>
+        <v>218383</v>
       </c>
       <c r="Y45" s="19">
-        <v>280029</v>
+        <v>356185</v>
       </c>
       <c r="Z45" s="19">
-        <v>218383</v>
+        <v>394831</v>
       </c>
       <c r="AA45" s="19">
-        <v>356185</v>
+        <v>271186</v>
       </c>
       <c r="AB45" s="19">
-        <v>394831</v>
+        <v>444473</v>
       </c>
       <c r="AC45" s="19">
-        <v>271186</v>
+        <v>219233</v>
       </c>
       <c r="AD45" s="19">
-        <v>444473</v>
+        <v>256527</v>
       </c>
       <c r="AE45" s="19">
-        <v>219233</v>
+        <v>159198</v>
       </c>
       <c r="AF45" s="19">
-        <v>256527</v>
+        <v>2215482</v>
       </c>
       <c r="AG45" s="19">
-        <v>159198</v>
+        <v>9716393</v>
       </c>
       <c r="AH45" s="19">
-        <v>2215482</v>
+        <v>3524854</v>
       </c>
       <c r="AI45" s="19">
-        <v>9716393</v>
+        <v>21301126</v>
       </c>
       <c r="AJ45" s="19">
-        <v>3524854</v>
+        <v>6208129</v>
       </c>
       <c r="AK45" s="19">
-        <v>21301126</v>
+        <v>19344624</v>
       </c>
       <c r="AL45" s="19">
-        <v>6208129</v>
+        <v>5115258</v>
       </c>
       <c r="AM45" s="19">
-        <v>19344624</v>
+        <v>11250406</v>
       </c>
       <c r="AN45" s="19">
-        <v>5115258</v>
+        <v>7204082</v>
       </c>
       <c r="AO45" s="19">
-        <v>11250406</v>
+        <v>2227794</v>
       </c>
       <c r="AP45" s="19">
-        <v>7204082</v>
+        <v>6642182</v>
       </c>
       <c r="AQ45" s="19">
-        <v>2227794</v>
+        <v>6105159</v>
       </c>
       <c r="AR45" s="19">
-        <v>6642182</v>
+        <v>6665777</v>
       </c>
       <c r="AS45" s="19">
-        <v>6105159</v>
+        <v>789304</v>
       </c>
       <c r="AT45" s="19">
-        <v>6665777</v>
+        <v>37701752</v>
       </c>
       <c r="AU45" s="19">
-        <v>789304</v>
+        <v>1409399</v>
       </c>
       <c r="AV45" s="19">
-        <v>37701752</v>
+        <v>13667813</v>
       </c>
       <c r="AW45" s="19">
-        <v>1409399</v>
+        <v>800925</v>
       </c>
       <c r="AX45" s="19">
-        <v>13667813</v>
+        <v>7445612</v>
       </c>
       <c r="AY45" s="19">
-        <v>800925</v>
+        <v>1814905</v>
       </c>
       <c r="AZ45" s="19">
-        <v>7445612</v>
+        <v>875710</v>
       </c>
       <c r="BA45" s="19">
-        <v>1819180</v>
+        <v>801635</v>
       </c>
       <c r="BB45" s="19">
-        <v>875710</v>
+        <v>674698</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -6008,7 +6008,7 @@
       <c r="BA46" s="1"/>
       <c r="BB46" s="1"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6063,7 +6063,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6118,7 +6118,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
         <v>75</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6330,7 +6330,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>76</v>
       </c>
@@ -6387,7 +6387,7 @@
       <c r="BA51" s="9"/>
       <c r="BB51" s="9"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>56</v>
       </c>
@@ -6449,104 +6449,104 @@
       <c r="V52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W52" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X52" s="11" t="s">
-        <v>58</v>
+      <c r="W52" s="11">
+        <v>240253</v>
+      </c>
+      <c r="X52" s="11">
+        <v>316454</v>
       </c>
       <c r="Y52" s="11">
-        <v>240253</v>
+        <v>437772</v>
       </c>
       <c r="Z52" s="11">
-        <v>316454</v>
+        <v>423534</v>
       </c>
       <c r="AA52" s="11">
-        <v>437772</v>
+        <v>432070</v>
       </c>
       <c r="AB52" s="11">
-        <v>423534</v>
+        <v>555472</v>
       </c>
       <c r="AC52" s="11">
-        <v>432070</v>
+        <v>429292</v>
       </c>
       <c r="AD52" s="11">
-        <v>555472</v>
+        <v>449098</v>
       </c>
       <c r="AE52" s="11">
-        <v>429292</v>
+        <v>117536</v>
       </c>
       <c r="AF52" s="11">
-        <v>449098</v>
+        <v>412403</v>
       </c>
       <c r="AG52" s="11">
-        <v>117536</v>
+        <v>460291</v>
       </c>
       <c r="AH52" s="11">
-        <v>412403</v>
+        <v>586980</v>
       </c>
       <c r="AI52" s="11">
-        <v>460291</v>
+        <v>384648</v>
       </c>
       <c r="AJ52" s="11">
-        <v>586980</v>
+        <v>312238</v>
       </c>
       <c r="AK52" s="11">
-        <v>384648</v>
+        <v>795186</v>
       </c>
       <c r="AL52" s="11">
-        <v>312238</v>
+        <v>347212</v>
       </c>
       <c r="AM52" s="11">
-        <v>795186</v>
+        <v>486382</v>
       </c>
       <c r="AN52" s="11">
-        <v>347212</v>
+        <v>507961</v>
       </c>
       <c r="AO52" s="11">
-        <v>486382</v>
+        <v>746813</v>
       </c>
       <c r="AP52" s="11">
-        <v>507961</v>
+        <v>751357</v>
       </c>
       <c r="AQ52" s="11">
-        <v>746813</v>
+        <v>270950</v>
       </c>
       <c r="AR52" s="11">
-        <v>751357</v>
+        <v>64077</v>
       </c>
       <c r="AS52" s="11">
-        <v>270950</v>
+        <v>637157</v>
       </c>
       <c r="AT52" s="11">
-        <v>64077</v>
+        <v>555701</v>
       </c>
       <c r="AU52" s="11">
-        <v>637157</v>
+        <v>759655</v>
       </c>
       <c r="AV52" s="11">
-        <v>555701</v>
+        <v>787948</v>
       </c>
       <c r="AW52" s="11">
-        <v>759655</v>
+        <v>1152750</v>
       </c>
       <c r="AX52" s="11">
-        <v>787948</v>
+        <v>748236</v>
       </c>
       <c r="AY52" s="11">
-        <v>1152750</v>
+        <v>526878</v>
       </c>
       <c r="AZ52" s="11">
-        <v>748236</v>
+        <v>585952</v>
       </c>
       <c r="BA52" s="11">
-        <v>526878</v>
+        <v>997113</v>
       </c>
       <c r="BB52" s="11">
-        <v>585952</v>
+        <v>1500937</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>59</v>
       </c>
@@ -6608,104 +6608,104 @@
       <c r="V53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X53" s="13" t="s">
-        <v>58</v>
+      <c r="W53" s="13">
+        <v>83369</v>
+      </c>
+      <c r="X53" s="13">
+        <v>63944</v>
       </c>
       <c r="Y53" s="13">
-        <v>83369</v>
+        <v>102807</v>
       </c>
       <c r="Z53" s="13">
-        <v>63944</v>
+        <v>53676</v>
       </c>
       <c r="AA53" s="13">
-        <v>102807</v>
+        <v>86348</v>
       </c>
       <c r="AB53" s="13">
-        <v>53676</v>
+        <v>119560</v>
       </c>
       <c r="AC53" s="13">
-        <v>86348</v>
+        <v>40659</v>
       </c>
       <c r="AD53" s="13">
-        <v>119560</v>
+        <v>82108</v>
       </c>
       <c r="AE53" s="13">
-        <v>40659</v>
+        <v>22290</v>
       </c>
       <c r="AF53" s="13">
-        <v>82108</v>
+        <v>60928</v>
       </c>
       <c r="AG53" s="13">
-        <v>22290</v>
+        <v>144882</v>
       </c>
       <c r="AH53" s="13">
-        <v>60928</v>
+        <v>116214</v>
       </c>
       <c r="AI53" s="13">
-        <v>144882</v>
+        <v>137702</v>
       </c>
       <c r="AJ53" s="13">
-        <v>116214</v>
+        <v>189250</v>
       </c>
       <c r="AK53" s="13">
-        <v>137702</v>
+        <v>279249</v>
       </c>
       <c r="AL53" s="13">
-        <v>189250</v>
+        <v>91325</v>
       </c>
       <c r="AM53" s="13">
-        <v>279249</v>
+        <v>97417</v>
       </c>
       <c r="AN53" s="13">
-        <v>91325</v>
+        <v>88316</v>
       </c>
       <c r="AO53" s="13">
-        <v>97417</v>
+        <v>203419</v>
       </c>
       <c r="AP53" s="13">
-        <v>88316</v>
+        <v>83976</v>
       </c>
       <c r="AQ53" s="13">
-        <v>203419</v>
+        <v>67000</v>
       </c>
       <c r="AR53" s="13">
-        <v>83976</v>
+        <v>0</v>
       </c>
       <c r="AS53" s="13">
-        <v>67000</v>
+        <v>21221</v>
       </c>
       <c r="AT53" s="13">
-        <v>0</v>
+        <v>77892</v>
       </c>
       <c r="AU53" s="13">
-        <v>21221</v>
+        <v>50755</v>
       </c>
       <c r="AV53" s="13">
-        <v>77892</v>
+        <v>62132</v>
       </c>
       <c r="AW53" s="13">
-        <v>50755</v>
+        <v>67970</v>
       </c>
       <c r="AX53" s="13">
-        <v>62132</v>
+        <v>35584</v>
       </c>
       <c r="AY53" s="13">
-        <v>67970</v>
+        <v>19023</v>
       </c>
       <c r="AZ53" s="13">
-        <v>35584</v>
+        <v>115383</v>
       </c>
       <c r="BA53" s="13">
-        <v>19023</v>
+        <v>58300</v>
       </c>
       <c r="BB53" s="13">
-        <v>115383</v>
+        <v>159381</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
@@ -6767,104 +6767,104 @@
       <c r="V54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W54" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X54" s="11" t="s">
-        <v>58</v>
+      <c r="W54" s="11">
+        <v>68361</v>
+      </c>
+      <c r="X54" s="11">
+        <v>75538</v>
       </c>
       <c r="Y54" s="11">
-        <v>68361</v>
+        <v>69530</v>
       </c>
       <c r="Z54" s="11">
-        <v>75538</v>
+        <v>99815</v>
       </c>
       <c r="AA54" s="11">
-        <v>69530</v>
+        <v>28200</v>
       </c>
       <c r="AB54" s="11">
-        <v>99815</v>
+        <v>152129</v>
       </c>
       <c r="AC54" s="11">
-        <v>28200</v>
+        <v>38418</v>
       </c>
       <c r="AD54" s="11">
-        <v>152129</v>
+        <v>61172</v>
       </c>
       <c r="AE54" s="11">
-        <v>38418</v>
+        <v>75863</v>
       </c>
       <c r="AF54" s="11">
-        <v>61172</v>
+        <v>28486</v>
       </c>
       <c r="AG54" s="11">
-        <v>75863</v>
+        <v>89364</v>
       </c>
       <c r="AH54" s="11">
-        <v>28486</v>
+        <v>57308</v>
       </c>
       <c r="AI54" s="11">
-        <v>89364</v>
+        <v>83245</v>
       </c>
       <c r="AJ54" s="11">
-        <v>57308</v>
+        <v>73034</v>
       </c>
       <c r="AK54" s="11">
-        <v>83245</v>
+        <v>137943</v>
       </c>
       <c r="AL54" s="11">
-        <v>73034</v>
+        <v>75420</v>
       </c>
       <c r="AM54" s="11">
-        <v>137943</v>
+        <v>83758</v>
       </c>
       <c r="AN54" s="11">
-        <v>75420</v>
+        <v>76320</v>
       </c>
       <c r="AO54" s="11">
-        <v>83758</v>
+        <v>68947</v>
       </c>
       <c r="AP54" s="11">
-        <v>76320</v>
+        <v>104804</v>
       </c>
       <c r="AQ54" s="11">
-        <v>68947</v>
+        <v>74739</v>
       </c>
       <c r="AR54" s="11">
-        <v>104804</v>
+        <v>65582</v>
       </c>
       <c r="AS54" s="11">
-        <v>74739</v>
+        <v>14761</v>
       </c>
       <c r="AT54" s="11">
-        <v>65582</v>
+        <v>302901</v>
       </c>
       <c r="AU54" s="11">
-        <v>14761</v>
+        <v>197218</v>
       </c>
       <c r="AV54" s="11">
-        <v>302901</v>
+        <v>187527</v>
       </c>
       <c r="AW54" s="11">
-        <v>197218</v>
+        <v>163829</v>
       </c>
       <c r="AX54" s="11">
-        <v>187527</v>
+        <v>162577</v>
       </c>
       <c r="AY54" s="11">
-        <v>163829</v>
+        <v>110259</v>
       </c>
       <c r="AZ54" s="11">
-        <v>162577</v>
+        <v>163013</v>
       </c>
       <c r="BA54" s="11">
-        <v>110259</v>
+        <v>194867</v>
       </c>
       <c r="BB54" s="11">
-        <v>163013</v>
+        <v>105827</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
         <v>70</v>
       </c>
@@ -6925,103 +6925,103 @@
         <v>0</v>
       </c>
       <c r="W55" s="15">
-        <v>0</v>
+        <v>391983</v>
       </c>
       <c r="X55" s="15">
-        <v>0</v>
+        <v>455936</v>
       </c>
       <c r="Y55" s="15">
-        <v>391983</v>
+        <v>610109</v>
       </c>
       <c r="Z55" s="15">
-        <v>455936</v>
+        <v>577025</v>
       </c>
       <c r="AA55" s="15">
-        <v>610109</v>
+        <v>546618</v>
       </c>
       <c r="AB55" s="15">
-        <v>577025</v>
+        <v>827161</v>
       </c>
       <c r="AC55" s="15">
-        <v>546618</v>
+        <v>508369</v>
       </c>
       <c r="AD55" s="15">
-        <v>827161</v>
+        <v>592378</v>
       </c>
       <c r="AE55" s="15">
-        <v>508369</v>
+        <v>215689</v>
       </c>
       <c r="AF55" s="15">
-        <v>592378</v>
+        <v>501817</v>
       </c>
       <c r="AG55" s="15">
-        <v>215689</v>
+        <v>694537</v>
       </c>
       <c r="AH55" s="15">
-        <v>501817</v>
+        <v>760502</v>
       </c>
       <c r="AI55" s="15">
-        <v>694537</v>
+        <v>605595</v>
       </c>
       <c r="AJ55" s="15">
-        <v>760502</v>
+        <v>574522</v>
       </c>
       <c r="AK55" s="15">
-        <v>605595</v>
+        <v>1212378</v>
       </c>
       <c r="AL55" s="15">
-        <v>574522</v>
+        <v>513957</v>
       </c>
       <c r="AM55" s="15">
-        <v>1212378</v>
+        <v>667557</v>
       </c>
       <c r="AN55" s="15">
-        <v>513957</v>
+        <v>672597</v>
       </c>
       <c r="AO55" s="15">
-        <v>667557</v>
+        <v>1019179</v>
       </c>
       <c r="AP55" s="15">
-        <v>672597</v>
+        <v>940137</v>
       </c>
       <c r="AQ55" s="15">
-        <v>1019179</v>
+        <v>412689</v>
       </c>
       <c r="AR55" s="15">
-        <v>940137</v>
+        <v>129659</v>
       </c>
       <c r="AS55" s="15">
-        <v>412689</v>
+        <v>673139</v>
       </c>
       <c r="AT55" s="15">
-        <v>129659</v>
+        <v>936494</v>
       </c>
       <c r="AU55" s="15">
-        <v>673139</v>
+        <v>1007628</v>
       </c>
       <c r="AV55" s="15">
-        <v>936494</v>
+        <v>1037607</v>
       </c>
       <c r="AW55" s="15">
-        <v>1007628</v>
+        <v>1384549</v>
       </c>
       <c r="AX55" s="15">
-        <v>1037607</v>
+        <v>946397</v>
       </c>
       <c r="AY55" s="15">
-        <v>1384549</v>
+        <v>656160</v>
       </c>
       <c r="AZ55" s="15">
-        <v>946397</v>
+        <v>864348</v>
       </c>
       <c r="BA55" s="15">
-        <v>656160</v>
+        <v>1250280</v>
       </c>
       <c r="BB55" s="15">
-        <v>864348</v>
+        <v>1766145</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>78</v>
       </c>
@@ -7078,7 +7078,7 @@
       <c r="BA56" s="9"/>
       <c r="BB56" s="9"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>56</v>
       </c>
@@ -7146,14 +7146,14 @@
       <c r="X57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z57" s="11" t="s">
-        <v>58</v>
+      <c r="Y57" s="11">
+        <v>25819</v>
+      </c>
+      <c r="Z57" s="11">
+        <v>0</v>
       </c>
       <c r="AA57" s="11">
-        <v>25819</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="11">
         <v>0</v>
@@ -7168,16 +7168,16 @@
         <v>0</v>
       </c>
       <c r="AF57" s="11">
-        <v>0</v>
+        <v>15528</v>
       </c>
       <c r="AG57" s="11">
-        <v>0</v>
+        <v>2792</v>
       </c>
       <c r="AH57" s="11">
-        <v>15528</v>
+        <v>0</v>
       </c>
       <c r="AI57" s="11">
-        <v>2792</v>
+        <v>0</v>
       </c>
       <c r="AJ57" s="11">
         <v>0</v>
@@ -7189,13 +7189,13 @@
         <v>0</v>
       </c>
       <c r="AM57" s="11">
-        <v>0</v>
+        <v>50980</v>
       </c>
       <c r="AN57" s="11">
         <v>0</v>
       </c>
       <c r="AO57" s="11">
-        <v>50980</v>
+        <v>0</v>
       </c>
       <c r="AP57" s="11">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>59</v>
       </c>
@@ -7299,104 +7299,104 @@
       <c r="V58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X58" s="13" t="s">
-        <v>58</v>
+      <c r="W58" s="13">
+        <v>182960</v>
+      </c>
+      <c r="X58" s="13">
+        <v>194625</v>
       </c>
       <c r="Y58" s="13">
-        <v>182960</v>
+        <v>99129</v>
       </c>
       <c r="Z58" s="13">
-        <v>194625</v>
+        <v>235903</v>
       </c>
       <c r="AA58" s="13">
-        <v>99129</v>
+        <v>17985</v>
       </c>
       <c r="AB58" s="13">
-        <v>235903</v>
+        <v>351283</v>
       </c>
       <c r="AC58" s="13">
-        <v>17985</v>
+        <v>138618</v>
       </c>
       <c r="AD58" s="13">
-        <v>351283</v>
+        <v>29333</v>
       </c>
       <c r="AE58" s="13">
-        <v>138618</v>
+        <v>15715</v>
       </c>
       <c r="AF58" s="13">
-        <v>29333</v>
+        <v>250064</v>
       </c>
       <c r="AG58" s="13">
-        <v>15715</v>
+        <v>135689</v>
       </c>
       <c r="AH58" s="13">
-        <v>250064</v>
+        <v>13366</v>
       </c>
       <c r="AI58" s="13">
-        <v>135689</v>
+        <v>416191</v>
       </c>
       <c r="AJ58" s="13">
-        <v>13366</v>
+        <v>71804</v>
       </c>
       <c r="AK58" s="13">
-        <v>416191</v>
+        <v>37177</v>
       </c>
       <c r="AL58" s="13">
-        <v>71804</v>
+        <v>7443</v>
       </c>
       <c r="AM58" s="13">
-        <v>37177</v>
+        <v>53389</v>
       </c>
       <c r="AN58" s="13">
-        <v>7443</v>
+        <v>70096</v>
       </c>
       <c r="AO58" s="13">
-        <v>53389</v>
+        <v>26079</v>
       </c>
       <c r="AP58" s="13">
-        <v>70096</v>
+        <v>37854</v>
       </c>
       <c r="AQ58" s="13">
-        <v>26079</v>
+        <v>61823</v>
       </c>
       <c r="AR58" s="13">
-        <v>37854</v>
+        <v>354100</v>
       </c>
       <c r="AS58" s="13">
-        <v>61823</v>
+        <v>363834</v>
       </c>
       <c r="AT58" s="13">
-        <v>354100</v>
+        <v>79826</v>
       </c>
       <c r="AU58" s="13">
-        <v>363834</v>
+        <v>41942</v>
       </c>
       <c r="AV58" s="13">
-        <v>79826</v>
+        <v>31102</v>
       </c>
       <c r="AW58" s="13">
-        <v>41942</v>
+        <v>75620</v>
       </c>
       <c r="AX58" s="13">
-        <v>31102</v>
+        <v>92455</v>
       </c>
       <c r="AY58" s="13">
-        <v>75620</v>
+        <v>95402</v>
       </c>
       <c r="AZ58" s="13">
-        <v>92455</v>
+        <v>104024</v>
       </c>
       <c r="BA58" s="13">
-        <v>95402</v>
+        <v>93809</v>
       </c>
       <c r="BB58" s="13">
-        <v>104024</v>
+        <v>46826</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>60</v>
       </c>
@@ -7458,56 +7458,56 @@
       <c r="V59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X59" s="11" t="s">
-        <v>58</v>
+      <c r="W59" s="11">
+        <v>0</v>
+      </c>
+      <c r="X59" s="11">
+        <v>0</v>
       </c>
       <c r="Y59" s="11">
-        <v>0</v>
+        <v>56846</v>
       </c>
       <c r="Z59" s="11">
         <v>0</v>
       </c>
       <c r="AA59" s="11">
-        <v>56846</v>
+        <v>81272</v>
       </c>
       <c r="AB59" s="11">
         <v>0</v>
       </c>
       <c r="AC59" s="11">
-        <v>81272</v>
+        <v>15924</v>
       </c>
       <c r="AD59" s="11">
         <v>0</v>
       </c>
       <c r="AE59" s="11">
-        <v>15924</v>
+        <v>0</v>
       </c>
       <c r="AF59" s="11">
         <v>0</v>
       </c>
       <c r="AG59" s="11">
-        <v>0</v>
+        <v>14549</v>
       </c>
       <c r="AH59" s="11">
         <v>0</v>
       </c>
       <c r="AI59" s="11">
-        <v>14549</v>
+        <v>70864</v>
       </c>
       <c r="AJ59" s="11">
         <v>0</v>
       </c>
       <c r="AK59" s="11">
-        <v>70864</v>
+        <v>15348</v>
       </c>
       <c r="AL59" s="11">
         <v>0</v>
       </c>
       <c r="AM59" s="11">
-        <v>15348</v>
+        <v>0</v>
       </c>
       <c r="AN59" s="11">
         <v>0</v>
@@ -7555,7 +7555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>72</v>
       </c>
@@ -7616,103 +7616,103 @@
         <v>0</v>
       </c>
       <c r="W60" s="15">
-        <v>0</v>
+        <v>182960</v>
       </c>
       <c r="X60" s="15">
-        <v>0</v>
+        <v>194625</v>
       </c>
       <c r="Y60" s="15">
-        <v>182960</v>
+        <v>181794</v>
       </c>
       <c r="Z60" s="15">
-        <v>194625</v>
+        <v>235903</v>
       </c>
       <c r="AA60" s="15">
-        <v>181794</v>
+        <v>99257</v>
       </c>
       <c r="AB60" s="15">
-        <v>235903</v>
+        <v>351283</v>
       </c>
       <c r="AC60" s="15">
-        <v>99257</v>
+        <v>154542</v>
       </c>
       <c r="AD60" s="15">
-        <v>351283</v>
+        <v>29333</v>
       </c>
       <c r="AE60" s="15">
-        <v>154542</v>
+        <v>15715</v>
       </c>
       <c r="AF60" s="15">
-        <v>29333</v>
+        <v>265592</v>
       </c>
       <c r="AG60" s="15">
-        <v>15715</v>
+        <v>153030</v>
       </c>
       <c r="AH60" s="15">
-        <v>265592</v>
+        <v>13366</v>
       </c>
       <c r="AI60" s="15">
-        <v>153030</v>
+        <v>487055</v>
       </c>
       <c r="AJ60" s="15">
-        <v>13366</v>
+        <v>71804</v>
       </c>
       <c r="AK60" s="15">
-        <v>487055</v>
+        <v>52525</v>
       </c>
       <c r="AL60" s="15">
-        <v>71804</v>
+        <v>7443</v>
       </c>
       <c r="AM60" s="15">
-        <v>52525</v>
+        <v>104369</v>
       </c>
       <c r="AN60" s="15">
-        <v>7443</v>
+        <v>70096</v>
       </c>
       <c r="AO60" s="15">
-        <v>104369</v>
+        <v>26079</v>
       </c>
       <c r="AP60" s="15">
-        <v>70096</v>
+        <v>37854</v>
       </c>
       <c r="AQ60" s="15">
-        <v>26079</v>
+        <v>61823</v>
       </c>
       <c r="AR60" s="15">
-        <v>37854</v>
+        <v>354100</v>
       </c>
       <c r="AS60" s="15">
-        <v>61823</v>
+        <v>363834</v>
       </c>
       <c r="AT60" s="15">
-        <v>354100</v>
+        <v>79826</v>
       </c>
       <c r="AU60" s="15">
-        <v>363834</v>
+        <v>41942</v>
       </c>
       <c r="AV60" s="15">
-        <v>79826</v>
+        <v>31102</v>
       </c>
       <c r="AW60" s="15">
-        <v>41942</v>
+        <v>75620</v>
       </c>
       <c r="AX60" s="15">
-        <v>31102</v>
+        <v>92455</v>
       </c>
       <c r="AY60" s="15">
-        <v>75620</v>
+        <v>95402</v>
       </c>
       <c r="AZ60" s="15">
-        <v>92455</v>
+        <v>104024</v>
       </c>
       <c r="BA60" s="15">
-        <v>95402</v>
+        <v>93809</v>
       </c>
       <c r="BB60" s="15">
-        <v>104024</v>
+        <v>46826</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
         <v>79</v>
       </c>
@@ -7769,7 +7769,7 @@
       <c r="BA61" s="17"/>
       <c r="BB61" s="17"/>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="18" t="s">
         <v>66</v>
       </c>
@@ -7831,11 +7831,11 @@
       <c r="V62" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W62" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X62" s="19" t="s">
-        <v>58</v>
+      <c r="W62" s="19">
+        <v>0</v>
+      </c>
+      <c r="X62" s="19">
+        <v>0</v>
       </c>
       <c r="Y62" s="19">
         <v>0</v>
@@ -7928,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>80</v>
       </c>
@@ -7985,7 +7985,7 @@
       <c r="BA63" s="9"/>
       <c r="BB63" s="9"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>56</v>
       </c>
@@ -8047,104 +8047,104 @@
       <c r="V64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W64" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X64" s="11" t="s">
-        <v>58</v>
+      <c r="W64" s="11">
+        <v>0</v>
+      </c>
+      <c r="X64" s="11">
+        <v>0</v>
       </c>
       <c r="Y64" s="11">
         <v>0</v>
       </c>
       <c r="Z64" s="11">
-        <v>0</v>
+        <v>-1376</v>
       </c>
       <c r="AA64" s="11">
         <v>0</v>
       </c>
       <c r="AB64" s="11">
-        <v>-1376</v>
+        <v>-389</v>
       </c>
       <c r="AC64" s="11">
         <v>0</v>
       </c>
       <c r="AD64" s="11">
-        <v>-389</v>
+        <v>-6963</v>
       </c>
       <c r="AE64" s="11">
         <v>0</v>
       </c>
       <c r="AF64" s="11">
-        <v>-6963</v>
+        <v>0</v>
       </c>
       <c r="AG64" s="11">
         <v>0</v>
       </c>
       <c r="AH64" s="11">
-        <v>0</v>
+        <v>-610</v>
       </c>
       <c r="AI64" s="11">
-        <v>0</v>
+        <v>-111600</v>
       </c>
       <c r="AJ64" s="11">
-        <v>-610</v>
+        <v>0</v>
       </c>
       <c r="AK64" s="11">
-        <v>-111600</v>
+        <v>-2642</v>
       </c>
       <c r="AL64" s="11">
         <v>0</v>
       </c>
       <c r="AM64" s="11">
-        <v>-2642</v>
+        <v>-12086</v>
       </c>
       <c r="AN64" s="11">
-        <v>0</v>
+        <v>-2700</v>
       </c>
       <c r="AO64" s="11">
-        <v>-12086</v>
+        <v>-2300</v>
       </c>
       <c r="AP64" s="11">
-        <v>-2700</v>
+        <v>-69506</v>
       </c>
       <c r="AQ64" s="11">
-        <v>-2300</v>
-      </c>
-      <c r="AR64" s="11">
-        <v>-69506</v>
-      </c>
-      <c r="AS64" s="11">
         <v>-6450</v>
       </c>
-      <c r="AT64" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU64" s="11" t="s">
-        <v>58</v>
+      <c r="AR64" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS64" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT64" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU64" s="11">
+        <v>-25811</v>
       </c>
       <c r="AV64" s="11">
         <v>0</v>
       </c>
       <c r="AW64" s="11">
-        <v>-25829</v>
+        <v>-28447</v>
       </c>
       <c r="AX64" s="11">
-        <v>0</v>
+        <v>-740</v>
       </c>
       <c r="AY64" s="11">
-        <v>-28447</v>
+        <v>-21034</v>
       </c>
       <c r="AZ64" s="11">
-        <v>-740</v>
+        <v>-28164</v>
       </c>
       <c r="BA64" s="11">
-        <v>-21034</v>
+        <v>-63504</v>
       </c>
       <c r="BB64" s="11">
-        <v>-28164</v>
+        <v>-37972</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>59</v>
       </c>
@@ -8206,35 +8206,35 @@
       <c r="V65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X65" s="13" t="s">
-        <v>58</v>
+      <c r="W65" s="13">
+        <v>0</v>
+      </c>
+      <c r="X65" s="13">
+        <v>0</v>
       </c>
       <c r="Y65" s="13">
         <v>0</v>
       </c>
       <c r="Z65" s="13">
-        <v>0</v>
+        <v>-4650</v>
       </c>
       <c r="AA65" s="13">
         <v>0</v>
       </c>
       <c r="AB65" s="13">
-        <v>-4650</v>
+        <v>0</v>
       </c>
       <c r="AC65" s="13">
         <v>0</v>
       </c>
       <c r="AD65" s="13">
-        <v>0</v>
+        <v>-20723</v>
       </c>
       <c r="AE65" s="13">
         <v>0</v>
       </c>
       <c r="AF65" s="13">
-        <v>-20723</v>
+        <v>0</v>
       </c>
       <c r="AG65" s="13">
         <v>0</v>
@@ -8264,17 +8264,17 @@
         <v>0</v>
       </c>
       <c r="AP65" s="13">
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="AQ65" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR65" s="13">
-        <v>-2400</v>
-      </c>
-      <c r="AS65" s="13">
         <v>-693</v>
       </c>
+      <c r="AR65" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS65" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT65" s="13" t="s">
         <v>58</v>
       </c>
@@ -8290,20 +8290,20 @@
       <c r="AX65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ65" s="13" t="s">
-        <v>58</v>
+      <c r="AY65" s="13">
+        <v>-49500</v>
+      </c>
+      <c r="AZ65" s="13">
+        <v>0</v>
       </c>
       <c r="BA65" s="13">
-        <v>-49500</v>
+        <v>0</v>
       </c>
       <c r="BB65" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>60</v>
       </c>
@@ -8365,26 +8365,26 @@
       <c r="V66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W66" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X66" s="11" t="s">
-        <v>58</v>
+      <c r="W66" s="11">
+        <v>0</v>
+      </c>
+      <c r="X66" s="11">
+        <v>0</v>
       </c>
       <c r="Y66" s="11">
-        <v>0</v>
+        <v>-264</v>
       </c>
       <c r="Z66" s="11">
         <v>0</v>
       </c>
       <c r="AA66" s="11">
-        <v>-264</v>
+        <v>-38</v>
       </c>
       <c r="AB66" s="11">
         <v>0</v>
       </c>
       <c r="AC66" s="11">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="AD66" s="11">
         <v>0</v>
@@ -8428,26 +8428,26 @@
       <c r="AQ66" s="11">
         <v>0</v>
       </c>
-      <c r="AR66" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS66" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT66" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU66" s="11" t="s">
-        <v>58</v>
+      <c r="AR66" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS66" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT66" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU66" s="11">
+        <v>0</v>
       </c>
       <c r="AV66" s="11">
-        <v>0</v>
+        <v>-3385</v>
       </c>
       <c r="AW66" s="11">
         <v>0</v>
       </c>
       <c r="AX66" s="11">
-        <v>-3385</v>
+        <v>0</v>
       </c>
       <c r="AY66" s="11">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
         <v>74</v>
       </c>
@@ -8524,104 +8524,104 @@
       <c r="V67" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X67" s="15" t="s">
-        <v>58</v>
+      <c r="W67" s="15">
+        <v>0</v>
+      </c>
+      <c r="X67" s="15">
+        <v>0</v>
       </c>
       <c r="Y67" s="15">
-        <v>0</v>
+        <v>-264</v>
       </c>
       <c r="Z67" s="15">
-        <v>0</v>
+        <v>-6026</v>
       </c>
       <c r="AA67" s="15">
-        <v>-264</v>
+        <v>-38</v>
       </c>
       <c r="AB67" s="15">
-        <v>-6026</v>
+        <v>-389</v>
       </c>
       <c r="AC67" s="15">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="AD67" s="15">
-        <v>-389</v>
+        <v>-27686</v>
       </c>
       <c r="AE67" s="15">
         <v>0</v>
       </c>
       <c r="AF67" s="15">
-        <v>-27686</v>
+        <v>0</v>
       </c>
       <c r="AG67" s="15">
         <v>0</v>
       </c>
       <c r="AH67" s="15">
-        <v>0</v>
+        <v>-610</v>
       </c>
       <c r="AI67" s="15">
-        <v>0</v>
+        <v>-111600</v>
       </c>
       <c r="AJ67" s="15">
-        <v>-610</v>
+        <v>0</v>
       </c>
       <c r="AK67" s="15">
-        <v>-111600</v>
+        <v>-2642</v>
       </c>
       <c r="AL67" s="15">
         <v>0</v>
       </c>
       <c r="AM67" s="15">
-        <v>-2642</v>
+        <v>-12086</v>
       </c>
       <c r="AN67" s="15">
-        <v>0</v>
+        <v>-2700</v>
       </c>
       <c r="AO67" s="15">
-        <v>-12086</v>
+        <v>-2300</v>
       </c>
       <c r="AP67" s="15">
-        <v>-2700</v>
+        <v>-71906</v>
       </c>
       <c r="AQ67" s="15">
-        <v>-2300</v>
+        <v>-7143</v>
       </c>
       <c r="AR67" s="15">
-        <v>-71906</v>
+        <v>0</v>
       </c>
       <c r="AS67" s="15">
-        <v>-7143</v>
+        <v>0</v>
       </c>
       <c r="AT67" s="15">
         <v>0</v>
       </c>
       <c r="AU67" s="15">
-        <v>0</v>
+        <v>-25811</v>
       </c>
       <c r="AV67" s="15">
-        <v>0</v>
+        <v>-3385</v>
       </c>
       <c r="AW67" s="15">
-        <v>-25829</v>
+        <v>-28447</v>
       </c>
       <c r="AX67" s="15">
-        <v>-3385</v>
+        <v>-740</v>
       </c>
       <c r="AY67" s="15">
-        <v>-28447</v>
+        <v>-70534</v>
       </c>
       <c r="AZ67" s="15">
-        <v>-740</v>
+        <v>-28164</v>
       </c>
       <c r="BA67" s="15">
-        <v>-70534</v>
+        <v>-63504</v>
       </c>
       <c r="BB67" s="15">
-        <v>-28164</v>
+        <v>-37972</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>81</v>
       </c>
@@ -8678,7 +8678,7 @@
       <c r="BA68" s="9"/>
       <c r="BB68" s="9"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>82</v>
       </c>
@@ -8740,104 +8740,104 @@
       <c r="V69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X69" s="11" t="s">
-        <v>58</v>
+      <c r="W69" s="11">
+        <v>-4712</v>
+      </c>
+      <c r="X69" s="11">
+        <v>-1713</v>
       </c>
       <c r="Y69" s="11">
-        <v>-4712</v>
+        <v>-4214</v>
       </c>
       <c r="Z69" s="11">
-        <v>-1713</v>
+        <v>-3731</v>
       </c>
       <c r="AA69" s="11">
-        <v>-4214</v>
+        <v>-3669</v>
       </c>
       <c r="AB69" s="11">
-        <v>-3731</v>
+        <v>-13876</v>
       </c>
       <c r="AC69" s="11">
-        <v>-3669</v>
+        <v>-6437</v>
       </c>
       <c r="AD69" s="11">
-        <v>-13876</v>
+        <v>-19574</v>
       </c>
       <c r="AE69" s="11">
-        <v>-6437</v>
+        <v>-20941</v>
       </c>
       <c r="AF69" s="11">
-        <v>-19574</v>
+        <v>-11781</v>
       </c>
       <c r="AG69" s="11">
-        <v>-20941</v>
+        <v>-9999</v>
       </c>
       <c r="AH69" s="11">
-        <v>-11781</v>
+        <v>-5291</v>
       </c>
       <c r="AI69" s="11">
-        <v>-9999</v>
+        <v>-3480</v>
       </c>
       <c r="AJ69" s="11">
-        <v>-5291</v>
+        <v>-8188</v>
       </c>
       <c r="AK69" s="11">
-        <v>-3480</v>
+        <v>-18964</v>
       </c>
       <c r="AL69" s="11">
-        <v>-8188</v>
+        <v>-10619</v>
       </c>
       <c r="AM69" s="11">
-        <v>-18964</v>
+        <v>-10522</v>
       </c>
       <c r="AN69" s="11">
-        <v>-10619</v>
+        <v>-18071</v>
       </c>
       <c r="AO69" s="11">
-        <v>-10522</v>
+        <v>-10544</v>
       </c>
       <c r="AP69" s="11">
-        <v>-18071</v>
+        <v>-25394</v>
       </c>
       <c r="AQ69" s="11">
-        <v>-10544</v>
+        <v>-14139</v>
       </c>
       <c r="AR69" s="11">
-        <v>-25394</v>
+        <v>-5723</v>
       </c>
       <c r="AS69" s="11">
-        <v>-14139</v>
+        <v>-2000</v>
       </c>
       <c r="AT69" s="11">
-        <v>-5723</v>
+        <v>-28450</v>
       </c>
       <c r="AU69" s="11">
-        <v>-2000</v>
+        <v>-23140</v>
       </c>
       <c r="AV69" s="11">
-        <v>-28450</v>
+        <v>-20360</v>
       </c>
       <c r="AW69" s="11">
-        <v>-23140</v>
+        <v>-30812</v>
       </c>
       <c r="AX69" s="11">
-        <v>-20360</v>
+        <v>-37166</v>
       </c>
       <c r="AY69" s="11">
-        <v>-30812</v>
+        <v>-17216</v>
       </c>
       <c r="AZ69" s="11">
-        <v>-37166</v>
+        <v>-33401</v>
       </c>
       <c r="BA69" s="11">
-        <v>-17216</v>
+        <v>-84854</v>
       </c>
       <c r="BB69" s="11">
-        <v>-33401</v>
+        <v>-24557</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="14" t="s">
         <v>67</v>
       </c>
@@ -8898,103 +8898,103 @@
         <v>0</v>
       </c>
       <c r="W70" s="15">
-        <v>0</v>
+        <v>570231</v>
       </c>
       <c r="X70" s="15">
-        <v>0</v>
+        <v>648848</v>
       </c>
       <c r="Y70" s="15">
-        <v>570231</v>
+        <v>787425</v>
       </c>
       <c r="Z70" s="15">
-        <v>648848</v>
+        <v>803171</v>
       </c>
       <c r="AA70" s="15">
-        <v>787425</v>
+        <v>642168</v>
       </c>
       <c r="AB70" s="15">
-        <v>803171</v>
+        <v>1164179</v>
       </c>
       <c r="AC70" s="15">
-        <v>642168</v>
+        <v>656474</v>
       </c>
       <c r="AD70" s="15">
-        <v>1164179</v>
+        <v>574451</v>
       </c>
       <c r="AE70" s="15">
-        <v>656474</v>
+        <v>210463</v>
       </c>
       <c r="AF70" s="15">
-        <v>574451</v>
+        <v>755628</v>
       </c>
       <c r="AG70" s="15">
-        <v>210463</v>
+        <v>837568</v>
       </c>
       <c r="AH70" s="15">
-        <v>755628</v>
+        <v>767967</v>
       </c>
       <c r="AI70" s="15">
-        <v>837568</v>
+        <v>977570</v>
       </c>
       <c r="AJ70" s="15">
-        <v>767967</v>
+        <v>638138</v>
       </c>
       <c r="AK70" s="15">
-        <v>977570</v>
+        <v>1243297</v>
       </c>
       <c r="AL70" s="15">
-        <v>638138</v>
+        <v>510781</v>
       </c>
       <c r="AM70" s="15">
-        <v>1243297</v>
+        <v>749318</v>
       </c>
       <c r="AN70" s="15">
-        <v>510781</v>
+        <v>721922</v>
       </c>
       <c r="AO70" s="15">
-        <v>749318</v>
+        <v>1032414</v>
       </c>
       <c r="AP70" s="15">
-        <v>721922</v>
+        <v>880691</v>
       </c>
       <c r="AQ70" s="15">
-        <v>1032414</v>
+        <v>453230</v>
       </c>
       <c r="AR70" s="15">
-        <v>880691</v>
+        <v>478036</v>
       </c>
       <c r="AS70" s="15">
-        <v>453230</v>
+        <v>1034973</v>
       </c>
       <c r="AT70" s="15">
-        <v>478036</v>
+        <v>987870</v>
       </c>
       <c r="AU70" s="15">
-        <v>1034973</v>
+        <v>1000619</v>
       </c>
       <c r="AV70" s="15">
-        <v>987870</v>
+        <v>1044964</v>
       </c>
       <c r="AW70" s="15">
-        <v>1000601</v>
+        <v>1400910</v>
       </c>
       <c r="AX70" s="15">
-        <v>1044964</v>
+        <v>1000946</v>
       </c>
       <c r="AY70" s="15">
-        <v>1400910</v>
+        <v>663812</v>
       </c>
       <c r="AZ70" s="15">
-        <v>1000946</v>
+        <v>906807</v>
       </c>
       <c r="BA70" s="15">
-        <v>663812</v>
+        <v>1195731</v>
       </c>
       <c r="BB70" s="15">
-        <v>906807</v>
+        <v>1750442</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -9049,7 +9049,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -9104,7 +9104,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -9159,7 +9159,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>83</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9371,7 +9371,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>84</v>
       </c>
@@ -9428,7 +9428,7 @@
       <c r="BA76" s="9"/>
       <c r="BB76" s="9"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>56</v>
       </c>
@@ -9490,104 +9490,104 @@
       <c r="V77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X77" s="11" t="s">
-        <v>58</v>
+      <c r="W77" s="11">
+        <v>1764309</v>
+      </c>
+      <c r="X77" s="11">
+        <v>3045169</v>
       </c>
       <c r="Y77" s="11">
-        <v>1764309</v>
+        <v>2080715</v>
       </c>
       <c r="Z77" s="11">
-        <v>3045169</v>
+        <v>1903797</v>
       </c>
       <c r="AA77" s="11">
-        <v>2080715</v>
+        <v>2440715</v>
       </c>
       <c r="AB77" s="11">
-        <v>1903797</v>
+        <v>2164494</v>
       </c>
       <c r="AC77" s="11">
-        <v>2440715</v>
+        <v>2658270</v>
       </c>
       <c r="AD77" s="11">
-        <v>2164494</v>
+        <v>2902106</v>
       </c>
       <c r="AE77" s="11">
-        <v>2658270</v>
+        <v>2551802</v>
       </c>
       <c r="AF77" s="11">
-        <v>2902106</v>
+        <v>3292218</v>
       </c>
       <c r="AG77" s="11">
-        <v>2551802</v>
+        <v>3458494</v>
       </c>
       <c r="AH77" s="11">
-        <v>3292218</v>
+        <v>4038529</v>
       </c>
       <c r="AI77" s="11">
-        <v>3458494</v>
+        <v>4045732</v>
       </c>
       <c r="AJ77" s="11">
-        <v>4038529</v>
+        <v>3371245</v>
       </c>
       <c r="AK77" s="11">
-        <v>4045732</v>
+        <v>3665803</v>
       </c>
       <c r="AL77" s="11">
-        <v>3371245</v>
+        <v>3681369</v>
       </c>
       <c r="AM77" s="11">
-        <v>3665803</v>
+        <v>3716755</v>
       </c>
       <c r="AN77" s="11">
-        <v>3681369</v>
+        <v>3718057</v>
       </c>
       <c r="AO77" s="11">
-        <v>3716755</v>
+        <v>3887950</v>
       </c>
       <c r="AP77" s="11">
-        <v>3718057</v>
+        <v>5481757</v>
       </c>
       <c r="AQ77" s="11">
-        <v>3887950</v>
+        <v>6157115</v>
       </c>
       <c r="AR77" s="11">
-        <v>5481757</v>
+        <v>13780000</v>
       </c>
       <c r="AS77" s="11">
-        <v>6157115</v>
+        <v>4300321</v>
       </c>
       <c r="AT77" s="11">
-        <v>13780000</v>
+        <v>4303190</v>
       </c>
       <c r="AU77" s="11">
-        <v>4300321</v>
+        <v>6254158</v>
       </c>
       <c r="AV77" s="11">
-        <v>4303190</v>
+        <v>7711297</v>
       </c>
       <c r="AW77" s="11">
-        <v>6254158</v>
+        <v>6101079</v>
       </c>
       <c r="AX77" s="11">
-        <v>7711297</v>
+        <v>5457394</v>
       </c>
       <c r="AY77" s="11">
-        <v>6101079</v>
+        <v>4453142</v>
       </c>
       <c r="AZ77" s="11">
-        <v>5457394</v>
+        <v>5094482</v>
       </c>
       <c r="BA77" s="11">
-        <v>4401250</v>
+        <v>5453294</v>
       </c>
       <c r="BB77" s="11">
-        <v>5094482</v>
+        <v>4806998</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>59</v>
       </c>
@@ -9649,104 +9649,104 @@
       <c r="V78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X78" s="13" t="s">
-        <v>58</v>
+      <c r="W78" s="13">
+        <v>1691604</v>
+      </c>
+      <c r="X78" s="13">
+        <v>1857379</v>
       </c>
       <c r="Y78" s="13">
-        <v>1691604</v>
+        <v>3651465</v>
       </c>
       <c r="Z78" s="13">
-        <v>1857379</v>
+        <v>976584</v>
       </c>
       <c r="AA78" s="13">
-        <v>3651465</v>
+        <v>1738574</v>
       </c>
       <c r="AB78" s="13">
-        <v>976584</v>
+        <v>2308242</v>
       </c>
       <c r="AC78" s="13">
-        <v>1738574</v>
+        <v>13374671</v>
       </c>
       <c r="AD78" s="13">
-        <v>2308242</v>
+        <v>6764541</v>
       </c>
       <c r="AE78" s="13">
-        <v>13374671</v>
+        <v>1387834</v>
       </c>
       <c r="AF78" s="13">
-        <v>6764541</v>
+        <v>13974312</v>
       </c>
       <c r="AG78" s="13">
-        <v>1387834</v>
+        <v>4942922</v>
       </c>
       <c r="AH78" s="13">
-        <v>13974312</v>
+        <v>4745753</v>
       </c>
       <c r="AI78" s="13">
-        <v>4942922</v>
+        <v>5312167</v>
       </c>
       <c r="AJ78" s="13">
-        <v>4745753</v>
+        <v>3824700</v>
       </c>
       <c r="AK78" s="13">
-        <v>5312167</v>
+        <v>4874306</v>
       </c>
       <c r="AL78" s="13">
-        <v>3824700</v>
+        <v>1777235</v>
       </c>
       <c r="AM78" s="13">
-        <v>4874306</v>
+        <v>2162852</v>
       </c>
       <c r="AN78" s="13">
-        <v>1777235</v>
+        <v>2720596</v>
       </c>
       <c r="AO78" s="13">
-        <v>2162852</v>
+        <v>4363436</v>
       </c>
       <c r="AP78" s="13">
-        <v>2720596</v>
+        <v>1927204</v>
       </c>
       <c r="AQ78" s="13">
-        <v>4363436</v>
-      </c>
-      <c r="AR78" s="13">
-        <v>1927204</v>
+        <v>1566409</v>
+      </c>
+      <c r="AR78" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS78" s="13">
-        <v>1566409</v>
-      </c>
-      <c r="AT78" s="13" t="s">
-        <v>58</v>
+        <v>2371061</v>
+      </c>
+      <c r="AT78" s="13">
+        <v>14644106</v>
       </c>
       <c r="AU78" s="13">
-        <v>2371061</v>
+        <v>3333662</v>
       </c>
       <c r="AV78" s="13">
-        <v>14644106</v>
+        <v>6058703</v>
       </c>
       <c r="AW78" s="13">
-        <v>3333662</v>
+        <v>51492424</v>
       </c>
       <c r="AX78" s="13">
-        <v>6058703</v>
+        <v>866634</v>
       </c>
       <c r="AY78" s="13">
-        <v>51492424</v>
+        <v>926054</v>
       </c>
       <c r="AZ78" s="13">
-        <v>866634</v>
+        <v>1820524</v>
       </c>
       <c r="BA78" s="13">
-        <v>924703</v>
+        <v>30765172</v>
       </c>
       <c r="BB78" s="13">
-        <v>1820524</v>
+        <v>4375834</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>60</v>
       </c>
@@ -9808,104 +9808,104 @@
       <c r="V79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X79" s="11" t="s">
-        <v>58</v>
+      <c r="W79" s="11">
+        <v>739486</v>
+      </c>
+      <c r="X79" s="11">
+        <v>969978</v>
       </c>
       <c r="Y79" s="11">
-        <v>739486</v>
+        <v>749545</v>
       </c>
       <c r="Z79" s="11">
-        <v>969978</v>
+        <v>866119</v>
       </c>
       <c r="AA79" s="11">
-        <v>749545</v>
+        <v>704225</v>
       </c>
       <c r="AB79" s="11">
-        <v>866119</v>
+        <v>1140201</v>
       </c>
       <c r="AC79" s="11">
-        <v>704225</v>
+        <v>725005</v>
       </c>
       <c r="AD79" s="11">
-        <v>1140201</v>
+        <v>718318</v>
       </c>
       <c r="AE79" s="11">
-        <v>725005</v>
+        <v>782359</v>
       </c>
       <c r="AF79" s="11">
-        <v>718318</v>
+        <v>13736</v>
       </c>
       <c r="AG79" s="11">
-        <v>782359</v>
+        <v>13638</v>
       </c>
       <c r="AH79" s="11">
-        <v>13736</v>
+        <v>17084</v>
       </c>
       <c r="AI79" s="11">
-        <v>13638</v>
+        <v>9111</v>
       </c>
       <c r="AJ79" s="11">
-        <v>17084</v>
+        <v>12041</v>
       </c>
       <c r="AK79" s="11">
-        <v>9111</v>
+        <v>9447</v>
       </c>
       <c r="AL79" s="11">
-        <v>12041</v>
+        <v>15177</v>
       </c>
       <c r="AM79" s="11">
-        <v>9447</v>
+        <v>7579</v>
       </c>
       <c r="AN79" s="11">
-        <v>15177</v>
+        <v>10850</v>
       </c>
       <c r="AO79" s="11">
-        <v>7579</v>
+        <v>34678</v>
       </c>
       <c r="AP79" s="11">
-        <v>10850</v>
+        <v>16252</v>
       </c>
       <c r="AQ79" s="11">
-        <v>34678</v>
+        <v>12605</v>
       </c>
       <c r="AR79" s="11">
-        <v>16252</v>
+        <v>9859</v>
       </c>
       <c r="AS79" s="11">
-        <v>12605</v>
+        <v>23645</v>
       </c>
       <c r="AT79" s="11">
-        <v>9859</v>
+        <v>8063</v>
       </c>
       <c r="AU79" s="11">
-        <v>23645</v>
+        <v>155518</v>
       </c>
       <c r="AV79" s="11">
-        <v>8063</v>
+        <v>17118</v>
       </c>
       <c r="AW79" s="11">
-        <v>155518</v>
+        <v>269387</v>
       </c>
       <c r="AX79" s="11">
-        <v>17118</v>
+        <v>22374</v>
       </c>
       <c r="AY79" s="11">
-        <v>269387</v>
+        <v>65745</v>
       </c>
       <c r="AZ79" s="11">
-        <v>22374</v>
+        <v>234295</v>
       </c>
       <c r="BA79" s="11">
-        <v>65745</v>
+        <v>316725</v>
       </c>
       <c r="BB79" s="11">
-        <v>234295</v>
+        <v>328766</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
         <v>87</v>
       </c>
@@ -9962,7 +9962,7 @@
       <c r="BA80" s="9"/>
       <c r="BB80" s="9"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>56</v>
       </c>
@@ -10030,14 +10030,14 @@
       <c r="X81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y81" s="11" t="s">
-        <v>58</v>
+      <c r="Y81" s="11">
+        <v>1292242</v>
       </c>
       <c r="Z81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA81" s="11">
-        <v>1292242</v>
+      <c r="AA81" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AB81" s="11" t="s">
         <v>58</v>
@@ -10051,18 +10051,18 @@
       <c r="AE81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH81" s="11">
+      <c r="AF81" s="11">
         <v>1568485</v>
       </c>
-      <c r="AI81" s="11">
+      <c r="AG81" s="11">
         <v>11168000</v>
       </c>
+      <c r="AH81" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI81" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ81" s="11" t="s">
         <v>58</v>
       </c>
@@ -10072,14 +10072,14 @@
       <c r="AL81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM81" s="11" t="s">
-        <v>58</v>
+      <c r="AM81" s="11">
+        <v>2551552</v>
       </c>
       <c r="AN81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO81" s="11">
-        <v>2551552</v>
+      <c r="AO81" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP81" s="11" t="s">
         <v>58</v>
@@ -10121,7 +10121,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>59</v>
       </c>
@@ -10183,104 +10183,104 @@
       <c r="V82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X82" s="13" t="s">
-        <v>58</v>
+      <c r="W82" s="13">
+        <v>86017866</v>
+      </c>
+      <c r="X82" s="13">
+        <v>90104167</v>
       </c>
       <c r="Y82" s="13">
-        <v>86017866</v>
+        <v>113680046</v>
       </c>
       <c r="Z82" s="13">
-        <v>90104167</v>
+        <v>129545854</v>
       </c>
       <c r="AA82" s="13">
-        <v>113680046</v>
+        <v>112406250</v>
       </c>
       <c r="AB82" s="13">
-        <v>129545854</v>
+        <v>151089462</v>
       </c>
       <c r="AC82" s="13">
-        <v>112406250</v>
+        <v>135900000</v>
       </c>
       <c r="AD82" s="13">
-        <v>151089462</v>
+        <v>118757085</v>
       </c>
       <c r="AE82" s="13">
-        <v>135900000</v>
+        <v>143515982</v>
       </c>
       <c r="AF82" s="13">
-        <v>118757085</v>
+        <v>116308837</v>
       </c>
       <c r="AG82" s="13">
-        <v>143515982</v>
+        <v>99844739</v>
       </c>
       <c r="AH82" s="13">
-        <v>116308837</v>
+        <v>32600000</v>
       </c>
       <c r="AI82" s="13">
-        <v>99844739</v>
+        <v>34100041</v>
       </c>
       <c r="AJ82" s="13">
-        <v>32600000</v>
+        <v>98767538</v>
       </c>
       <c r="AK82" s="13">
-        <v>34100041</v>
+        <v>120704545</v>
       </c>
       <c r="AL82" s="13">
-        <v>98767538</v>
+        <v>56386364</v>
       </c>
       <c r="AM82" s="13">
-        <v>120704545</v>
+        <v>124449883</v>
       </c>
       <c r="AN82" s="13">
-        <v>56386364</v>
+        <v>104309524</v>
       </c>
       <c r="AO82" s="13">
-        <v>124449883</v>
+        <v>65197500</v>
       </c>
       <c r="AP82" s="13">
-        <v>104309524</v>
+        <v>822913043</v>
       </c>
       <c r="AQ82" s="13">
-        <v>65197500</v>
+        <v>134984716</v>
       </c>
       <c r="AR82" s="13">
-        <v>822913043</v>
+        <v>39344444</v>
       </c>
       <c r="AS82" s="13">
-        <v>134984716</v>
+        <v>45996713</v>
       </c>
       <c r="AT82" s="13">
-        <v>39344444</v>
+        <v>79826000</v>
       </c>
       <c r="AU82" s="13">
-        <v>45996713</v>
+        <v>162565891</v>
       </c>
       <c r="AV82" s="13">
-        <v>79826000</v>
+        <v>139470852</v>
       </c>
       <c r="AW82" s="13">
-        <v>162565891</v>
+        <v>185343137</v>
       </c>
       <c r="AX82" s="13">
-        <v>139470852</v>
+        <v>94245668</v>
       </c>
       <c r="AY82" s="13">
-        <v>185343137</v>
+        <v>232687805</v>
       </c>
       <c r="AZ82" s="13">
-        <v>94245668</v>
+        <v>94567273</v>
       </c>
       <c r="BA82" s="13">
-        <v>232687805</v>
+        <v>97110766</v>
       </c>
       <c r="BB82" s="13">
-        <v>94567273</v>
+        <v>1040577778</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>60</v>
       </c>
@@ -10348,50 +10348,50 @@
       <c r="X83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y83" s="11" t="s">
-        <v>58</v>
+      <c r="Y83" s="11">
+        <v>15790556</v>
       </c>
       <c r="Z83" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AA83" s="11">
-        <v>15790556</v>
+        <v>19213239</v>
       </c>
       <c r="AB83" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AC83" s="11">
-        <v>19213239</v>
+        <v>23078261</v>
       </c>
       <c r="AD83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE83" s="11">
-        <v>23078261</v>
+      <c r="AE83" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AF83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG83" s="11" t="s">
-        <v>58</v>
+      <c r="AG83" s="11">
+        <v>4850</v>
       </c>
       <c r="AH83" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AI83" s="11">
-        <v>4850</v>
+        <v>5905</v>
       </c>
       <c r="AJ83" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AK83" s="11">
-        <v>5905</v>
+        <v>3437</v>
       </c>
       <c r="AL83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM83" s="11">
-        <v>3437</v>
+      <c r="AM83" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN83" s="11" t="s">
         <v>58</v>
